--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao bieu do/CRMF3000_Bao cao bieu do.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao bieu do/CRMF3000_Bao cao bieu do.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$P$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$R$94</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Input Check'!$A$1:$I$54</definedName>
@@ -1403,7 +1403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="205">
   <si>
     <t>Detail Design</t>
   </si>
@@ -1766,9 +1766,6 @@
     <t>III. XỬ LÝ SỰ KiỆN</t>
   </si>
   <si>
-    <t>AF0252</t>
-  </si>
-  <si>
     <t>II. LOAD DỮ LiỆU (FORM_LOAD)</t>
   </si>
   <si>
@@ -1981,9 +1978,6 @@
     <t>ASOFT - CRM</t>
   </si>
   <si>
-    <t>CRMF3002</t>
-  </si>
-  <si>
     <t>Báo cáo biểu đồ</t>
   </si>
   <si>
@@ -2012,12 +2006,6 @@
     <t>Load</t>
   </si>
   <si>
-    <t>Thực thi @ SQL0001 Load Danh mục các báo cáo</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0001 Load danh mục báo cáo cho form</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sử dụng màn hình này để: Hiển thị tất cả các danh sách báo cáo trong module CRM
 </t>
   </si>
@@ -2068,41 +2056,77 @@
     <t>O</t>
   </si>
   <si>
-    <t>If CustomizeIndex = 51 
+    <t>CRMT88888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV1 </t>
+  </si>
+  <si>
+    <t>Click Vào Link Báo cáo Khách hàng mới theo nhân viên 
+ Truyền tham số @FormID để gọi tới màn hình CRMF3010</t>
+  </si>
+  <si>
+    <t>Click Vào Link Báo cáo Khách hàng ngưng sử dụng  
+ Truyền tham số @FormID để gọi tới màn hình CRMF3020</t>
+  </si>
+  <si>
+    <t>Click Vào Link Báo cáo thống kê thời gian giao hàng
+ Truyền tham số @FormID để gọi tới màn hình CRMF3030</t>
+  </si>
+  <si>
+    <t>Click Vào Link Báo cáo khách hàng không phát sinh đơn hàng 
+ Truyền tham số @FormID để gọi tới màn hình CRMF3040</t>
+  </si>
+  <si>
+    <t>CRMF3000</t>
+  </si>
+  <si>
+    <t>Kiểm tra CustomizeIndex</t>
+  </si>
+  <si>
+    <t>exec AP4444</t>
+  </si>
+  <si>
+    <t>Thực thi @ SQL0001 Kiểm tra CustomizeIndex của hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 Select ReportID, ReportName, Title 
 From CRMT88888
 Where ReportID in ('CRMR30101', 'CRMR30201','CRMR30301','CRMR30401')
 Order by ReportID
-Else 
-Select ReportID, ReportName, Title 
+</t>
+  </si>
+  <si>
+    <t>Select ReportID, ReportName, Title 
 From CRMT88888
 Where ReportID not in ('CRMR30101', 'CRMR30201','CRMR30301','CRMR30401')
 Order by ReportID</t>
   </si>
   <si>
-    <t>CRMT88888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV1 </t>
-  </si>
-  <si>
-    <t>Click Vào Link Báo cáo Khách hàng mới theo nhân viên 
- Truyền tham số @FormID để gọi tới màn hình CRMF3010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV4 </t>
-  </si>
-  <si>
-    <t>Click Vào Link Báo cáo Khách hàng ngưng sử dụng  
- Truyền tham số @FormID để gọi tới màn hình CRMF3020</t>
-  </si>
-  <si>
-    <t>Click Vào Link Báo cáo thống kê thời gian giao hàng
- Truyền tham số @FormID để gọi tới màn hình CRMF3030</t>
-  </si>
-  <si>
-    <t>Click Vào Link Báo cáo khách hàng không phát sinh đơn hàng 
- Truyền tham số @FormID để gọi tới màn hình CRMF3040</t>
+    <t>@SQL0002</t>
+  </si>
+  <si>
+    <t>@SQL0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV3 </t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực thi @SQL0002  Load Danh mục các báo cáo nếu thực thi @SQL001 mà CustomerName = 51 </t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0003  Load Danh mục các báo cáo nếu thực thi @SQL001 mà CustomerName khác 51</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001  Kiểm tra CustomizeIndex ,
+ nếu CustomerName =51 Thực thi @ SQL0002 để load danh mục báo cáo, ngược lại thực thi @SQL0003 load danh mục báo cáo</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2563,17 +2587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -2639,7 +2652,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,16 +2914,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2963,102 +2976,114 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3129,6 +3154,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3140,15 +3174,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3158,18 +3183,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3182,11 +3201,35 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3269,19 +3312,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>2867025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3301,8 +3344,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="38100" y="666750"/>
-          <a:ext cx="9667875" cy="5295900"/>
+          <a:off x="28575" y="695325"/>
+          <a:ext cx="9715500" cy="4724400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4113,65 +4156,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="142"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="143" t="s">
+      <c r="A1" s="140"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="142" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143" t="s">
+      <c r="J1" s="141"/>
+    </row>
+    <row r="2" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="143"/>
-    </row>
-    <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="143" t="s">
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+    </row>
+    <row r="3" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A3" s="140"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-    </row>
-    <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="142"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="139" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="140"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="120"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
       <c r="K13" s="121"/>
       <c r="L13" s="121"/>
       <c r="M13" s="121"/>
@@ -4220,18 +4263,18 @@
       <c r="R15" s="135"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="138" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
+      <c r="A16" s="136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
       <c r="K16" s="122"/>
       <c r="L16" s="122"/>
       <c r="M16" s="122"/>
@@ -4280,23 +4323,23 @@
       <c r="R18" s="135"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
-      <c r="O19" s="137"/>
-      <c r="P19" s="137"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="137"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="152"/>
+      <c r="O19" s="152"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="152"/>
+      <c r="R19" s="152"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
       <c r="B20" s="135"/>
@@ -4337,289 +4380,289 @@
       <c r="R21" s="135"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="136"/>
-      <c r="P22" s="136"/>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="136"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
+      <c r="N22" s="151"/>
+      <c r="O22" s="151"/>
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="133"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="133"/>
-      <c r="R26" s="133"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
-      <c r="Q28" s="134"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="132"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132"/>
-      <c r="AQ28" s="132"/>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="132"/>
-      <c r="AT28" s="132"/>
-      <c r="AU28" s="132"/>
-      <c r="AV28" s="132"/>
-      <c r="AW28" s="132"/>
-      <c r="AX28" s="132"/>
-      <c r="AY28" s="132"/>
-      <c r="AZ28" s="132"/>
-      <c r="BA28" s="132"/>
-      <c r="BB28" s="132"/>
-      <c r="BC28" s="132"/>
-      <c r="BD28" s="132"/>
-      <c r="BE28" s="132"/>
-      <c r="BF28" s="132"/>
-      <c r="BG28" s="132"/>
-      <c r="BH28" s="132"/>
-      <c r="BI28" s="132"/>
-      <c r="BJ28" s="132"/>
-      <c r="BK28" s="132"/>
-      <c r="BL28" s="132"/>
-      <c r="BM28" s="132"/>
-      <c r="BN28" s="132"/>
-      <c r="BO28" s="132"/>
-      <c r="BP28" s="132"/>
-      <c r="BQ28" s="132"/>
-      <c r="BR28" s="132"/>
-      <c r="BS28" s="132"/>
-      <c r="BT28" s="132"/>
-      <c r="BU28" s="132"/>
-      <c r="BV28" s="132"/>
-      <c r="BW28" s="132"/>
-      <c r="BX28" s="132"/>
-      <c r="BY28" s="132"/>
-      <c r="BZ28" s="132"/>
-      <c r="CA28" s="132"/>
-      <c r="CB28" s="132"/>
-      <c r="CC28" s="132"/>
-      <c r="CD28" s="132"/>
-      <c r="CE28" s="132"/>
-      <c r="CF28" s="132"/>
-      <c r="CG28" s="132"/>
-      <c r="CH28" s="132"/>
-      <c r="CI28" s="132"/>
-      <c r="CJ28" s="132"/>
-      <c r="CK28" s="132"/>
-      <c r="CL28" s="132"/>
-      <c r="CM28" s="132"/>
-      <c r="CN28" s="132"/>
-      <c r="CO28" s="132"/>
-      <c r="CP28" s="132"/>
-      <c r="CQ28" s="132"/>
-      <c r="CR28" s="132"/>
-      <c r="CS28" s="132"/>
-      <c r="CT28" s="132"/>
-      <c r="CU28" s="132"/>
-      <c r="CV28" s="132"/>
-      <c r="CW28" s="132"/>
-      <c r="CX28" s="132"/>
-      <c r="CY28" s="132"/>
-      <c r="CZ28" s="132"/>
-      <c r="DA28" s="132"/>
-      <c r="DB28" s="132"/>
-      <c r="DC28" s="132"/>
-      <c r="DD28" s="132"/>
-      <c r="DE28" s="132"/>
-      <c r="DF28" s="132"/>
-      <c r="DG28" s="132"/>
-      <c r="DH28" s="132"/>
-      <c r="DI28" s="132"/>
-      <c r="DJ28" s="132"/>
-      <c r="DK28" s="132"/>
-      <c r="DL28" s="132"/>
-      <c r="DM28" s="132"/>
-      <c r="DN28" s="132"/>
-      <c r="DO28" s="132"/>
-      <c r="DP28" s="132"/>
-      <c r="DQ28" s="132"/>
-      <c r="DR28" s="132"/>
-      <c r="DS28" s="132"/>
-      <c r="DT28" s="132"/>
-      <c r="DU28" s="132"/>
-      <c r="DV28" s="132"/>
-      <c r="DW28" s="132"/>
-      <c r="DX28" s="132"/>
-      <c r="DY28" s="132"/>
-      <c r="DZ28" s="132"/>
-      <c r="EA28" s="132"/>
-      <c r="EB28" s="132"/>
-      <c r="EC28" s="132"/>
-      <c r="ED28" s="132"/>
-      <c r="EE28" s="132"/>
-      <c r="EF28" s="132"/>
-      <c r="EG28" s="132"/>
-      <c r="EH28" s="132"/>
-      <c r="EI28" s="132"/>
-      <c r="EJ28" s="132"/>
-      <c r="EK28" s="132"/>
-      <c r="EL28" s="132"/>
-      <c r="EM28" s="132"/>
-      <c r="EN28" s="132"/>
-      <c r="EO28" s="132"/>
-      <c r="EP28" s="132"/>
-      <c r="EQ28" s="132"/>
-      <c r="ER28" s="132"/>
-      <c r="ES28" s="132"/>
-      <c r="ET28" s="132"/>
-      <c r="EU28" s="132"/>
-      <c r="EV28" s="132"/>
-      <c r="EW28" s="132"/>
-      <c r="EX28" s="132"/>
-      <c r="EY28" s="132"/>
-      <c r="EZ28" s="132"/>
-      <c r="FA28" s="132"/>
-      <c r="FB28" s="132"/>
-      <c r="FC28" s="132"/>
-      <c r="FD28" s="132"/>
-      <c r="FE28" s="132"/>
-      <c r="FF28" s="132"/>
-      <c r="FG28" s="132"/>
-      <c r="FH28" s="132"/>
-      <c r="FI28" s="132"/>
-      <c r="FJ28" s="132"/>
-      <c r="FK28" s="132"/>
-      <c r="FL28" s="132"/>
-      <c r="FM28" s="132"/>
-      <c r="FN28" s="132"/>
-      <c r="FO28" s="132"/>
-      <c r="FP28" s="132"/>
-      <c r="FQ28" s="132"/>
-      <c r="FR28" s="132"/>
-      <c r="FS28" s="132"/>
-      <c r="FT28" s="132"/>
-      <c r="FU28" s="132"/>
-      <c r="FV28" s="132"/>
-      <c r="FW28" s="132"/>
-      <c r="FX28" s="132"/>
-      <c r="FY28" s="132"/>
-      <c r="FZ28" s="132"/>
-      <c r="GA28" s="132"/>
-      <c r="GB28" s="132"/>
-      <c r="GC28" s="132"/>
-      <c r="GD28" s="132"/>
-      <c r="GE28" s="132"/>
-      <c r="GF28" s="132"/>
-      <c r="GG28" s="132"/>
-      <c r="GH28" s="132"/>
-      <c r="GI28" s="132"/>
-      <c r="GJ28" s="132"/>
-      <c r="GK28" s="132"/>
-      <c r="GL28" s="132"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="154"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="154"/>
+      <c r="Z28" s="154"/>
+      <c r="AA28" s="154"/>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+      <c r="AD28" s="154"/>
+      <c r="AE28" s="154"/>
+      <c r="AF28" s="154"/>
+      <c r="AG28" s="154"/>
+      <c r="AH28" s="154"/>
+      <c r="AI28" s="154"/>
+      <c r="AJ28" s="154"/>
+      <c r="AK28" s="154"/>
+      <c r="AL28" s="154"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
+      <c r="AQ28" s="154"/>
+      <c r="AR28" s="154"/>
+      <c r="AS28" s="154"/>
+      <c r="AT28" s="154"/>
+      <c r="AU28" s="154"/>
+      <c r="AV28" s="154"/>
+      <c r="AW28" s="154"/>
+      <c r="AX28" s="154"/>
+      <c r="AY28" s="154"/>
+      <c r="AZ28" s="154"/>
+      <c r="BA28" s="154"/>
+      <c r="BB28" s="154"/>
+      <c r="BC28" s="154"/>
+      <c r="BD28" s="154"/>
+      <c r="BE28" s="154"/>
+      <c r="BF28" s="154"/>
+      <c r="BG28" s="154"/>
+      <c r="BH28" s="154"/>
+      <c r="BI28" s="154"/>
+      <c r="BJ28" s="154"/>
+      <c r="BK28" s="154"/>
+      <c r="BL28" s="154"/>
+      <c r="BM28" s="154"/>
+      <c r="BN28" s="154"/>
+      <c r="BO28" s="154"/>
+      <c r="BP28" s="154"/>
+      <c r="BQ28" s="154"/>
+      <c r="BR28" s="154"/>
+      <c r="BS28" s="154"/>
+      <c r="BT28" s="154"/>
+      <c r="BU28" s="154"/>
+      <c r="BV28" s="154"/>
+      <c r="BW28" s="154"/>
+      <c r="BX28" s="154"/>
+      <c r="BY28" s="154"/>
+      <c r="BZ28" s="154"/>
+      <c r="CA28" s="154"/>
+      <c r="CB28" s="154"/>
+      <c r="CC28" s="154"/>
+      <c r="CD28" s="154"/>
+      <c r="CE28" s="154"/>
+      <c r="CF28" s="154"/>
+      <c r="CG28" s="154"/>
+      <c r="CH28" s="154"/>
+      <c r="CI28" s="154"/>
+      <c r="CJ28" s="154"/>
+      <c r="CK28" s="154"/>
+      <c r="CL28" s="154"/>
+      <c r="CM28" s="154"/>
+      <c r="CN28" s="154"/>
+      <c r="CO28" s="154"/>
+      <c r="CP28" s="154"/>
+      <c r="CQ28" s="154"/>
+      <c r="CR28" s="154"/>
+      <c r="CS28" s="154"/>
+      <c r="CT28" s="154"/>
+      <c r="CU28" s="154"/>
+      <c r="CV28" s="154"/>
+      <c r="CW28" s="154"/>
+      <c r="CX28" s="154"/>
+      <c r="CY28" s="154"/>
+      <c r="CZ28" s="154"/>
+      <c r="DA28" s="154"/>
+      <c r="DB28" s="154"/>
+      <c r="DC28" s="154"/>
+      <c r="DD28" s="154"/>
+      <c r="DE28" s="154"/>
+      <c r="DF28" s="154"/>
+      <c r="DG28" s="154"/>
+      <c r="DH28" s="154"/>
+      <c r="DI28" s="154"/>
+      <c r="DJ28" s="154"/>
+      <c r="DK28" s="154"/>
+      <c r="DL28" s="154"/>
+      <c r="DM28" s="154"/>
+      <c r="DN28" s="154"/>
+      <c r="DO28" s="154"/>
+      <c r="DP28" s="154"/>
+      <c r="DQ28" s="154"/>
+      <c r="DR28" s="154"/>
+      <c r="DS28" s="154"/>
+      <c r="DT28" s="154"/>
+      <c r="DU28" s="154"/>
+      <c r="DV28" s="154"/>
+      <c r="DW28" s="154"/>
+      <c r="DX28" s="154"/>
+      <c r="DY28" s="154"/>
+      <c r="DZ28" s="154"/>
+      <c r="EA28" s="154"/>
+      <c r="EB28" s="154"/>
+      <c r="EC28" s="154"/>
+      <c r="ED28" s="154"/>
+      <c r="EE28" s="154"/>
+      <c r="EF28" s="154"/>
+      <c r="EG28" s="154"/>
+      <c r="EH28" s="154"/>
+      <c r="EI28" s="154"/>
+      <c r="EJ28" s="154"/>
+      <c r="EK28" s="154"/>
+      <c r="EL28" s="154"/>
+      <c r="EM28" s="154"/>
+      <c r="EN28" s="154"/>
+      <c r="EO28" s="154"/>
+      <c r="EP28" s="154"/>
+      <c r="EQ28" s="154"/>
+      <c r="ER28" s="154"/>
+      <c r="ES28" s="154"/>
+      <c r="ET28" s="154"/>
+      <c r="EU28" s="154"/>
+      <c r="EV28" s="154"/>
+      <c r="EW28" s="154"/>
+      <c r="EX28" s="154"/>
+      <c r="EY28" s="154"/>
+      <c r="EZ28" s="154"/>
+      <c r="FA28" s="154"/>
+      <c r="FB28" s="154"/>
+      <c r="FC28" s="154"/>
+      <c r="FD28" s="154"/>
+      <c r="FE28" s="154"/>
+      <c r="FF28" s="154"/>
+      <c r="FG28" s="154"/>
+      <c r="FH28" s="154"/>
+      <c r="FI28" s="154"/>
+      <c r="FJ28" s="154"/>
+      <c r="FK28" s="154"/>
+      <c r="FL28" s="154"/>
+      <c r="FM28" s="154"/>
+      <c r="FN28" s="154"/>
+      <c r="FO28" s="154"/>
+      <c r="FP28" s="154"/>
+      <c r="FQ28" s="154"/>
+      <c r="FR28" s="154"/>
+      <c r="FS28" s="154"/>
+      <c r="FT28" s="154"/>
+      <c r="FU28" s="154"/>
+      <c r="FV28" s="154"/>
+      <c r="FW28" s="154"/>
+      <c r="FX28" s="154"/>
+      <c r="FY28" s="154"/>
+      <c r="FZ28" s="154"/>
+      <c r="GA28" s="154"/>
+      <c r="GB28" s="154"/>
+      <c r="GC28" s="154"/>
+      <c r="GD28" s="154"/>
+      <c r="GE28" s="154"/>
+      <c r="GF28" s="154"/>
+      <c r="GG28" s="154"/>
+      <c r="GH28" s="154"/>
+      <c r="GI28" s="154"/>
+      <c r="GJ28" s="154"/>
+      <c r="GK28" s="154"/>
+      <c r="GL28" s="154"/>
       <c r="GM28" s="123"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="133"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="153"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
+      <c r="N29" s="153"/>
+      <c r="O29" s="153"/>
+      <c r="P29" s="153"/>
+      <c r="Q29" s="153"/>
+      <c r="R29" s="153"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
       <c r="K30" s="124"/>
       <c r="L30" s="124"/>
       <c r="M30" s="124"/>
@@ -4630,16 +4673,16 @@
       <c r="R30" s="124"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
       <c r="K31" s="124"/>
       <c r="L31" s="124"/>
       <c r="M31" s="124"/>
@@ -4651,6 +4694,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4664,28 +4729,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4712,14 +4755,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="202" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -4912,11 +4955,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="203" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="202"/>
-      <c r="G27" s="203"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="205"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5135,82 +5178,82 @@
     <row r="1" spans="2:3" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="15.75" thickBot="1">
       <c r="B2" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="110" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B3" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="112" t="s">
         <v>135</v>
-      </c>
-      <c r="C3" s="112" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B4" s="111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B5" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="112" t="s">
         <v>138</v>
-      </c>
-      <c r="C5" s="112" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B6" s="111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B7" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="112" t="s">
         <v>141</v>
-      </c>
-      <c r="C7" s="112" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B8" s="111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="112" t="s">
         <v>143</v>
-      </c>
-      <c r="C8" s="112" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B9" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="112" t="s">
         <v>145</v>
-      </c>
-      <c r="C9" s="112" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B10" s="111" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="112" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" s="112" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.95" customHeight="1" thickBot="1">
       <c r="B11" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="112" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5224,7 +5267,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J5"/>
+      <selection activeCell="E10" sqref="E10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5240,27 +5283,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="102" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
@@ -5268,19 +5311,19 @@
       <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -5306,14 +5349,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="161" t="s">
+      <c r="E4" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
       <c r="A5" s="40">
@@ -5326,16 +5369,16 @@
         <v>42416</v>
       </c>
       <c r="D5" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="162" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
+        <v>161</v>
+      </c>
+      <c r="E5" s="165" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="93">
@@ -5346,12 +5389,12 @@
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="94">
@@ -5362,12 +5405,12 @@
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="159"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="95">
@@ -5378,12 +5421,12 @@
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="96">
@@ -5394,12 +5437,12 @@
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="97">
@@ -5410,12 +5453,12 @@
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="159"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="98">
@@ -5426,12 +5469,12 @@
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="99">
@@ -5442,12 +5485,12 @@
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="159"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="100">
@@ -5458,12 +5501,12 @@
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="159"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="101">
@@ -5474,12 +5517,12 @@
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="159"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5490,12 +5533,12 @@
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="93">
@@ -5506,12 +5549,12 @@
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="94">
@@ -5522,12 +5565,12 @@
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="95">
@@ -5538,12 +5581,12 @@
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="96">
@@ -5554,12 +5597,12 @@
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="97">
@@ -5570,12 +5613,12 @@
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="98">
@@ -5586,12 +5629,12 @@
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="99">
@@ -5602,12 +5645,12 @@
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="100">
@@ -5618,12 +5661,12 @@
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="101">
@@ -5634,12 +5677,12 @@
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5650,12 +5693,12 @@
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5666,12 +5709,12 @@
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="93">
@@ -5682,12 +5725,12 @@
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="94">
@@ -5698,12 +5741,12 @@
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="95">
@@ -5714,12 +5757,12 @@
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="96">
@@ -5730,12 +5773,12 @@
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="97">
@@ -5746,12 +5789,12 @@
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="98">
@@ -5762,12 +5805,12 @@
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="99">
@@ -5778,12 +5821,12 @@
       </c>
       <c r="C33" s="81"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="100">
@@ -5794,12 +5837,12 @@
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="101">
@@ -5810,12 +5853,12 @@
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="166"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5826,12 +5869,12 @@
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="E36" s="166"/>
+      <c r="F36" s="166"/>
+      <c r="G36" s="166"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="93">
@@ -5842,12 +5885,12 @@
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
+      <c r="E37" s="166"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="166"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="94">
@@ -5858,12 +5901,12 @@
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="166"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="95">
@@ -5874,12 +5917,12 @@
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="166"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="96">
@@ -5890,12 +5933,12 @@
       </c>
       <c r="C40" s="81"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="97">
@@ -5906,12 +5949,12 @@
       </c>
       <c r="C41" s="81"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="98">
@@ -5922,23 +5965,32 @@
       </c>
       <c r="C42" s="81"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="166"/>
+      <c r="G42" s="166"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -5954,23 +6006,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5996,7 +6039,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6015,10 +6058,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6031,7 +6074,7 @@
       </c>
       <c r="F1" s="36" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -6044,12 +6087,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6079,20 +6122,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="166" t="s">
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="167"/>
+      <c r="J4" s="171"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6103,10 +6146,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="175" t="s">
-        <v>173</v>
-      </c>
-      <c r="J5" s="176"/>
+      <c r="I5" s="179" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="180"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6117,8 +6160,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="178"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="182"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6129,8 +6172,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6141,8 +6184,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="178"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="182"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6153,8 +6196,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="178"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6165,8 +6208,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="184"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6177,10 +6220,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="166" t="s">
+      <c r="I11" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="167"/>
+      <c r="J11" s="171"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6191,10 +6234,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="169" t="s">
-        <v>174</v>
-      </c>
-      <c r="J12" s="170"/>
+      <c r="I12" s="173" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6205,8 +6248,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6217,8 +6260,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6229,8 +6272,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6241,8 +6284,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6253,8 +6296,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6265,8 +6308,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6277,8 +6320,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6289,8 +6332,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6301,8 +6344,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6313,8 +6356,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6325,8 +6368,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6337,8 +6380,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6349,8 +6392,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6361,8 +6404,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6373,8 +6416,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6385,8 +6428,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6397,8 +6440,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6409,8 +6452,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="172"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6421,8 +6464,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6433,8 +6476,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="172"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6445,8 +6488,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6457,8 +6500,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="172"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6469,8 +6512,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="172"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6481,8 +6524,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6493,8 +6536,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6505,8 +6548,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6517,8 +6560,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6529,8 +6572,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6541,8 +6584,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="172"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="176"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6553,8 +6596,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="172"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6565,8 +6608,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="174"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6600,7 +6643,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6624,12 +6667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6637,15 +6680,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="182"/>
-      <c r="I1" s="183" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="184"/>
-      <c r="K1" s="185"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="187" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="188"/>
+      <c r="K1" s="189"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6657,14 +6700,14 @@
         <v>7</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6672,16 +6715,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="181" t="s">
+      <c r="G2" s="185" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="182"/>
-      <c r="I2" s="183" t="str">
+      <c r="H2" s="186"/>
+      <c r="I2" s="187" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo biểu đồ</v>
       </c>
-      <c r="J2" s="184"/>
-      <c r="K2" s="185"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="189"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6728,7 +6771,7 @@
         <v>103</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L4" s="24" t="s">
         <v>47</v>
@@ -6748,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="33">
         <v>1</v>
@@ -6759,7 +6802,7 @@
       </c>
       <c r="E5" s="85" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="F5" s="71"/>
       <c r="G5" s="40" t="s">
@@ -6779,18 +6822,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="33">
         <v>2</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
       <c r="G6" s="40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="62"/>
@@ -6806,26 +6849,26 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="33">
         <v>2.1</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E7" s="90"/>
       <c r="F7" s="129"/>
       <c r="G7" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
       <c r="K7" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L7" s="90"/>
       <c r="M7" s="90"/>
@@ -6837,30 +6880,30 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C8" s="33">
         <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E8" s="129" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F8" s="129" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="71"/>
       <c r="M8" s="71"/>
@@ -6872,30 +6915,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="33">
         <v>2.2999999999999998</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E9" s="129" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F9" s="129" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
       <c r="K9" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L9" s="90"/>
       <c r="M9" s="90"/>
@@ -6907,30 +6950,30 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C10" s="33">
         <v>2.4</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E10" s="129" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
       <c r="K10" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L10" s="71"/>
       <c r="M10" s="71"/>
@@ -7845,7 +7888,7 @@
       </c>
       <c r="E1" s="108" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>5</v>
@@ -7858,7 +7901,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J1" s="68"/>
     </row>
@@ -8771,7 +8814,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:G28"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8795,7 +8838,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="195" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="127"/>
@@ -8811,7 +8854,7 @@
       </c>
       <c r="F1" s="105" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="G1" s="106" t="s">
         <v>5</v>
@@ -8823,12 +8866,14 @@
       <c r="I1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="50"/>
+      <c r="J1" s="50" t="s">
+        <v>161</v>
+      </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="189"/>
+      <c r="A2" s="196"/>
       <c r="B2" s="128"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -8854,7 +8899,9 @@
       <c r="I2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="50"/>
+      <c r="J2" s="50">
+        <v>42417</v>
+      </c>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
     </row>
@@ -8866,23 +8913,23 @@
         <v>32</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="E4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="160" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160" t="s">
+      <c r="F4" s="163" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -8892,8 +8939,8 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="187"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="194"/>
       <c r="H5" s="190"/>
       <c r="I5" s="191"/>
       <c r="J5" s="192"/>
@@ -8906,8 +8953,8 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="187"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="194"/>
       <c r="H6" s="190"/>
       <c r="I6" s="191"/>
       <c r="J6" s="192"/>
@@ -8920,8 +8967,8 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="187"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="190"/>
       <c r="I7" s="191"/>
       <c r="J7" s="192"/>
@@ -8934,8 +8981,8 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="187"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="194"/>
       <c r="H8" s="190"/>
       <c r="I8" s="191"/>
       <c r="J8" s="192"/>
@@ -8948,8 +8995,8 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="187"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="194"/>
       <c r="H9" s="190"/>
       <c r="I9" s="191"/>
       <c r="J9" s="192"/>
@@ -8962,8 +9009,8 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="187"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="194"/>
       <c r="H10" s="190"/>
       <c r="I10" s="191"/>
       <c r="J10" s="192"/>
@@ -8976,8 +9023,8 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="187"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="194"/>
       <c r="H11" s="190"/>
       <c r="I11" s="191"/>
       <c r="J11" s="192"/>
@@ -8990,8 +9037,8 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="194"/>
       <c r="H12" s="190"/>
       <c r="I12" s="191"/>
       <c r="J12" s="192"/>
@@ -9004,8 +9051,8 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="187"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="194"/>
       <c r="H13" s="190"/>
       <c r="I13" s="191"/>
       <c r="J13" s="192"/>
@@ -9018,8 +9065,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="194"/>
       <c r="H14" s="190"/>
       <c r="I14" s="191"/>
       <c r="J14" s="192"/>
@@ -9032,8 +9079,8 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="187"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="194"/>
       <c r="H15" s="190"/>
       <c r="I15" s="191"/>
       <c r="J15" s="192"/>
@@ -9046,8 +9093,8 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="187"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
       <c r="H16" s="190"/>
       <c r="I16" s="191"/>
       <c r="J16" s="192"/>
@@ -9060,8 +9107,8 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="187"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
       <c r="H17" s="190"/>
       <c r="I17" s="191"/>
       <c r="J17" s="192"/>
@@ -9074,8 +9121,8 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="187"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="194"/>
       <c r="H18" s="190"/>
       <c r="I18" s="191"/>
       <c r="J18" s="192"/>
@@ -9088,8 +9135,8 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="187"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="194"/>
       <c r="H19" s="190"/>
       <c r="I19" s="191"/>
       <c r="J19" s="192"/>
@@ -9102,8 +9149,8 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="187"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="194"/>
       <c r="H20" s="190"/>
       <c r="I20" s="191"/>
       <c r="J20" s="192"/>
@@ -9116,8 +9163,8 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="187"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="194"/>
       <c r="H21" s="190"/>
       <c r="I21" s="191"/>
       <c r="J21" s="192"/>
@@ -9130,8 +9177,8 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="190"/>
       <c r="I22" s="191"/>
       <c r="J22" s="192"/>
@@ -9144,8 +9191,8 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="190"/>
       <c r="I23" s="191"/>
       <c r="J23" s="192"/>
@@ -9158,8 +9205,8 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="156"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="159"/>
       <c r="H24" s="190"/>
       <c r="I24" s="191"/>
       <c r="J24" s="192"/>
@@ -9172,8 +9219,8 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="156"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="159"/>
       <c r="H25" s="190"/>
       <c r="I25" s="191"/>
       <c r="J25" s="192"/>
@@ -9186,8 +9233,8 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="159"/>
       <c r="H26" s="190"/>
       <c r="I26" s="191"/>
       <c r="J26" s="192"/>
@@ -9200,8 +9247,8 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="156"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="190"/>
       <c r="I27" s="191"/>
       <c r="J27" s="192"/>
@@ -9214,8 +9261,8 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="190"/>
       <c r="I28" s="191"/>
       <c r="J28" s="192"/>
@@ -9228,8 +9275,8 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="156"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="190"/>
       <c r="I29" s="191"/>
       <c r="J29" s="192"/>
@@ -9242,8 +9289,8 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="159"/>
       <c r="H30" s="190"/>
       <c r="I30" s="191"/>
       <c r="J30" s="192"/>
@@ -9256,8 +9303,8 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="159"/>
       <c r="H31" s="190"/>
       <c r="I31" s="191"/>
       <c r="J31" s="192"/>
@@ -9270,8 +9317,8 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="159"/>
       <c r="H32" s="190"/>
       <c r="I32" s="191"/>
       <c r="J32" s="192"/>
@@ -9291,8 +9338,8 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="156"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="159"/>
       <c r="H33" s="190"/>
       <c r="I33" s="191"/>
       <c r="J33" s="192"/>
@@ -9312,8 +9359,8 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="156"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="159"/>
       <c r="H34" s="190"/>
       <c r="I34" s="191"/>
       <c r="J34" s="192"/>
@@ -9333,8 +9380,8 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="156"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="159"/>
       <c r="H35" s="190"/>
       <c r="I35" s="191"/>
       <c r="J35" s="192"/>
@@ -9354,8 +9401,8 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="156"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="159"/>
       <c r="H36" s="190"/>
       <c r="I36" s="191"/>
       <c r="J36" s="192"/>
@@ -9375,8 +9422,8 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="156"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="159"/>
       <c r="H37" s="190"/>
       <c r="I37" s="191"/>
       <c r="J37" s="192"/>
@@ -9396,8 +9443,8 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="156"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="159"/>
       <c r="H38" s="190"/>
       <c r="I38" s="191"/>
       <c r="J38" s="192"/>
@@ -9417,8 +9464,8 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="156"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="159"/>
       <c r="H39" s="190"/>
       <c r="I39" s="191"/>
       <c r="J39" s="192"/>
@@ -9438,8 +9485,8 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="156"/>
+      <c r="F40" s="157"/>
+      <c r="G40" s="159"/>
       <c r="H40" s="190"/>
       <c r="I40" s="191"/>
       <c r="J40" s="192"/>
@@ -9459,8 +9506,8 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="156"/>
+      <c r="F41" s="157"/>
+      <c r="G41" s="159"/>
       <c r="H41" s="190"/>
       <c r="I41" s="191"/>
       <c r="J41" s="192"/>
@@ -9480,8 +9527,8 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="156"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="159"/>
       <c r="H42" s="190"/>
       <c r="I42" s="191"/>
       <c r="J42" s="192"/>
@@ -9501,8 +9548,8 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="156"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="159"/>
       <c r="H43" s="190"/>
       <c r="I43" s="191"/>
       <c r="J43" s="192"/>
@@ -9522,8 +9569,8 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="156"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="159"/>
       <c r="H44" s="190"/>
       <c r="I44" s="191"/>
       <c r="J44" s="192"/>
@@ -9543,8 +9590,8 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="156"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="159"/>
       <c r="H45" s="190"/>
       <c r="I45" s="191"/>
       <c r="J45" s="192"/>
@@ -9564,8 +9611,8 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="156"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="159"/>
       <c r="H46" s="190"/>
       <c r="I46" s="191"/>
       <c r="J46" s="192"/>
@@ -9585,8 +9632,8 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="156"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="159"/>
       <c r="H47" s="190"/>
       <c r="I47" s="191"/>
       <c r="J47" s="192"/>
@@ -9606,8 +9653,8 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="156"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="159"/>
       <c r="H48" s="190"/>
       <c r="I48" s="191"/>
       <c r="J48" s="192"/>
@@ -9627,8 +9674,8 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="156"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="159"/>
       <c r="H49" s="190"/>
       <c r="I49" s="191"/>
       <c r="J49" s="192"/>
@@ -9648,8 +9695,8 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="156"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="159"/>
       <c r="H50" s="190"/>
       <c r="I50" s="191"/>
       <c r="J50" s="192"/>
@@ -9669,8 +9716,8 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="156"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="159"/>
       <c r="H51" s="190"/>
       <c r="I51" s="191"/>
       <c r="J51" s="192"/>
@@ -9690,8 +9737,8 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="156"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="159"/>
       <c r="H52" s="190"/>
       <c r="I52" s="191"/>
       <c r="J52" s="192"/>
@@ -9711,8 +9758,8 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="156"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="159"/>
       <c r="H53" s="190"/>
       <c r="I53" s="191"/>
       <c r="J53" s="192"/>
@@ -9732,8 +9779,8 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="156"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="159"/>
       <c r="H54" s="190"/>
       <c r="I54" s="191"/>
       <c r="J54" s="192"/>
@@ -9753,8 +9800,8 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="156"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="159"/>
       <c r="H55" s="190"/>
       <c r="I55" s="191"/>
       <c r="J55" s="192"/>
@@ -9774,8 +9821,8 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="156"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="159"/>
       <c r="H56" s="190"/>
       <c r="I56" s="191"/>
       <c r="J56" s="192"/>
@@ -9790,6 +9837,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -9804,99 +9944,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -9914,8 +9961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9942,29 +9989,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
       <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="199" t="str">
+      <c r="I1" s="200" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="199"/>
+      <c r="J1" s="200"/>
       <c r="K1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="53" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>5</v>
@@ -9976,28 +10023,30 @@
       <c r="O1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="50"/>
+      <c r="P1" s="50" t="s">
+        <v>161</v>
+      </c>
       <c r="Q1" s="50"/>
       <c r="R1" s="35"/>
       <c r="S1" s="52"/>
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
       <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="199" t="str">
+      <c r="I2" s="200" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="199"/>
+      <c r="J2" s="200"/>
       <c r="K2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10015,7 +10064,9 @@
       <c r="O2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="50"/>
+      <c r="P2" s="50">
+        <v>42417</v>
+      </c>
       <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
       <c r="S2" s="52"/>
@@ -10049,12 +10100,12 @@
       <c r="I4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="166" t="s">
+      <c r="J4" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="167"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="171"/>
       <c r="N4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10071,95 +10122,129 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="145.5" customHeight="1">
+    <row r="5" spans="1:20" s="34" customFormat="1" ht="22.5">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>190</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
       <c r="F5" s="90" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="130" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="193" t="s">
-        <v>189</v>
-      </c>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="195"/>
+        <v>166</v>
+      </c>
+      <c r="J5" s="197" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="199"/>
       <c r="N5" s="90"/>
       <c r="O5" s="91"/>
-      <c r="P5" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q5" s="77" t="s">
-        <v>170</v>
-      </c>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="77"/>
       <c r="R5" s="90" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="S5" s="64"/>
       <c r="T5" s="64"/>
     </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="11.25">
+    <row r="6" spans="1:20" s="34" customFormat="1" ht="65.25" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="90"/>
+      <c r="F6" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="130" t="s">
+        <v>197</v>
+      </c>
+      <c r="J6" s="206" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="R6" s="131" t="s">
+        <v>202</v>
+      </c>
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
     </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="11.25" customHeight="1">
+    <row r="7" spans="1:20" s="34" customFormat="1" ht="66" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>185</v>
+      </c>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="194"/>
-      <c r="L7" s="194"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="196"/>
+      <c r="F7" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="209" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="78" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="131" t="s">
+        <v>203</v>
+      </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
     </row>
@@ -10175,15 +10260,15 @@
       <c r="G8" s="63"/>
       <c r="H8" s="63"/>
       <c r="I8" s="84"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="194"/>
-      <c r="L8" s="194"/>
-      <c r="M8" s="195"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="198"/>
+      <c r="L8" s="198"/>
+      <c r="M8" s="199"/>
       <c r="N8" s="91"/>
       <c r="O8" s="91"/>
       <c r="P8" s="78"/>
       <c r="Q8" s="77"/>
-      <c r="R8" s="197"/>
+      <c r="R8" s="84"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
     </row>
@@ -10199,15 +10284,15 @@
       <c r="G9" s="63"/>
       <c r="H9" s="63"/>
       <c r="I9" s="84"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="195"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="199"/>
       <c r="N9" s="91"/>
       <c r="O9" s="91"/>
       <c r="P9" s="78"/>
       <c r="Q9" s="77"/>
-      <c r="R9" s="198"/>
+      <c r="R9" s="84"/>
       <c r="S9" s="64"/>
       <c r="T9" s="64"/>
     </row>
@@ -10223,15 +10308,15 @@
       <c r="G10" s="63"/>
       <c r="H10" s="63"/>
       <c r="I10" s="84"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
-      <c r="L10" s="194"/>
-      <c r="M10" s="195"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="198"/>
+      <c r="M10" s="199"/>
       <c r="N10" s="91"/>
       <c r="O10" s="91"/>
       <c r="P10" s="78"/>
       <c r="Q10" s="77"/>
-      <c r="R10" s="196"/>
+      <c r="R10" s="84"/>
       <c r="S10" s="64"/>
       <c r="T10" s="64"/>
     </row>
@@ -10247,15 +10332,15 @@
       <c r="G11" s="63"/>
       <c r="H11" s="63"/>
       <c r="I11" s="84"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
-      <c r="M11" s="195"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="198"/>
+      <c r="M11" s="199"/>
       <c r="N11" s="91"/>
       <c r="O11" s="91"/>
       <c r="P11" s="78"/>
       <c r="Q11" s="77"/>
-      <c r="R11" s="197"/>
+      <c r="R11" s="84"/>
       <c r="S11" s="64"/>
       <c r="T11" s="64"/>
     </row>
@@ -10271,15 +10356,15 @@
       <c r="G12" s="63"/>
       <c r="H12" s="63"/>
       <c r="I12" s="84"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="194"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="195"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="198"/>
+      <c r="M12" s="199"/>
       <c r="N12" s="87"/>
       <c r="O12" s="87"/>
       <c r="P12" s="78"/>
       <c r="Q12" s="77"/>
-      <c r="R12" s="197"/>
+      <c r="R12" s="84"/>
       <c r="S12" s="64"/>
       <c r="T12" s="64"/>
     </row>
@@ -10295,15 +10380,15 @@
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
       <c r="I13" s="84"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="195"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="199"/>
       <c r="N13" s="87"/>
       <c r="O13" s="87"/>
       <c r="P13" s="78"/>
       <c r="Q13" s="77"/>
-      <c r="R13" s="198"/>
+      <c r="R13" s="84"/>
       <c r="S13" s="64"/>
       <c r="T13" s="64"/>
     </row>
@@ -10319,10 +10404,10 @@
       <c r="G14" s="63"/>
       <c r="H14" s="63"/>
       <c r="I14" s="84"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="194"/>
-      <c r="L14" s="194"/>
-      <c r="M14" s="195"/>
+      <c r="J14" s="197"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="198"/>
+      <c r="M14" s="199"/>
       <c r="N14" s="83"/>
       <c r="O14" s="83"/>
       <c r="P14" s="78"/>
@@ -10343,10 +10428,10 @@
       <c r="G15" s="63"/>
       <c r="H15" s="63"/>
       <c r="I15" s="84"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="195"/>
+      <c r="J15" s="197"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="199"/>
       <c r="N15" s="83"/>
       <c r="O15" s="83"/>
       <c r="P15" s="78"/>
@@ -10367,10 +10452,10 @@
       <c r="G16" s="63"/>
       <c r="H16" s="63"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="194"/>
-      <c r="L16" s="194"/>
-      <c r="M16" s="195"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="199"/>
       <c r="N16" s="74"/>
       <c r="O16" s="60"/>
       <c r="P16" s="78"/>
@@ -10391,10 +10476,10 @@
       <c r="G17" s="63"/>
       <c r="H17" s="63"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="194"/>
-      <c r="L17" s="194"/>
-      <c r="M17" s="195"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="198"/>
+      <c r="M17" s="199"/>
       <c r="N17" s="60"/>
       <c r="O17" s="60"/>
       <c r="P17" s="78"/>
@@ -10415,10 +10500,10 @@
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="40"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="195"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="198"/>
+      <c r="M18" s="199"/>
       <c r="N18" s="60"/>
       <c r="O18" s="60"/>
       <c r="P18" s="78"/>
@@ -10439,10 +10524,10 @@
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="40"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="195"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="198"/>
+      <c r="M19" s="199"/>
       <c r="N19" s="60"/>
       <c r="O19" s="60"/>
       <c r="P19" s="78"/>
@@ -10463,10 +10548,10 @@
       <c r="G20" s="63"/>
       <c r="H20" s="63"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="194"/>
-      <c r="M20" s="195"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="199"/>
       <c r="N20" s="60"/>
       <c r="O20" s="60"/>
       <c r="P20" s="78"/>
@@ -10487,10 +10572,10 @@
       <c r="G21" s="63"/>
       <c r="H21" s="63"/>
       <c r="I21" s="40"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="194"/>
-      <c r="L21" s="194"/>
-      <c r="M21" s="195"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="198"/>
+      <c r="M21" s="199"/>
       <c r="N21" s="60"/>
       <c r="O21" s="60"/>
       <c r="P21" s="78"/>
@@ -10511,10 +10596,10 @@
       <c r="G22" s="63"/>
       <c r="H22" s="63"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
-      <c r="M22" s="195"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="198"/>
+      <c r="M22" s="199"/>
       <c r="N22" s="60"/>
       <c r="O22" s="60"/>
       <c r="P22" s="78"/>
@@ -10535,10 +10620,10 @@
       <c r="G23" s="63"/>
       <c r="H23" s="63"/>
       <c r="I23" s="40"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="195"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="199"/>
       <c r="N23" s="60"/>
       <c r="O23" s="60"/>
       <c r="P23" s="78"/>
@@ -10559,10 +10644,10 @@
       <c r="G24" s="63"/>
       <c r="H24" s="63"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="194"/>
-      <c r="M24" s="195"/>
+      <c r="J24" s="197"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="198"/>
+      <c r="M24" s="199"/>
       <c r="N24" s="60"/>
       <c r="O24" s="60"/>
       <c r="P24" s="78"/>
@@ -10583,10 +10668,10 @@
       <c r="G25" s="63"/>
       <c r="H25" s="63"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="194"/>
-      <c r="L25" s="194"/>
-      <c r="M25" s="195"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="198"/>
+      <c r="M25" s="199"/>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="78"/>
@@ -10607,10 +10692,10 @@
       <c r="G26" s="63"/>
       <c r="H26" s="63"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="194"/>
-      <c r="L26" s="194"/>
-      <c r="M26" s="195"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="198"/>
+      <c r="M26" s="199"/>
       <c r="N26" s="60"/>
       <c r="O26" s="60"/>
       <c r="P26" s="78"/>
@@ -10631,10 +10716,10 @@
       <c r="G27" s="63"/>
       <c r="H27" s="63"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="194"/>
-      <c r="L27" s="194"/>
-      <c r="M27" s="195"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="198"/>
+      <c r="M27" s="199"/>
       <c r="N27" s="60"/>
       <c r="O27" s="60"/>
       <c r="P27" s="78"/>
@@ -10655,10 +10740,10 @@
       <c r="G28" s="63"/>
       <c r="H28" s="63"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="194"/>
-      <c r="L28" s="194"/>
-      <c r="M28" s="195"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="198"/>
+      <c r="M28" s="199"/>
       <c r="N28" s="60"/>
       <c r="O28" s="60"/>
       <c r="P28" s="78"/>
@@ -10679,10 +10764,10 @@
       <c r="G29" s="63"/>
       <c r="H29" s="63"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="193"/>
-      <c r="K29" s="194"/>
-      <c r="L29" s="194"/>
-      <c r="M29" s="195"/>
+      <c r="J29" s="197"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="198"/>
+      <c r="M29" s="199"/>
       <c r="N29" s="60"/>
       <c r="O29" s="60"/>
       <c r="P29" s="78"/>
@@ -10703,10 +10788,10 @@
       <c r="G30" s="63"/>
       <c r="H30" s="63"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="193"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="194"/>
-      <c r="M30" s="195"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="198"/>
+      <c r="M30" s="199"/>
       <c r="N30" s="60"/>
       <c r="O30" s="60"/>
       <c r="P30" s="78"/>
@@ -10727,10 +10812,10 @@
       <c r="G31" s="63"/>
       <c r="H31" s="63"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
-      <c r="M31" s="195"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="198"/>
+      <c r="M31" s="199"/>
       <c r="N31" s="60"/>
       <c r="O31" s="60"/>
       <c r="P31" s="78"/>
@@ -10751,10 +10836,10 @@
       <c r="G32" s="63"/>
       <c r="H32" s="63"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="193"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
-      <c r="M32" s="195"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="198"/>
+      <c r="M32" s="199"/>
       <c r="N32" s="60"/>
       <c r="O32" s="60"/>
       <c r="P32" s="78"/>
@@ -10775,10 +10860,10 @@
       <c r="G33" s="63"/>
       <c r="H33" s="63"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="194"/>
-      <c r="L33" s="194"/>
-      <c r="M33" s="195"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="199"/>
       <c r="N33" s="60"/>
       <c r="O33" s="60"/>
       <c r="P33" s="78"/>
@@ -10799,10 +10884,10 @@
       <c r="G34" s="63"/>
       <c r="H34" s="63"/>
       <c r="I34" s="84"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
-      <c r="M34" s="195"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="198"/>
+      <c r="M34" s="199"/>
       <c r="N34" s="87"/>
       <c r="O34" s="87"/>
       <c r="P34" s="78"/>
@@ -10823,10 +10908,10 @@
       <c r="G35" s="63"/>
       <c r="H35" s="63"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="195"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="198"/>
+      <c r="M35" s="199"/>
       <c r="N35" s="60"/>
       <c r="O35" s="60"/>
       <c r="P35" s="78"/>
@@ -10847,10 +10932,10 @@
       <c r="G36" s="63"/>
       <c r="H36" s="63"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
-      <c r="M36" s="195"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="198"/>
+      <c r="M36" s="199"/>
       <c r="N36" s="60"/>
       <c r="O36" s="60"/>
       <c r="P36" s="78"/>
@@ -10871,10 +10956,10 @@
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="193"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="195"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="198"/>
+      <c r="M37" s="199"/>
       <c r="N37" s="60"/>
       <c r="O37" s="60"/>
       <c r="P37" s="78"/>
@@ -10895,10 +10980,10 @@
       <c r="G38" s="63"/>
       <c r="H38" s="63"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="194"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="195"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="199"/>
       <c r="N38" s="60"/>
       <c r="O38" s="60"/>
       <c r="P38" s="78"/>
@@ -10919,10 +11004,10 @@
       <c r="G39" s="63"/>
       <c r="H39" s="63"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="193"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="195"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="198"/>
+      <c r="M39" s="199"/>
       <c r="N39" s="60"/>
       <c r="O39" s="60"/>
       <c r="P39" s="78"/>
@@ -10943,10 +11028,10 @@
       <c r="G40" s="63"/>
       <c r="H40" s="63"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="193"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="194"/>
-      <c r="M40" s="195"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="199"/>
       <c r="N40" s="76"/>
       <c r="O40" s="76"/>
       <c r="P40" s="78"/>
@@ -10967,10 +11052,10 @@
       <c r="G41" s="63"/>
       <c r="H41" s="63"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="193"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="195"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="198"/>
+      <c r="M41" s="199"/>
       <c r="N41" s="76"/>
       <c r="O41" s="76"/>
       <c r="P41" s="78"/>
@@ -10991,10 +11076,10 @@
       <c r="G42" s="63"/>
       <c r="H42" s="63"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="194"/>
-      <c r="L42" s="194"/>
-      <c r="M42" s="195"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="199"/>
       <c r="N42" s="76"/>
       <c r="O42" s="76"/>
       <c r="P42" s="78"/>
@@ -11015,10 +11100,10 @@
       <c r="G43" s="63"/>
       <c r="H43" s="63"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="195"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="199"/>
       <c r="N43" s="76"/>
       <c r="O43" s="76"/>
       <c r="P43" s="78"/>
@@ -11039,10 +11124,10 @@
       <c r="G44" s="63"/>
       <c r="H44" s="63"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="194"/>
-      <c r="L44" s="194"/>
-      <c r="M44" s="195"/>
+      <c r="J44" s="197"/>
+      <c r="K44" s="198"/>
+      <c r="L44" s="198"/>
+      <c r="M44" s="199"/>
       <c r="N44" s="76"/>
       <c r="O44" s="76"/>
       <c r="P44" s="78"/>
@@ -11063,10 +11148,10 @@
       <c r="G45" s="63"/>
       <c r="H45" s="63"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="194"/>
-      <c r="L45" s="194"/>
-      <c r="M45" s="195"/>
+      <c r="J45" s="197"/>
+      <c r="K45" s="198"/>
+      <c r="L45" s="198"/>
+      <c r="M45" s="199"/>
       <c r="N45" s="76"/>
       <c r="O45" s="76"/>
       <c r="P45" s="78"/>
@@ -11087,10 +11172,10 @@
       <c r="G46" s="63"/>
       <c r="H46" s="63"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="194"/>
-      <c r="L46" s="194"/>
-      <c r="M46" s="195"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="199"/>
       <c r="N46" s="76"/>
       <c r="O46" s="76"/>
       <c r="P46" s="78"/>
@@ -11111,10 +11196,10 @@
       <c r="G47" s="63"/>
       <c r="H47" s="63"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="193"/>
-      <c r="K47" s="194"/>
-      <c r="L47" s="194"/>
-      <c r="M47" s="195"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="198"/>
+      <c r="L47" s="198"/>
+      <c r="M47" s="199"/>
       <c r="N47" s="76"/>
       <c r="O47" s="76"/>
       <c r="P47" s="78"/>
@@ -11135,10 +11220,10 @@
       <c r="G48" s="63"/>
       <c r="H48" s="63"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="194"/>
-      <c r="L48" s="194"/>
-      <c r="M48" s="195"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="198"/>
+      <c r="L48" s="198"/>
+      <c r="M48" s="199"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="78"/>
@@ -11159,10 +11244,10 @@
       <c r="G49" s="63"/>
       <c r="H49" s="63"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="193"/>
-      <c r="K49" s="194"/>
-      <c r="L49" s="194"/>
-      <c r="M49" s="195"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="198"/>
+      <c r="L49" s="198"/>
+      <c r="M49" s="199"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="78"/>
@@ -11183,10 +11268,10 @@
       <c r="G50" s="63"/>
       <c r="H50" s="63"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="194"/>
-      <c r="L50" s="194"/>
-      <c r="M50" s="195"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="198"/>
+      <c r="M50" s="199"/>
       <c r="N50" s="76"/>
       <c r="O50" s="76"/>
       <c r="P50" s="78"/>
@@ -11207,10 +11292,10 @@
       <c r="G51" s="63"/>
       <c r="H51" s="63"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="194"/>
-      <c r="L51" s="194"/>
-      <c r="M51" s="195"/>
+      <c r="J51" s="197"/>
+      <c r="K51" s="198"/>
+      <c r="L51" s="198"/>
+      <c r="M51" s="199"/>
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
       <c r="P51" s="78"/>
@@ -11231,10 +11316,10 @@
       <c r="G52" s="63"/>
       <c r="H52" s="63"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="194"/>
-      <c r="L52" s="194"/>
-      <c r="M52" s="195"/>
+      <c r="J52" s="197"/>
+      <c r="K52" s="198"/>
+      <c r="L52" s="198"/>
+      <c r="M52" s="199"/>
       <c r="N52" s="76"/>
       <c r="O52" s="76"/>
       <c r="P52" s="78"/>
@@ -11255,10 +11340,10 @@
       <c r="G53" s="63"/>
       <c r="H53" s="63"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="193"/>
-      <c r="K53" s="194"/>
-      <c r="L53" s="194"/>
-      <c r="M53" s="195"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="198"/>
+      <c r="L53" s="198"/>
+      <c r="M53" s="199"/>
       <c r="N53" s="76"/>
       <c r="O53" s="76"/>
       <c r="P53" s="78"/>
@@ -11279,10 +11364,10 @@
       <c r="G54" s="63"/>
       <c r="H54" s="63"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="193"/>
-      <c r="K54" s="194"/>
-      <c r="L54" s="194"/>
-      <c r="M54" s="195"/>
+      <c r="J54" s="197"/>
+      <c r="K54" s="198"/>
+      <c r="L54" s="198"/>
+      <c r="M54" s="199"/>
       <c r="N54" s="76"/>
       <c r="O54" s="76"/>
       <c r="P54" s="78"/>
@@ -11303,10 +11388,10 @@
       <c r="G55" s="63"/>
       <c r="H55" s="63"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="193"/>
-      <c r="K55" s="194"/>
-      <c r="L55" s="194"/>
-      <c r="M55" s="195"/>
+      <c r="J55" s="197"/>
+      <c r="K55" s="198"/>
+      <c r="L55" s="198"/>
+      <c r="M55" s="199"/>
       <c r="N55" s="76"/>
       <c r="O55" s="76"/>
       <c r="P55" s="78"/>
@@ -11327,10 +11412,10 @@
       <c r="G56" s="63"/>
       <c r="H56" s="63"/>
       <c r="I56" s="40"/>
-      <c r="J56" s="193"/>
-      <c r="K56" s="194"/>
-      <c r="L56" s="194"/>
-      <c r="M56" s="195"/>
+      <c r="J56" s="197"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="198"/>
+      <c r="M56" s="199"/>
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
       <c r="P56" s="78"/>
@@ -11351,10 +11436,10 @@
       <c r="G57" s="63"/>
       <c r="H57" s="63"/>
       <c r="I57" s="40"/>
-      <c r="J57" s="193"/>
-      <c r="K57" s="194"/>
-      <c r="L57" s="194"/>
-      <c r="M57" s="195"/>
+      <c r="J57" s="197"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="198"/>
+      <c r="M57" s="199"/>
       <c r="N57" s="76"/>
       <c r="O57" s="76"/>
       <c r="P57" s="78"/>
@@ -11375,10 +11460,10 @@
       <c r="G58" s="63"/>
       <c r="H58" s="63"/>
       <c r="I58" s="40"/>
-      <c r="J58" s="193"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="194"/>
-      <c r="M58" s="195"/>
+      <c r="J58" s="197"/>
+      <c r="K58" s="198"/>
+      <c r="L58" s="198"/>
+      <c r="M58" s="199"/>
       <c r="N58" s="76"/>
       <c r="O58" s="76"/>
       <c r="P58" s="78"/>
@@ -11399,10 +11484,10 @@
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
       <c r="I59" s="40"/>
-      <c r="J59" s="193"/>
-      <c r="K59" s="194"/>
-      <c r="L59" s="194"/>
-      <c r="M59" s="195"/>
+      <c r="J59" s="197"/>
+      <c r="K59" s="198"/>
+      <c r="L59" s="198"/>
+      <c r="M59" s="199"/>
       <c r="N59" s="76"/>
       <c r="O59" s="76"/>
       <c r="P59" s="78"/>
@@ -11423,10 +11508,10 @@
       <c r="G60" s="63"/>
       <c r="H60" s="63"/>
       <c r="I60" s="40"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="194"/>
-      <c r="M60" s="195"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="198"/>
+      <c r="L60" s="198"/>
+      <c r="M60" s="199"/>
       <c r="N60" s="76"/>
       <c r="O60" s="76"/>
       <c r="P60" s="78"/>
@@ -11447,10 +11532,10 @@
       <c r="G61" s="63"/>
       <c r="H61" s="63"/>
       <c r="I61" s="40"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="194"/>
-      <c r="L61" s="194"/>
-      <c r="M61" s="195"/>
+      <c r="J61" s="197"/>
+      <c r="K61" s="198"/>
+      <c r="L61" s="198"/>
+      <c r="M61" s="199"/>
       <c r="N61" s="76"/>
       <c r="O61" s="76"/>
       <c r="P61" s="78"/>
@@ -11471,10 +11556,10 @@
       <c r="G62" s="63"/>
       <c r="H62" s="63"/>
       <c r="I62" s="40"/>
-      <c r="J62" s="193"/>
-      <c r="K62" s="194"/>
-      <c r="L62" s="194"/>
-      <c r="M62" s="195"/>
+      <c r="J62" s="197"/>
+      <c r="K62" s="198"/>
+      <c r="L62" s="198"/>
+      <c r="M62" s="199"/>
       <c r="N62" s="86"/>
       <c r="O62" s="86"/>
       <c r="P62" s="78"/>
@@ -11495,10 +11580,10 @@
       <c r="G63" s="63"/>
       <c r="H63" s="63"/>
       <c r="I63" s="40"/>
-      <c r="J63" s="193"/>
-      <c r="K63" s="194"/>
-      <c r="L63" s="194"/>
-      <c r="M63" s="195"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="198"/>
+      <c r="L63" s="198"/>
+      <c r="M63" s="199"/>
       <c r="N63" s="86"/>
       <c r="O63" s="86"/>
       <c r="P63" s="78"/>
@@ -11519,10 +11604,10 @@
       <c r="G64" s="63"/>
       <c r="H64" s="63"/>
       <c r="I64" s="40"/>
-      <c r="J64" s="193"/>
-      <c r="K64" s="194"/>
-      <c r="L64" s="194"/>
-      <c r="M64" s="195"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="198"/>
+      <c r="L64" s="198"/>
+      <c r="M64" s="199"/>
       <c r="N64" s="86"/>
       <c r="O64" s="86"/>
       <c r="P64" s="78"/>
@@ -11541,10 +11626,10 @@
       <c r="G65" s="63"/>
       <c r="H65" s="63"/>
       <c r="I65" s="40"/>
-      <c r="J65" s="193"/>
-      <c r="K65" s="194"/>
-      <c r="L65" s="194"/>
-      <c r="M65" s="195"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="198"/>
+      <c r="L65" s="198"/>
+      <c r="M65" s="199"/>
       <c r="N65" s="86"/>
       <c r="O65" s="86"/>
       <c r="P65" s="78"/>
@@ -11563,10 +11648,10 @@
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
       <c r="I66" s="40"/>
-      <c r="J66" s="193"/>
-      <c r="K66" s="194"/>
-      <c r="L66" s="194"/>
-      <c r="M66" s="195"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="198"/>
+      <c r="L66" s="198"/>
+      <c r="M66" s="199"/>
       <c r="N66" s="86"/>
       <c r="O66" s="86"/>
       <c r="P66" s="78"/>
@@ -11585,10 +11670,10 @@
       <c r="G67" s="63"/>
       <c r="H67" s="63"/>
       <c r="I67" s="40"/>
-      <c r="J67" s="193"/>
-      <c r="K67" s="194"/>
-      <c r="L67" s="194"/>
-      <c r="M67" s="195"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="198"/>
+      <c r="L67" s="198"/>
+      <c r="M67" s="199"/>
       <c r="N67" s="86"/>
       <c r="O67" s="86"/>
       <c r="P67" s="78"/>
@@ -11607,10 +11692,10 @@
       <c r="G68" s="63"/>
       <c r="H68" s="63"/>
       <c r="I68" s="40"/>
-      <c r="J68" s="193"/>
-      <c r="K68" s="194"/>
-      <c r="L68" s="194"/>
-      <c r="M68" s="195"/>
+      <c r="J68" s="197"/>
+      <c r="K68" s="198"/>
+      <c r="L68" s="198"/>
+      <c r="M68" s="199"/>
       <c r="N68" s="86"/>
       <c r="O68" s="86"/>
       <c r="P68" s="78"/>
@@ -11629,10 +11714,10 @@
       <c r="G69" s="63"/>
       <c r="H69" s="63"/>
       <c r="I69" s="40"/>
-      <c r="J69" s="193"/>
-      <c r="K69" s="194"/>
-      <c r="L69" s="194"/>
-      <c r="M69" s="195"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="198"/>
+      <c r="L69" s="198"/>
+      <c r="M69" s="199"/>
       <c r="N69" s="86"/>
       <c r="O69" s="86"/>
       <c r="P69" s="78"/>
@@ -11651,10 +11736,10 @@
       <c r="G70" s="63"/>
       <c r="H70" s="63"/>
       <c r="I70" s="40"/>
-      <c r="J70" s="193"/>
-      <c r="K70" s="194"/>
-      <c r="L70" s="194"/>
-      <c r="M70" s="195"/>
+      <c r="J70" s="197"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="198"/>
+      <c r="M70" s="199"/>
       <c r="N70" s="86"/>
       <c r="O70" s="86"/>
       <c r="P70" s="78"/>
@@ -11673,10 +11758,10 @@
       <c r="G71" s="63"/>
       <c r="H71" s="63"/>
       <c r="I71" s="40"/>
-      <c r="J71" s="193"/>
-      <c r="K71" s="194"/>
-      <c r="L71" s="194"/>
-      <c r="M71" s="195"/>
+      <c r="J71" s="197"/>
+      <c r="K71" s="198"/>
+      <c r="L71" s="198"/>
+      <c r="M71" s="199"/>
       <c r="N71" s="86"/>
       <c r="O71" s="86"/>
       <c r="P71" s="78"/>
@@ -11695,10 +11780,10 @@
       <c r="G72" s="63"/>
       <c r="H72" s="63"/>
       <c r="I72" s="40"/>
-      <c r="J72" s="193"/>
-      <c r="K72" s="194"/>
-      <c r="L72" s="194"/>
-      <c r="M72" s="195"/>
+      <c r="J72" s="197"/>
+      <c r="K72" s="198"/>
+      <c r="L72" s="198"/>
+      <c r="M72" s="199"/>
       <c r="N72" s="86"/>
       <c r="O72" s="86"/>
       <c r="P72" s="78"/>
@@ -11717,10 +11802,10 @@
       <c r="G73" s="63"/>
       <c r="H73" s="63"/>
       <c r="I73" s="40"/>
-      <c r="J73" s="193"/>
-      <c r="K73" s="194"/>
-      <c r="L73" s="194"/>
-      <c r="M73" s="195"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="198"/>
+      <c r="L73" s="198"/>
+      <c r="M73" s="199"/>
       <c r="N73" s="86"/>
       <c r="O73" s="86"/>
       <c r="P73" s="78"/>
@@ -11739,10 +11824,10 @@
       <c r="G74" s="63"/>
       <c r="H74" s="63"/>
       <c r="I74" s="40"/>
-      <c r="J74" s="193"/>
-      <c r="K74" s="194"/>
-      <c r="L74" s="194"/>
-      <c r="M74" s="195"/>
+      <c r="J74" s="197"/>
+      <c r="K74" s="198"/>
+      <c r="L74" s="198"/>
+      <c r="M74" s="199"/>
       <c r="N74" s="86"/>
       <c r="O74" s="86"/>
       <c r="P74" s="78"/>
@@ -11761,10 +11846,10 @@
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
       <c r="I75" s="40"/>
-      <c r="J75" s="193"/>
-      <c r="K75" s="194"/>
-      <c r="L75" s="194"/>
-      <c r="M75" s="195"/>
+      <c r="J75" s="197"/>
+      <c r="K75" s="198"/>
+      <c r="L75" s="198"/>
+      <c r="M75" s="199"/>
       <c r="N75" s="86"/>
       <c r="O75" s="86"/>
       <c r="P75" s="78"/>
@@ -11783,10 +11868,10 @@
       <c r="G76" s="63"/>
       <c r="H76" s="63"/>
       <c r="I76" s="40"/>
-      <c r="J76" s="193"/>
-      <c r="K76" s="194"/>
-      <c r="L76" s="194"/>
-      <c r="M76" s="195"/>
+      <c r="J76" s="197"/>
+      <c r="K76" s="198"/>
+      <c r="L76" s="198"/>
+      <c r="M76" s="199"/>
       <c r="N76" s="86"/>
       <c r="O76" s="86"/>
       <c r="P76" s="78"/>
@@ -11805,10 +11890,10 @@
       <c r="G77" s="63"/>
       <c r="H77" s="63"/>
       <c r="I77" s="40"/>
-      <c r="J77" s="193"/>
-      <c r="K77" s="194"/>
-      <c r="L77" s="194"/>
-      <c r="M77" s="195"/>
+      <c r="J77" s="197"/>
+      <c r="K77" s="198"/>
+      <c r="L77" s="198"/>
+      <c r="M77" s="199"/>
       <c r="N77" s="86"/>
       <c r="O77" s="86"/>
       <c r="P77" s="78"/>
@@ -11827,10 +11912,10 @@
       <c r="G78" s="63"/>
       <c r="H78" s="63"/>
       <c r="I78" s="40"/>
-      <c r="J78" s="193"/>
-      <c r="K78" s="194"/>
-      <c r="L78" s="194"/>
-      <c r="M78" s="195"/>
+      <c r="J78" s="197"/>
+      <c r="K78" s="198"/>
+      <c r="L78" s="198"/>
+      <c r="M78" s="199"/>
       <c r="N78" s="86"/>
       <c r="O78" s="86"/>
       <c r="P78" s="78"/>
@@ -11849,10 +11934,10 @@
       <c r="G79" s="63"/>
       <c r="H79" s="63"/>
       <c r="I79" s="40"/>
-      <c r="J79" s="193"/>
-      <c r="K79" s="194"/>
-      <c r="L79" s="194"/>
-      <c r="M79" s="195"/>
+      <c r="J79" s="197"/>
+      <c r="K79" s="198"/>
+      <c r="L79" s="198"/>
+      <c r="M79" s="199"/>
       <c r="N79" s="86"/>
       <c r="O79" s="86"/>
       <c r="P79" s="78"/>
@@ -11871,10 +11956,10 @@
       <c r="G80" s="63"/>
       <c r="H80" s="63"/>
       <c r="I80" s="40"/>
-      <c r="J80" s="193"/>
-      <c r="K80" s="194"/>
-      <c r="L80" s="194"/>
-      <c r="M80" s="195"/>
+      <c r="J80" s="197"/>
+      <c r="K80" s="198"/>
+      <c r="L80" s="198"/>
+      <c r="M80" s="199"/>
       <c r="N80" s="86"/>
       <c r="O80" s="86"/>
       <c r="P80" s="78"/>
@@ -11893,10 +11978,10 @@
       <c r="G81" s="63"/>
       <c r="H81" s="63"/>
       <c r="I81" s="40"/>
-      <c r="J81" s="193"/>
-      <c r="K81" s="194"/>
-      <c r="L81" s="194"/>
-      <c r="M81" s="195"/>
+      <c r="J81" s="197"/>
+      <c r="K81" s="198"/>
+      <c r="L81" s="198"/>
+      <c r="M81" s="199"/>
       <c r="N81" s="86"/>
       <c r="O81" s="86"/>
       <c r="P81" s="78"/>
@@ -11915,10 +12000,10 @@
       <c r="G82" s="63"/>
       <c r="H82" s="63"/>
       <c r="I82" s="40"/>
-      <c r="J82" s="193"/>
-      <c r="K82" s="194"/>
-      <c r="L82" s="194"/>
-      <c r="M82" s="195"/>
+      <c r="J82" s="197"/>
+      <c r="K82" s="198"/>
+      <c r="L82" s="198"/>
+      <c r="M82" s="199"/>
       <c r="N82" s="86"/>
       <c r="O82" s="86"/>
       <c r="P82" s="78"/>
@@ -11937,10 +12022,10 @@
       <c r="G83" s="63"/>
       <c r="H83" s="63"/>
       <c r="I83" s="40"/>
-      <c r="J83" s="193"/>
-      <c r="K83" s="194"/>
-      <c r="L83" s="194"/>
-      <c r="M83" s="195"/>
+      <c r="J83" s="197"/>
+      <c r="K83" s="198"/>
+      <c r="L83" s="198"/>
+      <c r="M83" s="199"/>
       <c r="N83" s="86"/>
       <c r="O83" s="86"/>
       <c r="P83" s="78"/>
@@ -11959,10 +12044,10 @@
       <c r="G84" s="63"/>
       <c r="H84" s="63"/>
       <c r="I84" s="40"/>
-      <c r="J84" s="193"/>
-      <c r="K84" s="194"/>
-      <c r="L84" s="194"/>
-      <c r="M84" s="195"/>
+      <c r="J84" s="197"/>
+      <c r="K84" s="198"/>
+      <c r="L84" s="198"/>
+      <c r="M84" s="199"/>
       <c r="N84" s="86"/>
       <c r="O84" s="86"/>
       <c r="P84" s="78"/>
@@ -11981,10 +12066,10 @@
       <c r="G85" s="63"/>
       <c r="H85" s="63"/>
       <c r="I85" s="40"/>
-      <c r="J85" s="193"/>
-      <c r="K85" s="194"/>
-      <c r="L85" s="194"/>
-      <c r="M85" s="195"/>
+      <c r="J85" s="197"/>
+      <c r="K85" s="198"/>
+      <c r="L85" s="198"/>
+      <c r="M85" s="199"/>
       <c r="N85" s="86"/>
       <c r="O85" s="86"/>
       <c r="P85" s="78"/>
@@ -12003,10 +12088,10 @@
       <c r="G86" s="63"/>
       <c r="H86" s="63"/>
       <c r="I86" s="40"/>
-      <c r="J86" s="193"/>
-      <c r="K86" s="194"/>
-      <c r="L86" s="194"/>
-      <c r="M86" s="195"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="198"/>
+      <c r="L86" s="198"/>
+      <c r="M86" s="199"/>
       <c r="N86" s="86"/>
       <c r="O86" s="86"/>
       <c r="P86" s="78"/>
@@ -12025,10 +12110,10 @@
       <c r="G87" s="63"/>
       <c r="H87" s="63"/>
       <c r="I87" s="40"/>
-      <c r="J87" s="193"/>
-      <c r="K87" s="194"/>
-      <c r="L87" s="194"/>
-      <c r="M87" s="195"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="198"/>
+      <c r="L87" s="198"/>
+      <c r="M87" s="199"/>
       <c r="N87" s="86"/>
       <c r="O87" s="86"/>
       <c r="P87" s="78"/>
@@ -12047,10 +12132,10 @@
       <c r="G88" s="63"/>
       <c r="H88" s="63"/>
       <c r="I88" s="40"/>
-      <c r="J88" s="193"/>
-      <c r="K88" s="194"/>
-      <c r="L88" s="194"/>
-      <c r="M88" s="195"/>
+      <c r="J88" s="197"/>
+      <c r="K88" s="198"/>
+      <c r="L88" s="198"/>
+      <c r="M88" s="199"/>
       <c r="N88" s="86"/>
       <c r="O88" s="86"/>
       <c r="P88" s="78"/>
@@ -12069,10 +12154,10 @@
       <c r="G89" s="63"/>
       <c r="H89" s="63"/>
       <c r="I89" s="40"/>
-      <c r="J89" s="193"/>
-      <c r="K89" s="194"/>
-      <c r="L89" s="194"/>
-      <c r="M89" s="195"/>
+      <c r="J89" s="197"/>
+      <c r="K89" s="198"/>
+      <c r="L89" s="198"/>
+      <c r="M89" s="199"/>
       <c r="N89" s="86"/>
       <c r="O89" s="86"/>
       <c r="P89" s="78"/>
@@ -12091,10 +12176,10 @@
       <c r="G90" s="63"/>
       <c r="H90" s="63"/>
       <c r="I90" s="40"/>
-      <c r="J90" s="193"/>
-      <c r="K90" s="194"/>
-      <c r="L90" s="194"/>
-      <c r="M90" s="195"/>
+      <c r="J90" s="197"/>
+      <c r="K90" s="198"/>
+      <c r="L90" s="198"/>
+      <c r="M90" s="199"/>
       <c r="N90" s="86"/>
       <c r="O90" s="86"/>
       <c r="P90" s="78"/>
@@ -12113,10 +12198,10 @@
       <c r="G91" s="63"/>
       <c r="H91" s="63"/>
       <c r="I91" s="40"/>
-      <c r="J91" s="193"/>
-      <c r="K91" s="194"/>
-      <c r="L91" s="194"/>
-      <c r="M91" s="195"/>
+      <c r="J91" s="197"/>
+      <c r="K91" s="198"/>
+      <c r="L91" s="198"/>
+      <c r="M91" s="199"/>
       <c r="N91" s="86"/>
       <c r="O91" s="86"/>
       <c r="P91" s="78"/>
@@ -12135,10 +12220,10 @@
       <c r="G92" s="63"/>
       <c r="H92" s="63"/>
       <c r="I92" s="40"/>
-      <c r="J92" s="193"/>
-      <c r="K92" s="194"/>
-      <c r="L92" s="194"/>
-      <c r="M92" s="195"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="198"/>
+      <c r="L92" s="198"/>
+      <c r="M92" s="199"/>
       <c r="N92" s="86"/>
       <c r="O92" s="86"/>
       <c r="P92" s="78"/>
@@ -12157,10 +12242,10 @@
       <c r="G93" s="63"/>
       <c r="H93" s="63"/>
       <c r="I93" s="40"/>
-      <c r="J93" s="193"/>
-      <c r="K93" s="194"/>
-      <c r="L93" s="194"/>
-      <c r="M93" s="195"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="198"/>
+      <c r="L93" s="198"/>
+      <c r="M93" s="199"/>
       <c r="N93" s="86"/>
       <c r="O93" s="86"/>
       <c r="P93" s="78"/>
@@ -12179,10 +12264,10 @@
       <c r="G94" s="63"/>
       <c r="H94" s="63"/>
       <c r="I94" s="40"/>
-      <c r="J94" s="193"/>
-      <c r="K94" s="194"/>
-      <c r="L94" s="194"/>
-      <c r="M94" s="195"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="198"/>
+      <c r="L94" s="198"/>
+      <c r="M94" s="199"/>
       <c r="N94" s="86"/>
       <c r="O94" s="86"/>
       <c r="P94" s="78"/>
@@ -12194,61 +12279,31 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="96">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
+  <mergeCells count="94">
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J76:M76"/>
     <mergeCell ref="J93:M93"/>
     <mergeCell ref="J94:M94"/>
     <mergeCell ref="J5:M5"/>
@@ -12265,32 +12320,60 @@
     <mergeCell ref="J69:M69"/>
     <mergeCell ref="J70:M70"/>
     <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R13"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
@@ -12317,10 +12400,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:G29"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12336,10 +12419,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12352,7 +12435,7 @@
       </c>
       <c r="F1" s="36" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -12364,11 +12447,13 @@
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="37" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12393,7 +12478,9 @@
       <c r="I2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="37"/>
+      <c r="J2" s="37">
+        <v>42417</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
       <c r="A4" s="54"/>
@@ -12447,7 +12534,7 @@
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -12462,7 +12549,7 @@
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="82"/>
       <c r="B9" s="82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
@@ -12487,7 +12574,7 @@
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="82"/>
       <c r="B11" s="82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -12524,7 +12611,7 @@
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="B14" s="82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -12537,7 +12624,7 @@
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="B16" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -12572,7 +12659,7 @@
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -12585,9 +12672,7 @@
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
-      <c r="C20" s="43" t="s">
-        <v>172</v>
-      </c>
+      <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
@@ -12609,7 +12694,7 @@
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="B22" s="82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
@@ -12657,88 +12742,89 @@
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="205" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="204" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="46"/>
-    </row>
-    <row r="27" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="205" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="204" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="204"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
+    <row r="26" spans="1:10" s="215" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A26" s="212"/>
+      <c r="B26" s="213" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="214"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="133"/>
+    </row>
+    <row r="27" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A27" s="75"/>
+      <c r="B27" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="201" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="201"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1">
+    <row r="28" spans="1:10" ht="26.25" customHeight="1">
       <c r="A28" s="42"/>
-      <c r="B28" s="205" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="204" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="204"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
+      <c r="B28" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="201" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="201"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="46"/>
     </row>
-    <row r="29" spans="1:10" ht="25.5" customHeight="1">
+    <row r="29" spans="1:10" ht="24" customHeight="1">
       <c r="A29" s="42"/>
-      <c r="B29" s="205" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="204" t="s">
-        <v>196</v>
-      </c>
-      <c r="D29" s="204"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
+      <c r="B29" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="201" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="46"/>
     </row>
-    <row r="30" spans="1:10" ht="12" customHeight="1">
-      <c r="A30" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+    <row r="30" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="201" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
-      <c r="B31" s="82" t="s">
-        <v>122</v>
-      </c>
+      <c r="A31" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="43"/>
       <c r="C31" s="88"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
@@ -12749,7 +12835,9 @@
       <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
-      <c r="B32" s="43"/>
+      <c r="B32" s="82" t="s">
+        <v>121</v>
+      </c>
       <c r="C32" s="88"/>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
@@ -12771,10 +12859,8 @@
       <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
-      <c r="B34" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
@@ -12784,8 +12870,10 @@
       <c r="J34" s="46"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
-      <c r="B35" s="82"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
@@ -12795,9 +12883,8 @@
       <c r="J35" s="46"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
       <c r="F36" s="43"/>
@@ -12807,11 +12894,9 @@
       <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
-      <c r="A37" s="75" t="s">
-        <v>125</v>
-      </c>
+      <c r="A37" s="42"/>
       <c r="B37" s="43"/>
-      <c r="C37" s="88"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
@@ -12821,9 +12906,10 @@
       <c r="J37" s="46"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
-      <c r="B38" s="82" t="s">
-        <v>122</v>
-      </c>
+      <c r="A38" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="43"/>
       <c r="C38" s="88"/>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12834,7 +12920,9 @@
       <c r="J38" s="46"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
-      <c r="B39" s="43"/>
+      <c r="B39" s="82" t="s">
+        <v>121</v>
+      </c>
       <c r="C39" s="88"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
@@ -12856,10 +12944,8 @@
       <c r="J40" s="46"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
-      <c r="B41" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
@@ -12869,8 +12955,10 @@
       <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
-      <c r="B42" s="82"/>
-      <c r="C42" s="88"/>
+      <c r="B42" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -12880,9 +12968,8 @@
       <c r="J42" s="46"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -12892,11 +12979,9 @@
       <c r="J43" s="46"/>
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1">
-      <c r="A44" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="88"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43"/>
@@ -12906,9 +12991,10 @@
       <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1">
-      <c r="B45" s="82" t="s">
-        <v>127</v>
-      </c>
+      <c r="A45" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="43"/>
       <c r="C45" s="88"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
@@ -12919,7 +13005,9 @@
       <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1">
-      <c r="B46" s="82"/>
+      <c r="B46" s="82" t="s">
+        <v>126</v>
+      </c>
       <c r="C46" s="88"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -12930,7 +13018,7 @@
       <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1">
-      <c r="B47" s="43"/>
+      <c r="B47" s="82"/>
       <c r="C47" s="88"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
@@ -12941,10 +13029,8 @@
       <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:10" ht="12" customHeight="1">
-      <c r="B48" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="43"/>
@@ -12954,7 +13040,9 @@
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1">
-      <c r="B49" s="82"/>
+      <c r="B49" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
@@ -12965,11 +13053,8 @@
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1">
-      <c r="A50" s="75" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="88"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
@@ -12979,7 +13064,10 @@
       <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1">
-      <c r="B51" s="82"/>
+      <c r="A51" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="43"/>
       <c r="C51" s="88"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
@@ -12990,7 +13078,7 @@
       <c r="J51" s="46"/>
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1">
-      <c r="B52" s="43"/>
+      <c r="B52" s="82"/>
       <c r="C52" s="88"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
@@ -13001,8 +13089,8 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1">
-      <c r="B53" s="82"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="43"/>
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
@@ -13023,7 +13111,7 @@
       <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1">
-      <c r="B55" s="43"/>
+      <c r="B55" s="82"/>
       <c r="C55" s="43"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
@@ -13045,7 +13133,7 @@
       <c r="J56" s="46"/>
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1">
-      <c r="B57" s="82"/>
+      <c r="B57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
@@ -13056,9 +13144,8 @@
       <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1">
-      <c r="A58" s="42"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="88"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
       <c r="F58" s="43"/>
@@ -13092,9 +13179,9 @@
       <c r="J60" s="46"/>
     </row>
     <row r="61" spans="1:10" ht="12" customHeight="1">
-      <c r="A61" s="75"/>
+      <c r="A61" s="42"/>
       <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="43"/>
@@ -13104,7 +13191,8 @@
       <c r="J61" s="46"/>
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1">
-      <c r="B62" s="82"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
@@ -13115,7 +13203,7 @@
       <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:10" ht="12" customHeight="1">
-      <c r="B63" s="43"/>
+      <c r="B63" s="82"/>
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
@@ -13126,7 +13214,7 @@
       <c r="J63" s="46"/>
     </row>
     <row r="64" spans="1:10" ht="12" customHeight="1">
-      <c r="B64" s="82"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
@@ -13137,8 +13225,7 @@
       <c r="J64" s="46"/>
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
-      <c r="A65" s="42"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="82"/>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
@@ -13149,7 +13236,7 @@
       <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1">
-      <c r="A66" s="75"/>
+      <c r="A66" s="42"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
@@ -13161,7 +13248,7 @@
       <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="75"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
@@ -13425,24 +13512,37 @@
       <c r="J88" s="46"/>
     </row>
     <row r="89" spans="1:10" ht="12" customHeight="1">
-      <c r="A89" s="47"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="57"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="46"/>
+    </row>
+    <row r="90" spans="1:10" ht="12" customHeight="1">
+      <c r="A90" s="47"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C26:G26"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="B26:I26"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
@@ -13451,8 +13551,8 @@
     <oddFooter>&amp;L&amp;"Ta,Regular"&amp;10CONFIDENTIAL&amp;C&amp;"Tahoma,Regular"&amp;10&amp;P&amp;R&amp;"Tahoma,Regular"&amp;10© 2010 ASOFT JSC. All rights reserved.</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="54" max="9" man="1"/>
-    <brk id="67" max="9" man="1"/>
+    <brk id="55" max="9" man="1"/>
+    <brk id="68" max="9" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -13480,10 +13580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="160"/>
+      <c r="B1" s="163"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13496,7 +13596,7 @@
       </c>
       <c r="F1" s="36" t="str">
         <f>'Update History'!F1</f>
-        <v>CRMF3002</v>
+        <v>CRMF3000</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -13511,8 +13611,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="160"/>
-      <c r="B2" s="160"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao bieu do/CRMF3000_Bao cao bieu do.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao bieu do/CRMF3000_Bao cao bieu do.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="OLE_LINK1" localSheetId="10">'Code Standar'!$B$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Coverpage!$A$1:$J$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Definition'!$A$1:$P$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$R$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Data Input'!$A$1:$S$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Form Func Spec'!$A$1:$J$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Help!$A$1:$K$62</definedName>
@@ -477,7 +477,7 @@
     <author>vinhphong</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1" shapeId="0">
+    <comment ref="E4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="1" shapeId="0">
+    <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +517,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -530,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1" shapeId="0">
+    <comment ref="H4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="1" shapeId="0">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1" shapeId="0">
+    <comment ref="L4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="1" shapeId="0">
+    <comment ref="M4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0">
+    <comment ref="N4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="1" shapeId="0">
+    <comment ref="O4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -891,7 +891,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -908,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -941,7 +941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -969,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -983,7 +983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1403,7 +1403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="205">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2090,43 +2090,39 @@
     <t>Thực thi @ SQL0001 Kiểm tra CustomizeIndex của hệ thống</t>
   </si>
   <si>
+    <t>@SQL0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NV3 </t>
+  </si>
+  <si>
+    <t>NV4</t>
+  </si>
+  <si>
+    <t>CustomerIndex</t>
+  </si>
+  <si>
+    <t>CustomizeIndex</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0002  Load Danh mục các báo cáo nếu thõa @SQL001</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Select ReportID, ReportName, Title 
+Select ReportID, ReportName, Title , FormID
 From CRMT88888
 Where ReportID in ('CRMR30101', 'CRMR30201','CRMR30301','CRMR30401')
 Order by ReportID
 </t>
   </si>
   <si>
-    <t>Select ReportID, ReportName, Title 
-From CRMT88888
-Where ReportID not in ('CRMR30101', 'CRMR30201','CRMR30301','CRMR30401')
-Order by ReportID</t>
-  </si>
-  <si>
-    <t>@SQL0002</t>
-  </si>
-  <si>
-    <t>@SQL0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NV3 </t>
-  </si>
-  <si>
-    <t>NV4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực thi @SQL0002  Load Danh mục các báo cáo nếu thực thi @SQL001 mà CustomerName = 51 </t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0003  Load Danh mục các báo cáo nếu thực thi @SQL001 mà CustomerName khác 51</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0001  Kiểm tra CustomizeIndex ,
- nếu CustomerName =51 Thực thi @ SQL0002 để load danh mục báo cáo, ngược lại thực thi @SQL0003 load danh mục báo cáo</t>
+    <t xml:space="preserve">Thực thi @SQL0001  Kiểm tra CustomizeIndex </t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0002 để load from báo cáo</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2648,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2988,9 +2984,36 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3036,23 +3059,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3081,9 +3089,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3154,6 +3159,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3162,18 +3179,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3183,12 +3188,36 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3200,36 +3229,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4156,65 +4155,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="140"/>
-      <c r="B1" s="140"/>
-      <c r="C1" s="142" t="s">
+      <c r="A1" s="149"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="151" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="141" t="s">
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="150" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141" t="s">
+      <c r="H1" s="150"/>
+      <c r="I1" s="150" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="141"/>
+      <c r="J1" s="150"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="141" t="s">
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="150" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="137" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="138"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="147"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="120"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
       <c r="K13" s="121"/>
       <c r="L13" s="121"/>
       <c r="M13" s="121"/>
@@ -4225,56 +4224,56 @@
       <c r="R13" s="121"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="135"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="122"/>
       <c r="L16" s="122"/>
       <c r="M16" s="122"/>
@@ -4285,384 +4284,384 @@
       <c r="R16" s="122"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="135"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="135"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="142"/>
+      <c r="P17" s="142"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="142"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="142"/>
+      <c r="O18" s="142"/>
+      <c r="P18" s="142"/>
+      <c r="Q18" s="142"/>
+      <c r="R18" s="142"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="135"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="142"/>
+      <c r="P20" s="142"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="135"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="142"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
+      <c r="B22" s="143"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="151"/>
-      <c r="Q23" s="151"/>
-      <c r="R23" s="151"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="154"/>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="154"/>
-      <c r="Z28" s="154"/>
-      <c r="AA28" s="154"/>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
-      <c r="AD28" s="154"/>
-      <c r="AE28" s="154"/>
-      <c r="AF28" s="154"/>
-      <c r="AG28" s="154"/>
-      <c r="AH28" s="154"/>
-      <c r="AI28" s="154"/>
-      <c r="AJ28" s="154"/>
-      <c r="AK28" s="154"/>
-      <c r="AL28" s="154"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
-      <c r="AQ28" s="154"/>
-      <c r="AR28" s="154"/>
-      <c r="AS28" s="154"/>
-      <c r="AT28" s="154"/>
-      <c r="AU28" s="154"/>
-      <c r="AV28" s="154"/>
-      <c r="AW28" s="154"/>
-      <c r="AX28" s="154"/>
-      <c r="AY28" s="154"/>
-      <c r="AZ28" s="154"/>
-      <c r="BA28" s="154"/>
-      <c r="BB28" s="154"/>
-      <c r="BC28" s="154"/>
-      <c r="BD28" s="154"/>
-      <c r="BE28" s="154"/>
-      <c r="BF28" s="154"/>
-      <c r="BG28" s="154"/>
-      <c r="BH28" s="154"/>
-      <c r="BI28" s="154"/>
-      <c r="BJ28" s="154"/>
-      <c r="BK28" s="154"/>
-      <c r="BL28" s="154"/>
-      <c r="BM28" s="154"/>
-      <c r="BN28" s="154"/>
-      <c r="BO28" s="154"/>
-      <c r="BP28" s="154"/>
-      <c r="BQ28" s="154"/>
-      <c r="BR28" s="154"/>
-      <c r="BS28" s="154"/>
-      <c r="BT28" s="154"/>
-      <c r="BU28" s="154"/>
-      <c r="BV28" s="154"/>
-      <c r="BW28" s="154"/>
-      <c r="BX28" s="154"/>
-      <c r="BY28" s="154"/>
-      <c r="BZ28" s="154"/>
-      <c r="CA28" s="154"/>
-      <c r="CB28" s="154"/>
-      <c r="CC28" s="154"/>
-      <c r="CD28" s="154"/>
-      <c r="CE28" s="154"/>
-      <c r="CF28" s="154"/>
-      <c r="CG28" s="154"/>
-      <c r="CH28" s="154"/>
-      <c r="CI28" s="154"/>
-      <c r="CJ28" s="154"/>
-      <c r="CK28" s="154"/>
-      <c r="CL28" s="154"/>
-      <c r="CM28" s="154"/>
-      <c r="CN28" s="154"/>
-      <c r="CO28" s="154"/>
-      <c r="CP28" s="154"/>
-      <c r="CQ28" s="154"/>
-      <c r="CR28" s="154"/>
-      <c r="CS28" s="154"/>
-      <c r="CT28" s="154"/>
-      <c r="CU28" s="154"/>
-      <c r="CV28" s="154"/>
-      <c r="CW28" s="154"/>
-      <c r="CX28" s="154"/>
-      <c r="CY28" s="154"/>
-      <c r="CZ28" s="154"/>
-      <c r="DA28" s="154"/>
-      <c r="DB28" s="154"/>
-      <c r="DC28" s="154"/>
-      <c r="DD28" s="154"/>
-      <c r="DE28" s="154"/>
-      <c r="DF28" s="154"/>
-      <c r="DG28" s="154"/>
-      <c r="DH28" s="154"/>
-      <c r="DI28" s="154"/>
-      <c r="DJ28" s="154"/>
-      <c r="DK28" s="154"/>
-      <c r="DL28" s="154"/>
-      <c r="DM28" s="154"/>
-      <c r="DN28" s="154"/>
-      <c r="DO28" s="154"/>
-      <c r="DP28" s="154"/>
-      <c r="DQ28" s="154"/>
-      <c r="DR28" s="154"/>
-      <c r="DS28" s="154"/>
-      <c r="DT28" s="154"/>
-      <c r="DU28" s="154"/>
-      <c r="DV28" s="154"/>
-      <c r="DW28" s="154"/>
-      <c r="DX28" s="154"/>
-      <c r="DY28" s="154"/>
-      <c r="DZ28" s="154"/>
-      <c r="EA28" s="154"/>
-      <c r="EB28" s="154"/>
-      <c r="EC28" s="154"/>
-      <c r="ED28" s="154"/>
-      <c r="EE28" s="154"/>
-      <c r="EF28" s="154"/>
-      <c r="EG28" s="154"/>
-      <c r="EH28" s="154"/>
-      <c r="EI28" s="154"/>
-      <c r="EJ28" s="154"/>
-      <c r="EK28" s="154"/>
-      <c r="EL28" s="154"/>
-      <c r="EM28" s="154"/>
-      <c r="EN28" s="154"/>
-      <c r="EO28" s="154"/>
-      <c r="EP28" s="154"/>
-      <c r="EQ28" s="154"/>
-      <c r="ER28" s="154"/>
-      <c r="ES28" s="154"/>
-      <c r="ET28" s="154"/>
-      <c r="EU28" s="154"/>
-      <c r="EV28" s="154"/>
-      <c r="EW28" s="154"/>
-      <c r="EX28" s="154"/>
-      <c r="EY28" s="154"/>
-      <c r="EZ28" s="154"/>
-      <c r="FA28" s="154"/>
-      <c r="FB28" s="154"/>
-      <c r="FC28" s="154"/>
-      <c r="FD28" s="154"/>
-      <c r="FE28" s="154"/>
-      <c r="FF28" s="154"/>
-      <c r="FG28" s="154"/>
-      <c r="FH28" s="154"/>
-      <c r="FI28" s="154"/>
-      <c r="FJ28" s="154"/>
-      <c r="FK28" s="154"/>
-      <c r="FL28" s="154"/>
-      <c r="FM28" s="154"/>
-      <c r="FN28" s="154"/>
-      <c r="FO28" s="154"/>
-      <c r="FP28" s="154"/>
-      <c r="FQ28" s="154"/>
-      <c r="FR28" s="154"/>
-      <c r="FS28" s="154"/>
-      <c r="FT28" s="154"/>
-      <c r="FU28" s="154"/>
-      <c r="FV28" s="154"/>
-      <c r="FW28" s="154"/>
-      <c r="FX28" s="154"/>
-      <c r="FY28" s="154"/>
-      <c r="FZ28" s="154"/>
-      <c r="GA28" s="154"/>
-      <c r="GB28" s="154"/>
-      <c r="GC28" s="154"/>
-      <c r="GD28" s="154"/>
-      <c r="GE28" s="154"/>
-      <c r="GF28" s="154"/>
-      <c r="GG28" s="154"/>
-      <c r="GH28" s="154"/>
-      <c r="GI28" s="154"/>
-      <c r="GJ28" s="154"/>
-      <c r="GK28" s="154"/>
-      <c r="GL28" s="154"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="139"/>
+      <c r="AF28" s="139"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="139"/>
+      <c r="AJ28" s="139"/>
+      <c r="AK28" s="139"/>
+      <c r="AL28" s="139"/>
+      <c r="AM28" s="139"/>
+      <c r="AN28" s="139"/>
+      <c r="AO28" s="139"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="139"/>
+      <c r="AR28" s="139"/>
+      <c r="AS28" s="139"/>
+      <c r="AT28" s="139"/>
+      <c r="AU28" s="139"/>
+      <c r="AV28" s="139"/>
+      <c r="AW28" s="139"/>
+      <c r="AX28" s="139"/>
+      <c r="AY28" s="139"/>
+      <c r="AZ28" s="139"/>
+      <c r="BA28" s="139"/>
+      <c r="BB28" s="139"/>
+      <c r="BC28" s="139"/>
+      <c r="BD28" s="139"/>
+      <c r="BE28" s="139"/>
+      <c r="BF28" s="139"/>
+      <c r="BG28" s="139"/>
+      <c r="BH28" s="139"/>
+      <c r="BI28" s="139"/>
+      <c r="BJ28" s="139"/>
+      <c r="BK28" s="139"/>
+      <c r="BL28" s="139"/>
+      <c r="BM28" s="139"/>
+      <c r="BN28" s="139"/>
+      <c r="BO28" s="139"/>
+      <c r="BP28" s="139"/>
+      <c r="BQ28" s="139"/>
+      <c r="BR28" s="139"/>
+      <c r="BS28" s="139"/>
+      <c r="BT28" s="139"/>
+      <c r="BU28" s="139"/>
+      <c r="BV28" s="139"/>
+      <c r="BW28" s="139"/>
+      <c r="BX28" s="139"/>
+      <c r="BY28" s="139"/>
+      <c r="BZ28" s="139"/>
+      <c r="CA28" s="139"/>
+      <c r="CB28" s="139"/>
+      <c r="CC28" s="139"/>
+      <c r="CD28" s="139"/>
+      <c r="CE28" s="139"/>
+      <c r="CF28" s="139"/>
+      <c r="CG28" s="139"/>
+      <c r="CH28" s="139"/>
+      <c r="CI28" s="139"/>
+      <c r="CJ28" s="139"/>
+      <c r="CK28" s="139"/>
+      <c r="CL28" s="139"/>
+      <c r="CM28" s="139"/>
+      <c r="CN28" s="139"/>
+      <c r="CO28" s="139"/>
+      <c r="CP28" s="139"/>
+      <c r="CQ28" s="139"/>
+      <c r="CR28" s="139"/>
+      <c r="CS28" s="139"/>
+      <c r="CT28" s="139"/>
+      <c r="CU28" s="139"/>
+      <c r="CV28" s="139"/>
+      <c r="CW28" s="139"/>
+      <c r="CX28" s="139"/>
+      <c r="CY28" s="139"/>
+      <c r="CZ28" s="139"/>
+      <c r="DA28" s="139"/>
+      <c r="DB28" s="139"/>
+      <c r="DC28" s="139"/>
+      <c r="DD28" s="139"/>
+      <c r="DE28" s="139"/>
+      <c r="DF28" s="139"/>
+      <c r="DG28" s="139"/>
+      <c r="DH28" s="139"/>
+      <c r="DI28" s="139"/>
+      <c r="DJ28" s="139"/>
+      <c r="DK28" s="139"/>
+      <c r="DL28" s="139"/>
+      <c r="DM28" s="139"/>
+      <c r="DN28" s="139"/>
+      <c r="DO28" s="139"/>
+      <c r="DP28" s="139"/>
+      <c r="DQ28" s="139"/>
+      <c r="DR28" s="139"/>
+      <c r="DS28" s="139"/>
+      <c r="DT28" s="139"/>
+      <c r="DU28" s="139"/>
+      <c r="DV28" s="139"/>
+      <c r="DW28" s="139"/>
+      <c r="DX28" s="139"/>
+      <c r="DY28" s="139"/>
+      <c r="DZ28" s="139"/>
+      <c r="EA28" s="139"/>
+      <c r="EB28" s="139"/>
+      <c r="EC28" s="139"/>
+      <c r="ED28" s="139"/>
+      <c r="EE28" s="139"/>
+      <c r="EF28" s="139"/>
+      <c r="EG28" s="139"/>
+      <c r="EH28" s="139"/>
+      <c r="EI28" s="139"/>
+      <c r="EJ28" s="139"/>
+      <c r="EK28" s="139"/>
+      <c r="EL28" s="139"/>
+      <c r="EM28" s="139"/>
+      <c r="EN28" s="139"/>
+      <c r="EO28" s="139"/>
+      <c r="EP28" s="139"/>
+      <c r="EQ28" s="139"/>
+      <c r="ER28" s="139"/>
+      <c r="ES28" s="139"/>
+      <c r="ET28" s="139"/>
+      <c r="EU28" s="139"/>
+      <c r="EV28" s="139"/>
+      <c r="EW28" s="139"/>
+      <c r="EX28" s="139"/>
+      <c r="EY28" s="139"/>
+      <c r="EZ28" s="139"/>
+      <c r="FA28" s="139"/>
+      <c r="FB28" s="139"/>
+      <c r="FC28" s="139"/>
+      <c r="FD28" s="139"/>
+      <c r="FE28" s="139"/>
+      <c r="FF28" s="139"/>
+      <c r="FG28" s="139"/>
+      <c r="FH28" s="139"/>
+      <c r="FI28" s="139"/>
+      <c r="FJ28" s="139"/>
+      <c r="FK28" s="139"/>
+      <c r="FL28" s="139"/>
+      <c r="FM28" s="139"/>
+      <c r="FN28" s="139"/>
+      <c r="FO28" s="139"/>
+      <c r="FP28" s="139"/>
+      <c r="FQ28" s="139"/>
+      <c r="FR28" s="139"/>
+      <c r="FS28" s="139"/>
+      <c r="FT28" s="139"/>
+      <c r="FU28" s="139"/>
+      <c r="FV28" s="139"/>
+      <c r="FW28" s="139"/>
+      <c r="FX28" s="139"/>
+      <c r="FY28" s="139"/>
+      <c r="FZ28" s="139"/>
+      <c r="GA28" s="139"/>
+      <c r="GB28" s="139"/>
+      <c r="GC28" s="139"/>
+      <c r="GD28" s="139"/>
+      <c r="GE28" s="139"/>
+      <c r="GF28" s="139"/>
+      <c r="GG28" s="139"/>
+      <c r="GH28" s="139"/>
+      <c r="GI28" s="139"/>
+      <c r="GJ28" s="139"/>
+      <c r="GK28" s="139"/>
+      <c r="GL28" s="139"/>
       <c r="GM28" s="123"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="O29" s="153"/>
-      <c r="P29" s="153"/>
-      <c r="Q29" s="153"/>
-      <c r="R29" s="153"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="140"/>
+      <c r="P29" s="140"/>
+      <c r="Q29" s="140"/>
+      <c r="R29" s="140"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
       <c r="K30" s="124"/>
       <c r="L30" s="124"/>
       <c r="M30" s="124"/>
@@ -4673,16 +4672,16 @@
       <c r="R30" s="124"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
       <c r="K31" s="124"/>
       <c r="L31" s="124"/>
       <c r="M31" s="124"/>
@@ -4694,28 +4693,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4729,6 +4706,28 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4755,14 +4754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="202" t="s">
+      <c r="B1" s="213" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -4955,11 +4954,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="203" t="s">
+      <c r="E27" s="214" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="204"/>
-      <c r="G27" s="205"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="216"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5283,10 +5282,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5311,8 +5310,8 @@
       <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5349,14 +5348,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
       <c r="A5" s="40">
@@ -5371,14 +5370,14 @@
       <c r="D5" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="169" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="93">
@@ -5389,12 +5388,12 @@
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="94">
@@ -5405,12 +5404,12 @@
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="159"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="95">
@@ -5421,12 +5420,12 @@
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="96">
@@ -5437,12 +5436,12 @@
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="97">
@@ -5453,12 +5452,12 @@
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="163"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="98">
@@ -5469,12 +5468,12 @@
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="163"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="99">
@@ -5485,12 +5484,12 @@
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="100">
@@ -5501,12 +5500,12 @@
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="101">
@@ -5517,12 +5516,12 @@
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5533,12 +5532,12 @@
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="93">
@@ -5549,12 +5548,12 @@
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="94">
@@ -5565,12 +5564,12 @@
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="95">
@@ -5581,12 +5580,12 @@
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="96">
@@ -5597,12 +5596,12 @@
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="97">
@@ -5613,12 +5612,12 @@
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="98">
@@ -5629,12 +5628,12 @@
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="99">
@@ -5645,12 +5644,12 @@
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="100">
@@ -5661,12 +5660,12 @@
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="101">
@@ -5677,12 +5676,12 @@
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5693,12 +5692,12 @@
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5709,12 +5708,12 @@
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="93">
@@ -5725,12 +5724,12 @@
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="94">
@@ -5741,12 +5740,12 @@
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="95">
@@ -5757,12 +5756,12 @@
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="96">
@@ -5773,12 +5772,12 @@
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="97">
@@ -5789,12 +5788,12 @@
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="98">
@@ -5805,12 +5804,12 @@
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
+      <c r="E32" s="160"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="99">
@@ -5821,12 +5820,12 @@
       </c>
       <c r="C33" s="81"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="100">
@@ -5837,12 +5836,12 @@
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="101">
@@ -5853,12 +5852,12 @@
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="166"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5869,12 +5868,12 @@
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="93">
@@ -5885,12 +5884,12 @@
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="160"/>
+      <c r="I37" s="160"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="94">
@@ -5901,12 +5900,12 @@
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="95">
@@ -5917,12 +5916,12 @@
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
+      <c r="E39" s="160"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="96">
@@ -5933,12 +5932,12 @@
       </c>
       <c r="C40" s="81"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
+      <c r="E40" s="160"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="97">
@@ -5949,12 +5948,12 @@
       </c>
       <c r="C41" s="81"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="98">
@@ -5965,32 +5964,23 @@
       </c>
       <c r="C42" s="81"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -6006,14 +5996,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6058,10 +6057,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6091,8 +6090,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6122,20 +6121,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="173" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="170" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="171"/>
+      <c r="J4" s="174"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6146,10 +6145,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="179" t="s">
+      <c r="I5" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="J5" s="180"/>
+      <c r="J5" s="183"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6160,8 +6159,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="182"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="185"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6172,8 +6171,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="182"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="185"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6184,8 +6183,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="182"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6196,8 +6195,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="182"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="185"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6208,8 +6207,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="184"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="187"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6220,10 +6219,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="170" t="s">
+      <c r="I11" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="171"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6234,10 +6233,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="173" t="s">
+      <c r="I12" s="176" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="174"/>
+      <c r="J12" s="177"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6248,8 +6247,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6260,8 +6259,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6272,8 +6271,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6284,8 +6283,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6296,8 +6295,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6308,8 +6307,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="176"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6320,8 +6319,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="176"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6332,8 +6331,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6344,8 +6343,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6356,8 +6355,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6368,8 +6367,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6380,8 +6379,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6392,8 +6391,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6404,8 +6403,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6416,8 +6415,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6428,8 +6427,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6440,8 +6439,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6452,8 +6451,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6464,8 +6463,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6476,8 +6475,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6488,8 +6487,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6500,8 +6499,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6512,8 +6511,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="179"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6524,8 +6523,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6536,8 +6535,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6548,8 +6547,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="179"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6560,8 +6559,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="176"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6572,8 +6571,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6584,8 +6583,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="176"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="179"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6596,8 +6595,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6608,8 +6607,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="178"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6637,109 +6636,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="22" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="6.85546875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="23" customWidth="1"/>
+    <col min="15" max="15" width="12" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="str">
+      <c r="G1" s="27" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="185" t="s">
+      <c r="H1" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="186"/>
-      <c r="I1" s="187" t="s">
+      <c r="I1" s="189"/>
+      <c r="J1" s="190" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="188"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="31" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="29" t="str">
+      <c r="N1" s="29" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="P1" s="29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="30" t="s">
+    <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27" t="str">
+      <c r="G2" s="27" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="G2" s="185" t="s">
+      <c r="H2" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="186"/>
-      <c r="I2" s="187" t="str">
+      <c r="I2" s="189"/>
+      <c r="J2" s="190" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo biểu đồ</v>
       </c>
-      <c r="J2" s="188"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="191"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="28">
+      <c r="N2" s="28">
         <f>'Update History'!H2</f>
         <v>42416</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="29">
+      <c r="P2" s="29">
         <v>42417</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="21" customFormat="1" ht="23.25" customHeight="1">
+    <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
@@ -6747,1095 +6749,1148 @@
         <v>32</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="O4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="34" customFormat="1" ht="14.25" customHeight="1">
+    <row r="5" spans="1:16" s="34" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="str">
+      <c r="E5" s="59" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo biểu đồ</v>
       </c>
-      <c r="E5" s="85" t="str">
+      <c r="F5" s="85" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF3000</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="71"/>
+      <c r="H5" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="62"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="71"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="71"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
-    </row>
-    <row r="6" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P5" s="71"/>
+    </row>
+    <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
         <v>2</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="E6" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="90"/>
       <c r="F6" s="90"/>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="90"/>
+      <c r="H6" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="62"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="71"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="71"/>
       <c r="N6" s="71"/>
-      <c r="O6" s="90"/>
-    </row>
-    <row r="7" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O6" s="71"/>
+      <c r="P6" s="90"/>
+    </row>
+    <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33">
         <v>2.1</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="E7" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="40" t="s">
+      <c r="F7" s="90"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="62"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="62"/>
+      <c r="L7" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="90"/>
       <c r="M7" s="90"/>
       <c r="N7" s="90"/>
       <c r="O7" s="90"/>
-    </row>
-    <row r="8" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P7" s="90"/>
+    </row>
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="E8" s="59" t="s">
         <v>172</v>
-      </c>
-      <c r="E8" s="129" t="s">
-        <v>175</v>
       </c>
       <c r="F8" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="129" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="I8" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="62"/>
+      <c r="L8" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="71"/>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
-      <c r="O8" s="90"/>
-    </row>
-    <row r="9" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O8" s="71"/>
+      <c r="P8" s="90"/>
+    </row>
+    <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="33"/>
+      <c r="D9" s="33">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="E9" s="59" t="s">
         <v>173</v>
-      </c>
-      <c r="E9" s="129" t="s">
-        <v>176</v>
       </c>
       <c r="F9" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="90"/>
       <c r="M9" s="90"/>
       <c r="N9" s="90"/>
       <c r="O9" s="90"/>
-    </row>
-    <row r="10" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P9" s="90"/>
+    </row>
+    <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33">
         <v>2.4</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="E10" s="59" t="s">
         <v>174</v>
-      </c>
-      <c r="E10" s="129" t="s">
-        <v>177</v>
       </c>
       <c r="F10" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="I10" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I10" s="62"/>
       <c r="J10" s="62"/>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="62"/>
+      <c r="L10" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="71"/>
       <c r="M10" s="71"/>
       <c r="N10" s="71"/>
-      <c r="O10" s="90"/>
-    </row>
-    <row r="11" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O10" s="71"/>
+      <c r="P10" s="90"/>
+    </row>
+    <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="90"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="90"/>
-      <c r="G11" s="40"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="62"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="62"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="71"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="71"/>
-      <c r="O11" s="90"/>
-    </row>
-    <row r="12" spans="1:15" s="34" customFormat="1" ht="11.25">
+      <c r="O11" s="71"/>
+      <c r="P11" s="90"/>
+    </row>
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="11.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="90"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="90"/>
-      <c r="G12" s="40"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="62"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="71"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="92"/>
       <c r="N12" s="71"/>
-      <c r="O12" s="90"/>
-    </row>
-    <row r="13" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O12" s="71"/>
+      <c r="P12" s="90"/>
+    </row>
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="62"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="62"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="71"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="92"/>
       <c r="N13" s="71"/>
-      <c r="O13" s="90"/>
-    </row>
-    <row r="14" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O13" s="71"/>
+      <c r="P13" s="90"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="90"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="90"/>
-      <c r="G14" s="40"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="62"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="62"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="71"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="71"/>
-      <c r="O14" s="90"/>
-    </row>
-    <row r="15" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O14" s="71"/>
+      <c r="P14" s="90"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="40"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="62"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="62"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="71"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="62"/>
       <c r="N15" s="71"/>
-      <c r="O15" s="90"/>
-    </row>
-    <row r="16" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O15" s="71"/>
+      <c r="P15" s="90"/>
+    </row>
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="90"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="59"/>
       <c r="F16" s="90"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="62"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="62"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="71"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="62"/>
       <c r="N16" s="71"/>
-      <c r="O16" s="90"/>
-    </row>
-    <row r="17" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O16" s="71"/>
+      <c r="P16" s="90"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
         <v>13</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="59"/>
       <c r="F17" s="90"/>
-      <c r="G17" s="40"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="71"/>
+      <c r="L17" s="40"/>
       <c r="M17" s="71"/>
       <c r="N17" s="71"/>
-      <c r="O17" s="90"/>
-    </row>
-    <row r="18" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O17" s="71"/>
+      <c r="P17" s="90"/>
+    </row>
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="59"/>
       <c r="F18" s="90"/>
-      <c r="G18" s="40"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="90"/>
-    </row>
-    <row r="19" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N18" s="40"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="90"/>
+    </row>
+    <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="40"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="90"/>
-    </row>
-    <row r="20" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N19" s="40"/>
+      <c r="O19" s="85"/>
+      <c r="P19" s="90"/>
+    </row>
+    <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
         <v>16</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="90"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="90"/>
-      <c r="G20" s="40"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="90"/>
-    </row>
-    <row r="21" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N20" s="40"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="90"/>
+    </row>
+    <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
         <v>17</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="90"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="90"/>
-      <c r="G21" s="40"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="90"/>
-    </row>
-    <row r="22" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N21" s="40"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="90"/>
+    </row>
+    <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>18</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="90"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="90"/>
-      <c r="G22" s="40"/>
+      <c r="G22" s="90"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="90"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="90"/>
-    </row>
-    <row r="23" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="P22" s="90"/>
+    </row>
+    <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
         <v>19</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="90"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="90"/>
-      <c r="G23" s="40"/>
+      <c r="G23" s="90"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="90"/>
-    </row>
-    <row r="24" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N23" s="40"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="90"/>
+    </row>
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
         <v>20</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="86"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="86"/>
-      <c r="G24" s="40"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="61"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="40"/>
       <c r="M24" s="61"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="32"/>
-    </row>
-    <row r="25" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="N24" s="61"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
         <v>21</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="40"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="85"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="61"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="62"/>
       <c r="N25" s="61"/>
-      <c r="O25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O25" s="61"/>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
         <v>22</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="89"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="61"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="61"/>
-      <c r="O26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O26" s="61"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
         <v>23</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="71"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="71"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="61"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="61"/>
-      <c r="O27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O27" s="61"/>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
         <v>24</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="71"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="71"/>
-      <c r="F28" s="40"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="61"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="61"/>
-      <c r="O28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O28" s="61"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
         <v>25</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="71"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="71"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="61"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="62"/>
       <c r="N29" s="61"/>
-      <c r="O29" s="32"/>
-    </row>
-    <row r="30" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O29" s="61"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
         <v>26</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="71"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="71"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="61"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="61"/>
-      <c r="O30" s="32"/>
-    </row>
-    <row r="31" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O30" s="61"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
         <v>27</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="71"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="71"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="61"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="61"/>
-      <c r="O31" s="32"/>
-    </row>
-    <row r="32" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O31" s="61"/>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
         <v>28</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="71"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="71"/>
-      <c r="F32" s="40"/>
+      <c r="F32" s="71"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="61"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="61"/>
-      <c r="O32" s="32"/>
-    </row>
-    <row r="33" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O32" s="61"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
         <v>29</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="71"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="71"/>
-      <c r="F33" s="40"/>
+      <c r="F33" s="71"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="61"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="62"/>
       <c r="N33" s="61"/>
-      <c r="O33" s="32"/>
-    </row>
-    <row r="34" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O33" s="61"/>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
         <v>30</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="71"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="71"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="61"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="61"/>
-      <c r="O34" s="32"/>
-    </row>
-    <row r="35" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O34" s="61"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
         <v>31</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="71"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="71"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="71"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="61"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="62"/>
       <c r="N35" s="61"/>
-      <c r="O35" s="32"/>
-    </row>
-    <row r="36" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O35" s="61"/>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>32</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="71"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="71"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="61"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="62"/>
       <c r="N36" s="61"/>
-      <c r="O36" s="32"/>
-    </row>
-    <row r="37" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O36" s="61"/>
+      <c r="P36" s="32"/>
+    </row>
+    <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>33</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="71"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="71"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="61"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="62"/>
       <c r="N37" s="61"/>
-      <c r="O37" s="32"/>
-    </row>
-    <row r="38" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O37" s="61"/>
+      <c r="P37" s="32"/>
+    </row>
+    <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
         <v>34</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="71"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="71"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="61"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="62"/>
       <c r="N38" s="61"/>
-      <c r="O38" s="32"/>
-    </row>
-    <row r="39" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O38" s="61"/>
+      <c r="P38" s="32"/>
+    </row>
+    <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
         <v>35</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="71"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="71"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="71"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="61"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="62"/>
       <c r="N39" s="61"/>
-      <c r="O39" s="32"/>
-    </row>
-    <row r="40" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O39" s="61"/>
+      <c r="P39" s="32"/>
+    </row>
+    <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
         <v>36</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="71"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="71"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="71"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="61"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="62"/>
       <c r="N40" s="61"/>
-      <c r="O40" s="32"/>
-    </row>
-    <row r="41" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O40" s="61"/>
+      <c r="P40" s="32"/>
+    </row>
+    <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
         <v>37</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="71"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="71"/>
-      <c r="F41" s="40"/>
+      <c r="F41" s="71"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="61"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="62"/>
       <c r="N41" s="61"/>
-      <c r="O41" s="32"/>
-    </row>
-    <row r="42" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O41" s="61"/>
+      <c r="P41" s="32"/>
+    </row>
+    <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
         <v>38</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="71"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="71"/>
-      <c r="F42" s="40"/>
+      <c r="F42" s="71"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="61"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="62"/>
       <c r="N42" s="61"/>
-      <c r="O42" s="32"/>
-    </row>
-    <row r="43" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O42" s="61"/>
+      <c r="P42" s="32"/>
+    </row>
+    <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
         <v>39</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="71"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="71"/>
-      <c r="F43" s="40"/>
+      <c r="F43" s="71"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="61"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="62"/>
       <c r="N43" s="61"/>
-      <c r="O43" s="32"/>
-    </row>
-    <row r="44" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O43" s="61"/>
+      <c r="P43" s="32"/>
+    </row>
+    <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
         <v>40</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="71"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="71"/>
-      <c r="F44" s="40"/>
+      <c r="F44" s="71"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="61"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="62"/>
       <c r="N44" s="61"/>
-      <c r="O44" s="32"/>
-    </row>
-    <row r="45" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O44" s="61"/>
+      <c r="P44" s="32"/>
+    </row>
+    <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
         <v>41</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="71"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="71"/>
-      <c r="F45" s="40"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="61"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="62"/>
       <c r="N45" s="61"/>
-      <c r="O45" s="32"/>
-    </row>
-    <row r="46" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O45" s="61"/>
+      <c r="P45" s="32"/>
+    </row>
+    <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
         <v>42</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="71"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="71"/>
-      <c r="F46" s="40"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="61"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="62"/>
       <c r="N46" s="61"/>
-      <c r="O46" s="32"/>
-    </row>
-    <row r="47" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O46" s="61"/>
+      <c r="P46" s="32"/>
+    </row>
+    <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
         <v>43</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="71"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="71"/>
-      <c r="F47" s="40"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="61"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="62"/>
       <c r="N47" s="61"/>
-      <c r="O47" s="32"/>
-    </row>
-    <row r="48" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O47" s="61"/>
+      <c r="P47" s="32"/>
+    </row>
+    <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
         <v>44</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="76"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="76"/>
       <c r="F48" s="76"/>
-      <c r="G48" s="40"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="61"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="62"/>
       <c r="N48" s="61"/>
-      <c r="O48" s="32"/>
-    </row>
-    <row r="49" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O48" s="61"/>
+      <c r="P48" s="32"/>
+    </row>
+    <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
         <v>45</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="76"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="76"/>
-      <c r="F49" s="40"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="61"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="62"/>
       <c r="N49" s="61"/>
-      <c r="O49" s="32"/>
-    </row>
-    <row r="50" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O49" s="61"/>
+      <c r="P49" s="32"/>
+    </row>
+    <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
         <v>46</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="76"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="76"/>
       <c r="F50" s="76"/>
-      <c r="G50" s="40"/>
+      <c r="G50" s="76"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="61"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="62"/>
       <c r="N50" s="61"/>
-      <c r="O50" s="32"/>
-    </row>
-    <row r="51" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O50" s="61"/>
+      <c r="P50" s="32"/>
+    </row>
+    <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
         <v>47</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="76"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="76"/>
-      <c r="F51" s="40"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="61"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="62"/>
       <c r="N51" s="61"/>
-      <c r="O51" s="32"/>
-    </row>
-    <row r="52" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O51" s="61"/>
+      <c r="P51" s="32"/>
+    </row>
+    <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
         <v>48</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="76"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="76"/>
-      <c r="F52" s="40"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="61"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="62"/>
       <c r="N52" s="61"/>
-      <c r="O52" s="32"/>
-    </row>
-    <row r="53" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O52" s="61"/>
+      <c r="P52" s="32"/>
+    </row>
+    <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
         <v>49</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
-      <c r="D53" s="76"/>
+      <c r="D53" s="33"/>
       <c r="E53" s="76"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="61"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="62"/>
       <c r="N53" s="61"/>
-      <c r="O53" s="32"/>
-    </row>
-    <row r="54" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="O53" s="61"/>
+      <c r="P53" s="32"/>
+    </row>
+    <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
         <v>50</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
-      <c r="D54" s="76"/>
+      <c r="D54" s="33"/>
       <c r="E54" s="76"/>
-      <c r="F54" s="40"/>
+      <c r="F54" s="76"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="61"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="62"/>
       <c r="N54" s="61"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M25:N54 L24:M24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H54 H5:H19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I54 I5:I19">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F26:F54 F5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G26:G54 G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H54">
       <formula1>"Caption,Textbox,DateTimePicker,GirdColumn,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8921,15 +8976,15 @@
       <c r="E4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="163" t="s">
+      <c r="F4" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163" t="s">
+      <c r="G4" s="167"/>
+      <c r="H4" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -8941,9 +8996,9 @@
       <c r="E5" s="32"/>
       <c r="F5" s="193"/>
       <c r="G5" s="194"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="192"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -8955,9 +9010,9 @@
       <c r="E6" s="32"/>
       <c r="F6" s="193"/>
       <c r="G6" s="194"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="191"/>
-      <c r="J6" s="192"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -8969,9 +9024,9 @@
       <c r="E7" s="32"/>
       <c r="F7" s="193"/>
       <c r="G7" s="194"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="191"/>
-      <c r="J7" s="192"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -8983,9 +9038,9 @@
       <c r="E8" s="32"/>
       <c r="F8" s="193"/>
       <c r="G8" s="194"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="192"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -8997,9 +9052,9 @@
       <c r="E9" s="32"/>
       <c r="F9" s="193"/>
       <c r="G9" s="194"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9011,9 +9066,9 @@
       <c r="E10" s="32"/>
       <c r="F10" s="193"/>
       <c r="G10" s="194"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9025,9 +9080,9 @@
       <c r="E11" s="32"/>
       <c r="F11" s="193"/>
       <c r="G11" s="194"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9039,9 +9094,9 @@
       <c r="E12" s="32"/>
       <c r="F12" s="193"/>
       <c r="G12" s="194"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="199"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9053,9 +9108,9 @@
       <c r="E13" s="32"/>
       <c r="F13" s="193"/>
       <c r="G13" s="194"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="192"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="199"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9067,9 +9122,9 @@
       <c r="E14" s="32"/>
       <c r="F14" s="193"/>
       <c r="G14" s="194"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="192"/>
+      <c r="H14" s="197"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="199"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9081,9 +9136,9 @@
       <c r="E15" s="32"/>
       <c r="F15" s="193"/>
       <c r="G15" s="194"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="192"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="199"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9095,9 +9150,9 @@
       <c r="E16" s="32"/>
       <c r="F16" s="193"/>
       <c r="G16" s="194"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="192"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9109,9 +9164,9 @@
       <c r="E17" s="32"/>
       <c r="F17" s="193"/>
       <c r="G17" s="194"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9123,9 +9178,9 @@
       <c r="E18" s="32"/>
       <c r="F18" s="193"/>
       <c r="G18" s="194"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="192"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9137,9 +9192,9 @@
       <c r="E19" s="32"/>
       <c r="F19" s="193"/>
       <c r="G19" s="194"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="192"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9151,9 +9206,9 @@
       <c r="E20" s="32"/>
       <c r="F20" s="193"/>
       <c r="G20" s="194"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="192"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="199"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9165,9 +9220,9 @@
       <c r="E21" s="32"/>
       <c r="F21" s="193"/>
       <c r="G21" s="194"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="192"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="199"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9177,11 +9232,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="192"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="199"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9191,11 +9246,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="197"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="199"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9205,11 +9260,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="163"/>
+      <c r="H24" s="197"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9219,11 +9274,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="192"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9233,11 +9288,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="192"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9247,11 +9302,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="192"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9261,11 +9316,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="192"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9275,11 +9330,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="192"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="197"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9289,11 +9344,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="192"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9303,11 +9358,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="192"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="197"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9317,11 +9372,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="192"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9338,11 +9393,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="192"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9359,11 +9414,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="192"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="199"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9380,11 +9435,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="192"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="199"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9401,11 +9456,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="192"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9422,11 +9477,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="192"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="199"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9443,11 +9498,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="192"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9464,11 +9519,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="192"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="163"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9485,11 +9540,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="159"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="163"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="199"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9506,11 +9561,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="157"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="192"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="199"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9527,11 +9582,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="192"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="163"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="199"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9548,11 +9603,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="157"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="192"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="163"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="199"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9569,11 +9624,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="192"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="163"/>
+      <c r="H44" s="197"/>
+      <c r="I44" s="198"/>
+      <c r="J44" s="199"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9590,11 +9645,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="159"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="192"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="163"/>
+      <c r="H45" s="197"/>
+      <c r="I45" s="198"/>
+      <c r="J45" s="199"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9611,11 +9666,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="192"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="197"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="199"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9632,11 +9687,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="159"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="192"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="163"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="199"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9653,11 +9708,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="192"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="197"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="199"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9674,11 +9729,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="190"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="192"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="163"/>
+      <c r="H49" s="197"/>
+      <c r="I49" s="198"/>
+      <c r="J49" s="199"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -9695,11 +9750,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="159"/>
-      <c r="H50" s="190"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="192"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="197"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="199"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -9716,11 +9771,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="190"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="192"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="198"/>
+      <c r="J51" s="199"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -9737,11 +9792,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="190"/>
-      <c r="I52" s="191"/>
-      <c r="J52" s="192"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="197"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="199"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -9758,11 +9813,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="159"/>
-      <c r="H53" s="190"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="192"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="163"/>
+      <c r="H53" s="197"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="199"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -9779,11 +9834,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="159"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="192"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="197"/>
+      <c r="I54" s="198"/>
+      <c r="J54" s="199"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -9800,11 +9855,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="191"/>
-      <c r="J55" s="192"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="163"/>
+      <c r="H55" s="197"/>
+      <c r="I55" s="198"/>
+      <c r="J55" s="199"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -9821,11 +9876,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="190"/>
-      <c r="I56" s="191"/>
-      <c r="J56" s="192"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="163"/>
+      <c r="H56" s="197"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="199"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -9837,25 +9892,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -9870,80 +9980,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -9959,170 +10014,176 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1048467"/>
+  <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:M6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="23" customWidth="1"/>
-    <col min="15" max="17" width="14.140625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="23" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="13.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="23" customWidth="1"/>
+    <col min="16" max="18" width="14.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" style="23" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="200" t="str">
+      <c r="J1" s="206" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="200"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="206"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="53" t="str">
+      <c r="M1" s="53" t="str">
         <f>'Update History'!F1</f>
         <v>CRMF3000</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="50" t="str">
+      <c r="O1" s="50" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="Q1" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="52"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="35"/>
       <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="31" t="s">
+      <c r="U1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="200" t="str">
+      <c r="J2" s="206" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="206"/>
+      <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="53" t="str">
+      <c r="M2" s="53" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo biểu đồ</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="51">
+      <c r="O2" s="51">
         <f>'Update History'!H2</f>
         <v>42416</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="50">
+      <c r="Q2" s="50">
         <v>42417</v>
       </c>
-      <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="52"/>
-    </row>
-    <row r="4" spans="1:20" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="U2" s="52"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="E4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="F4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="G4" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="H4" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="170" t="s">
+      <c r="K4" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="39" t="s">
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="Q4" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="R4" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="S4" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="22.5">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="22.5">
       <c r="A5" s="33">
         <v>1</v>
       </c>
@@ -10131,340 +10192,332 @@
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="90" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="I5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="130" t="s">
+      <c r="J5" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="J5" s="197" t="s">
+      <c r="K5" s="200" t="s">
         <v>193</v>
       </c>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="90" t="s">
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="S5" s="64"/>
       <c r="T5" s="64"/>
-    </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="65.25" customHeight="1">
+      <c r="U5" s="64"/>
+    </row>
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="65.25" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="33">
+        <v>51</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="131" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="I6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="130" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="206" t="s">
+      <c r="J6" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="208"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="78" t="s">
+      <c r="K6" s="203" t="s">
+        <v>202</v>
+      </c>
+      <c r="L6" s="204"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="131"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="Q6" s="77" t="s">
+      <c r="R6" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="R6" s="131" t="s">
-        <v>202</v>
-      </c>
-      <c r="S6" s="64"/>
+      <c r="S6" s="131" t="s">
+        <v>201</v>
+      </c>
       <c r="T6" s="64"/>
-    </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="66" customHeight="1">
-      <c r="A7" s="33">
-        <v>3</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>185</v>
-      </c>
+      <c r="U6" s="64"/>
+    </row>
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="66" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="131" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="209" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="78" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q7" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="S7" s="64"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="207"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="131"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="131"/>
       <c r="T7" s="64"/>
-    </row>
-    <row r="8" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U7" s="64"/>
+    </row>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="63"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="63"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="198"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="91"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="202"/>
       <c r="O8" s="91"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="64"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="84"/>
       <c r="T8" s="64"/>
-    </row>
-    <row r="9" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U8" s="64"/>
+    </row>
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="198"/>
-      <c r="L9" s="198"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="91"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="202"/>
       <c r="O9" s="91"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="64"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="84"/>
       <c r="T9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="63"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="63"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
-      <c r="L10" s="198"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="91"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="202"/>
       <c r="O10" s="91"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="64"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="84"/>
       <c r="T10" s="64"/>
-    </row>
-    <row r="11" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U10" s="64"/>
+    </row>
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="63"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="197"/>
-      <c r="K11" s="198"/>
-      <c r="L11" s="198"/>
-      <c r="M11" s="199"/>
-      <c r="N11" s="91"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="202"/>
       <c r="O11" s="91"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="64"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="84"/>
       <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U11" s="64"/>
+    </row>
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="63"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="198"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="87"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="202"/>
       <c r="O12" s="87"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="64"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="84"/>
       <c r="T12" s="64"/>
-    </row>
-    <row r="13" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U12" s="64"/>
+    </row>
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="198"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="87"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="202"/>
       <c r="O13" s="87"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="64"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="84"/>
       <c r="T13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U13" s="64"/>
+    </row>
+    <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="63"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="197"/>
-      <c r="K14" s="198"/>
-      <c r="L14" s="198"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="83"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="202"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="64"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="90"/>
       <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U14" s="64"/>
+    </row>
+    <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="63"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="63"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="197"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="83"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="202"/>
       <c r="O15" s="83"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="64"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="90"/>
       <c r="T15" s="64"/>
-    </row>
-    <row r="16" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U15" s="64"/>
+    </row>
+    <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="63"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="63"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="197"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="64"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="90"/>
       <c r="T16" s="64"/>
-    </row>
-    <row r="17" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U16" s="64"/>
+    </row>
+    <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="33">
         <v>13</v>
       </c>
@@ -10472,23 +10525,24 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="63"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="197"/>
-      <c r="K17" s="198"/>
-      <c r="L17" s="198"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="60"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="202"/>
       <c r="O17" s="60"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="64"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="90"/>
       <c r="T17" s="64"/>
-    </row>
-    <row r="18" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U17" s="64"/>
+    </row>
+    <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -10496,23 +10550,24 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="86"/>
       <c r="H18" s="63"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="198"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="60"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="202"/>
       <c r="O18" s="60"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="64"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="90"/>
       <c r="T18" s="64"/>
-    </row>
-    <row r="19" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U18" s="64"/>
+    </row>
+    <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
         <v>15</v>
       </c>
@@ -10520,23 +10575,24 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="63"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="63"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="60"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="202"/>
       <c r="O19" s="60"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="64"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="90"/>
       <c r="T19" s="64"/>
-    </row>
-    <row r="20" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U19" s="64"/>
+    </row>
+    <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -10544,23 +10600,24 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="63"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="197"/>
-      <c r="K20" s="198"/>
-      <c r="L20" s="198"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="60"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="202"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="64"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="90"/>
       <c r="T20" s="64"/>
-    </row>
-    <row r="21" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U20" s="64"/>
+    </row>
+    <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="33">
         <v>17</v>
       </c>
@@ -10568,23 +10625,24 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="63"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="197"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="199"/>
-      <c r="N21" s="60"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="202"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="64"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="90"/>
       <c r="T21" s="64"/>
-    </row>
-    <row r="22" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U21" s="64"/>
+    </row>
+    <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
         <v>18</v>
       </c>
@@ -10592,23 +10650,24 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="197"/>
-      <c r="K22" s="198"/>
-      <c r="L22" s="198"/>
-      <c r="M22" s="199"/>
-      <c r="N22" s="60"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="202"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="64"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="90"/>
       <c r="T22" s="64"/>
-    </row>
-    <row r="23" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U22" s="64"/>
+    </row>
+    <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -10616,23 +10675,24 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="63"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="63"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="197"/>
-      <c r="K23" s="198"/>
-      <c r="L23" s="198"/>
-      <c r="M23" s="199"/>
-      <c r="N23" s="60"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="202"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="64"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="64"/>
-    </row>
-    <row r="24" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U23" s="64"/>
+    </row>
+    <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -10640,23 +10700,24 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="86"/>
       <c r="H24" s="63"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198"/>
-      <c r="L24" s="198"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="60"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="202"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="78"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="64"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="90"/>
       <c r="T24" s="64"/>
-    </row>
-    <row r="25" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U24" s="64"/>
+    </row>
+    <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
         <v>21</v>
       </c>
@@ -10664,23 +10725,24 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="63"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="197"/>
-      <c r="K25" s="198"/>
-      <c r="L25" s="198"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="60"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="202"/>
       <c r="O25" s="60"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="64"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="90"/>
       <c r="T25" s="64"/>
-    </row>
-    <row r="26" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U25" s="64"/>
+    </row>
+    <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
         <v>22</v>
       </c>
@@ -10688,23 +10750,24 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="63"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="63"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="198"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="60"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="202"/>
       <c r="O26" s="60"/>
-      <c r="P26" s="78"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="64"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="90"/>
       <c r="T26" s="64"/>
-    </row>
-    <row r="27" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U26" s="64"/>
+    </row>
+    <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
         <v>23</v>
       </c>
@@ -10712,23 +10775,24 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="63"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="63"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="197"/>
-      <c r="K27" s="198"/>
-      <c r="L27" s="198"/>
-      <c r="M27" s="199"/>
-      <c r="N27" s="60"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="202"/>
       <c r="O27" s="60"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="64"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="90"/>
       <c r="T27" s="64"/>
-    </row>
-    <row r="28" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U27" s="64"/>
+    </row>
+    <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
         <v>24</v>
       </c>
@@ -10736,23 +10800,24 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="63"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="63"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="197"/>
-      <c r="K28" s="198"/>
-      <c r="L28" s="198"/>
-      <c r="M28" s="199"/>
-      <c r="N28" s="60"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="202"/>
       <c r="O28" s="60"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="64"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="90"/>
       <c r="T28" s="64"/>
-    </row>
-    <row r="29" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U28" s="64"/>
+    </row>
+    <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
         <v>25</v>
       </c>
@@ -10760,23 +10825,24 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="63"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="63"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="198"/>
-      <c r="L29" s="198"/>
-      <c r="M29" s="199"/>
-      <c r="N29" s="60"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="202"/>
       <c r="O29" s="60"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="64"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="90"/>
       <c r="T29" s="64"/>
-    </row>
-    <row r="30" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U29" s="64"/>
+    </row>
+    <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -10784,23 +10850,24 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="63"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="63"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="198"/>
-      <c r="M30" s="199"/>
-      <c r="N30" s="60"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="200"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="202"/>
       <c r="O30" s="60"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="64"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="90"/>
       <c r="T30" s="64"/>
-    </row>
-    <row r="31" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U30" s="64"/>
+    </row>
+    <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="33">
         <v>27</v>
       </c>
@@ -10808,23 +10875,24 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="63"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
-      <c r="L31" s="198"/>
-      <c r="M31" s="199"/>
-      <c r="N31" s="60"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="200"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="201"/>
+      <c r="N31" s="202"/>
       <c r="O31" s="60"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="64"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="90"/>
       <c r="T31" s="64"/>
-    </row>
-    <row r="32" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U31" s="64"/>
+    </row>
+    <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="33">
         <v>28</v>
       </c>
@@ -10832,23 +10900,24 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="63"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="63"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="198"/>
-      <c r="M32" s="199"/>
-      <c r="N32" s="60"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="202"/>
       <c r="O32" s="60"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="64"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="90"/>
       <c r="T32" s="64"/>
-    </row>
-    <row r="33" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U32" s="64"/>
+    </row>
+    <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="33">
         <v>29</v>
       </c>
@@ -10856,47 +10925,49 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="63"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="86"/>
       <c r="H33" s="63"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="199"/>
-      <c r="N33" s="60"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
+      <c r="N33" s="202"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="64"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="90"/>
       <c r="T33" s="64"/>
-    </row>
-    <row r="34" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U33" s="64"/>
+    </row>
+    <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="33">
         <v>30</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="63"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="63"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="198"/>
-      <c r="M34" s="199"/>
-      <c r="N34" s="87"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="201"/>
+      <c r="M34" s="201"/>
+      <c r="N34" s="202"/>
       <c r="O34" s="87"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="77"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="64"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="90"/>
       <c r="T34" s="64"/>
-    </row>
-    <row r="35" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U34" s="64"/>
+    </row>
+    <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="33">
         <v>31</v>
       </c>
@@ -10904,23 +10975,24 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="63"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="86"/>
       <c r="H35" s="63"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="198"/>
-      <c r="L35" s="198"/>
-      <c r="M35" s="199"/>
-      <c r="N35" s="60"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="200"/>
+      <c r="L35" s="201"/>
+      <c r="M35" s="201"/>
+      <c r="N35" s="202"/>
       <c r="O35" s="60"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="64"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="77"/>
+      <c r="S35" s="90"/>
       <c r="T35" s="64"/>
-    </row>
-    <row r="36" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U35" s="64"/>
+    </row>
+    <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="33">
         <v>32</v>
       </c>
@@ -10928,23 +11000,24 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="63"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="86"/>
       <c r="H36" s="63"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="198"/>
-      <c r="L36" s="198"/>
-      <c r="M36" s="199"/>
-      <c r="N36" s="60"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="200"/>
+      <c r="L36" s="201"/>
+      <c r="M36" s="201"/>
+      <c r="N36" s="202"/>
       <c r="O36" s="60"/>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="77"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="64"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="90"/>
       <c r="T36" s="64"/>
-    </row>
-    <row r="37" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U36" s="64"/>
+    </row>
+    <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="33">
         <v>33</v>
       </c>
@@ -10952,23 +11025,24 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="63"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="63"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="198"/>
-      <c r="L37" s="198"/>
-      <c r="M37" s="199"/>
-      <c r="N37" s="60"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="200"/>
+      <c r="L37" s="201"/>
+      <c r="M37" s="201"/>
+      <c r="N37" s="202"/>
       <c r="O37" s="60"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="77"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="64"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="90"/>
       <c r="T37" s="64"/>
-    </row>
-    <row r="38" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U37" s="64"/>
+    </row>
+    <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="33">
         <v>34</v>
       </c>
@@ -10976,23 +11050,24 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="63"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="63"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="198"/>
-      <c r="L38" s="198"/>
-      <c r="M38" s="199"/>
-      <c r="N38" s="60"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="200"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="201"/>
+      <c r="N38" s="202"/>
       <c r="O38" s="60"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="90"/>
-      <c r="S38" s="64"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="77"/>
+      <c r="S38" s="90"/>
       <c r="T38" s="64"/>
-    </row>
-    <row r="39" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U38" s="64"/>
+    </row>
+    <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="33">
         <v>35</v>
       </c>
@@ -11000,23 +11075,24 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="63"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="86"/>
       <c r="H39" s="63"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="198"/>
-      <c r="L39" s="198"/>
-      <c r="M39" s="199"/>
-      <c r="N39" s="60"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="200"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="201"/>
+      <c r="N39" s="202"/>
       <c r="O39" s="60"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="77"/>
-      <c r="R39" s="90"/>
-      <c r="S39" s="64"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="90"/>
       <c r="T39" s="64"/>
-    </row>
-    <row r="40" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U39" s="64"/>
+    </row>
+    <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A40" s="33">
         <v>36</v>
       </c>
@@ -11024,23 +11100,24 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="63"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="86"/>
       <c r="H40" s="63"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="199"/>
-      <c r="N40" s="76"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="200"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="201"/>
+      <c r="N40" s="202"/>
       <c r="O40" s="76"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="77"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="64"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="90"/>
       <c r="T40" s="64"/>
-    </row>
-    <row r="41" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U40" s="64"/>
+    </row>
+    <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A41" s="33">
         <v>37</v>
       </c>
@@ -11048,23 +11125,24 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="63"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="63"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="198"/>
-      <c r="L41" s="198"/>
-      <c r="M41" s="199"/>
-      <c r="N41" s="76"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="200"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="201"/>
+      <c r="N41" s="202"/>
       <c r="O41" s="76"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="90"/>
-      <c r="S41" s="64"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="90"/>
       <c r="T41" s="64"/>
-    </row>
-    <row r="42" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U41" s="64"/>
+    </row>
+    <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="33">
         <v>38</v>
       </c>
@@ -11072,23 +11150,24 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="63"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="63"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="197"/>
-      <c r="K42" s="198"/>
-      <c r="L42" s="198"/>
-      <c r="M42" s="199"/>
-      <c r="N42" s="76"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="200"/>
+      <c r="L42" s="201"/>
+      <c r="M42" s="201"/>
+      <c r="N42" s="202"/>
       <c r="O42" s="76"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="64"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="90"/>
       <c r="T42" s="64"/>
-    </row>
-    <row r="43" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U42" s="64"/>
+    </row>
+    <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A43" s="33">
         <v>39</v>
       </c>
@@ -11096,23 +11175,24 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="63"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="86"/>
       <c r="H43" s="63"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="198"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="199"/>
-      <c r="N43" s="76"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="200"/>
+      <c r="L43" s="201"/>
+      <c r="M43" s="201"/>
+      <c r="N43" s="202"/>
       <c r="O43" s="76"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="90"/>
-      <c r="S43" s="64"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="90"/>
       <c r="T43" s="64"/>
-    </row>
-    <row r="44" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U43" s="64"/>
+    </row>
+    <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A44" s="33">
         <v>40</v>
       </c>
@@ -11120,23 +11200,24 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="63"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="86"/>
       <c r="H44" s="63"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="197"/>
-      <c r="K44" s="198"/>
-      <c r="L44" s="198"/>
-      <c r="M44" s="199"/>
-      <c r="N44" s="76"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="200"/>
+      <c r="L44" s="201"/>
+      <c r="M44" s="201"/>
+      <c r="N44" s="202"/>
       <c r="O44" s="76"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="77"/>
-      <c r="R44" s="90"/>
-      <c r="S44" s="64"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="77"/>
+      <c r="S44" s="90"/>
       <c r="T44" s="64"/>
-    </row>
-    <row r="45" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U44" s="64"/>
+    </row>
+    <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="33">
         <v>41</v>
       </c>
@@ -11144,23 +11225,24 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="63"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="86"/>
       <c r="H45" s="63"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="197"/>
-      <c r="K45" s="198"/>
-      <c r="L45" s="198"/>
-      <c r="M45" s="199"/>
-      <c r="N45" s="76"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="200"/>
+      <c r="L45" s="201"/>
+      <c r="M45" s="201"/>
+      <c r="N45" s="202"/>
       <c r="O45" s="76"/>
-      <c r="P45" s="78"/>
-      <c r="Q45" s="77"/>
-      <c r="R45" s="90"/>
-      <c r="S45" s="64"/>
+      <c r="P45" s="76"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="90"/>
       <c r="T45" s="64"/>
-    </row>
-    <row r="46" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U45" s="64"/>
+    </row>
+    <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A46" s="33">
         <v>42</v>
       </c>
@@ -11168,23 +11250,24 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="63"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="63"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="197"/>
-      <c r="K46" s="198"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="76"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="200"/>
+      <c r="L46" s="201"/>
+      <c r="M46" s="201"/>
+      <c r="N46" s="202"/>
       <c r="O46" s="76"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="90"/>
-      <c r="S46" s="64"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="90"/>
       <c r="T46" s="64"/>
-    </row>
-    <row r="47" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U46" s="64"/>
+    </row>
+    <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A47" s="33">
         <v>43</v>
       </c>
@@ -11192,23 +11275,24 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="63"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="63"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="197"/>
-      <c r="K47" s="198"/>
-      <c r="L47" s="198"/>
-      <c r="M47" s="199"/>
-      <c r="N47" s="76"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="200"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="201"/>
+      <c r="N47" s="202"/>
       <c r="O47" s="76"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="77"/>
-      <c r="R47" s="90"/>
-      <c r="S47" s="64"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="90"/>
       <c r="T47" s="64"/>
-    </row>
-    <row r="48" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U47" s="64"/>
+    </row>
+    <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A48" s="33">
         <v>44</v>
       </c>
@@ -11216,23 +11300,24 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="63"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="63"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="198"/>
-      <c r="L48" s="198"/>
-      <c r="M48" s="199"/>
-      <c r="N48" s="76"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="201"/>
+      <c r="M48" s="201"/>
+      <c r="N48" s="202"/>
       <c r="O48" s="76"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="77"/>
-      <c r="R48" s="90"/>
-      <c r="S48" s="64"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="90"/>
       <c r="T48" s="64"/>
-    </row>
-    <row r="49" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U48" s="64"/>
+    </row>
+    <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A49" s="33">
         <v>45</v>
       </c>
@@ -11240,23 +11325,24 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="63"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="63"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="197"/>
-      <c r="K49" s="198"/>
-      <c r="L49" s="198"/>
-      <c r="M49" s="199"/>
-      <c r="N49" s="76"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="200"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="201"/>
+      <c r="N49" s="202"/>
       <c r="O49" s="76"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="64"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="90"/>
       <c r="T49" s="64"/>
-    </row>
-    <row r="50" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U49" s="64"/>
+    </row>
+    <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A50" s="33">
         <v>46</v>
       </c>
@@ -11264,23 +11350,24 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="86"/>
       <c r="H50" s="63"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="197"/>
-      <c r="K50" s="198"/>
-      <c r="L50" s="198"/>
-      <c r="M50" s="199"/>
-      <c r="N50" s="76"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="200"/>
+      <c r="L50" s="201"/>
+      <c r="M50" s="201"/>
+      <c r="N50" s="202"/>
       <c r="O50" s="76"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="77"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="64"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="90"/>
       <c r="T50" s="64"/>
-    </row>
-    <row r="51" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U50" s="64"/>
+    </row>
+    <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A51" s="33">
         <v>47</v>
       </c>
@@ -11288,23 +11375,24 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="63"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="86"/>
       <c r="H51" s="63"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="197"/>
-      <c r="K51" s="198"/>
-      <c r="L51" s="198"/>
-      <c r="M51" s="199"/>
-      <c r="N51" s="76"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="200"/>
+      <c r="L51" s="201"/>
+      <c r="M51" s="201"/>
+      <c r="N51" s="202"/>
       <c r="O51" s="76"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="64"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="90"/>
       <c r="T51" s="64"/>
-    </row>
-    <row r="52" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U51" s="64"/>
+    </row>
+    <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A52" s="33">
         <v>48</v>
       </c>
@@ -11312,23 +11400,24 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="63"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="86"/>
       <c r="H52" s="63"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="197"/>
-      <c r="K52" s="198"/>
-      <c r="L52" s="198"/>
-      <c r="M52" s="199"/>
-      <c r="N52" s="76"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="200"/>
+      <c r="L52" s="201"/>
+      <c r="M52" s="201"/>
+      <c r="N52" s="202"/>
       <c r="O52" s="76"/>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="90"/>
-      <c r="S52" s="64"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="90"/>
       <c r="T52" s="64"/>
-    </row>
-    <row r="53" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U52" s="64"/>
+    </row>
+    <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A53" s="33">
         <v>49</v>
       </c>
@@ -11336,23 +11425,24 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="86"/>
       <c r="H53" s="63"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="197"/>
-      <c r="K53" s="198"/>
-      <c r="L53" s="198"/>
-      <c r="M53" s="199"/>
-      <c r="N53" s="76"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="200"/>
+      <c r="L53" s="201"/>
+      <c r="M53" s="201"/>
+      <c r="N53" s="202"/>
       <c r="O53" s="76"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="77"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="64"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="77"/>
+      <c r="S53" s="90"/>
       <c r="T53" s="64"/>
-    </row>
-    <row r="54" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U53" s="64"/>
+    </row>
+    <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A54" s="33">
         <v>50</v>
       </c>
@@ -11360,23 +11450,24 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="63"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="86"/>
       <c r="H54" s="63"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="197"/>
-      <c r="K54" s="198"/>
-      <c r="L54" s="198"/>
-      <c r="M54" s="199"/>
-      <c r="N54" s="76"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="200"/>
+      <c r="L54" s="201"/>
+      <c r="M54" s="201"/>
+      <c r="N54" s="202"/>
       <c r="O54" s="76"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="64"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="78"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="90"/>
       <c r="T54" s="64"/>
-    </row>
-    <row r="55" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U54" s="64"/>
+    </row>
+    <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A55" s="33">
         <v>51</v>
       </c>
@@ -11384,23 +11475,24 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="63"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="86"/>
       <c r="H55" s="63"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="197"/>
-      <c r="K55" s="198"/>
-      <c r="L55" s="198"/>
-      <c r="M55" s="199"/>
-      <c r="N55" s="76"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="201"/>
+      <c r="M55" s="201"/>
+      <c r="N55" s="202"/>
       <c r="O55" s="76"/>
-      <c r="P55" s="78"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="64"/>
+      <c r="P55" s="76"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="90"/>
       <c r="T55" s="64"/>
-    </row>
-    <row r="56" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U55" s="64"/>
+    </row>
+    <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="33">
         <v>52</v>
       </c>
@@ -11408,23 +11500,24 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="63"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="86"/>
       <c r="H56" s="63"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="197"/>
-      <c r="K56" s="198"/>
-      <c r="L56" s="198"/>
-      <c r="M56" s="199"/>
-      <c r="N56" s="76"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="200"/>
+      <c r="L56" s="201"/>
+      <c r="M56" s="201"/>
+      <c r="N56" s="202"/>
       <c r="O56" s="76"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="77"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="64"/>
+      <c r="P56" s="76"/>
+      <c r="Q56" s="78"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="90"/>
       <c r="T56" s="64"/>
-    </row>
-    <row r="57" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U56" s="64"/>
+    </row>
+    <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A57" s="33">
         <v>53</v>
       </c>
@@ -11432,23 +11525,24 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="86"/>
       <c r="H57" s="63"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="197"/>
-      <c r="K57" s="198"/>
-      <c r="L57" s="198"/>
-      <c r="M57" s="199"/>
-      <c r="N57" s="76"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="200"/>
+      <c r="L57" s="201"/>
+      <c r="M57" s="201"/>
+      <c r="N57" s="202"/>
       <c r="O57" s="76"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="64"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="90"/>
       <c r="T57" s="64"/>
-    </row>
-    <row r="58" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U57" s="64"/>
+    </row>
+    <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="33">
         <v>54</v>
       </c>
@@ -11456,23 +11550,24 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="63"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="86"/>
       <c r="H58" s="63"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="197"/>
-      <c r="K58" s="198"/>
-      <c r="L58" s="198"/>
-      <c r="M58" s="199"/>
-      <c r="N58" s="76"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="200"/>
+      <c r="L58" s="201"/>
+      <c r="M58" s="201"/>
+      <c r="N58" s="202"/>
       <c r="O58" s="76"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="64"/>
+      <c r="P58" s="76"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="90"/>
       <c r="T58" s="64"/>
-    </row>
-    <row r="59" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U58" s="64"/>
+    </row>
+    <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A59" s="33">
         <v>55</v>
       </c>
@@ -11480,23 +11575,24 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="63"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="86"/>
       <c r="H59" s="63"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="198"/>
-      <c r="L59" s="198"/>
-      <c r="M59" s="199"/>
-      <c r="N59" s="76"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="200"/>
+      <c r="L59" s="201"/>
+      <c r="M59" s="201"/>
+      <c r="N59" s="202"/>
       <c r="O59" s="76"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="77"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="64"/>
+      <c r="P59" s="76"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="90"/>
       <c r="T59" s="64"/>
-    </row>
-    <row r="60" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U59" s="64"/>
+    </row>
+    <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A60" s="33">
         <v>56</v>
       </c>
@@ -11504,23 +11600,24 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="63"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="86"/>
       <c r="H60" s="63"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="197"/>
-      <c r="K60" s="198"/>
-      <c r="L60" s="198"/>
-      <c r="M60" s="199"/>
-      <c r="N60" s="76"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="200"/>
+      <c r="L60" s="201"/>
+      <c r="M60" s="201"/>
+      <c r="N60" s="202"/>
       <c r="O60" s="76"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="77"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="64"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="90"/>
       <c r="T60" s="64"/>
-    </row>
-    <row r="61" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="U60" s="64"/>
+    </row>
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A61" s="33">
         <v>57</v>
       </c>
@@ -11528,23 +11625,24 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="63"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="86"/>
       <c r="H61" s="63"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="198"/>
-      <c r="L61" s="198"/>
-      <c r="M61" s="199"/>
-      <c r="N61" s="76"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="200"/>
+      <c r="L61" s="201"/>
+      <c r="M61" s="201"/>
+      <c r="N61" s="202"/>
       <c r="O61" s="76"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="77"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="64"/>
+      <c r="P61" s="76"/>
+      <c r="Q61" s="78"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="90"/>
       <c r="T61" s="64"/>
-    </row>
-    <row r="62" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U61" s="64"/>
+    </row>
+    <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A62" s="33">
         <v>58</v>
       </c>
@@ -11552,23 +11650,24 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="63"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="86"/>
       <c r="H62" s="63"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="197"/>
-      <c r="K62" s="198"/>
-      <c r="L62" s="198"/>
-      <c r="M62" s="199"/>
-      <c r="N62" s="86"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="200"/>
+      <c r="L62" s="201"/>
+      <c r="M62" s="201"/>
+      <c r="N62" s="202"/>
       <c r="O62" s="86"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="77"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="64"/>
+      <c r="P62" s="86"/>
+      <c r="Q62" s="78"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="90"/>
       <c r="T62" s="64"/>
-    </row>
-    <row r="63" spans="1:20" s="34" customFormat="1" ht="11.25">
+      <c r="U62" s="64"/>
+    </row>
+    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A63" s="33">
         <v>59</v>
       </c>
@@ -11576,23 +11675,24 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="63"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="86"/>
       <c r="H63" s="63"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="197"/>
-      <c r="K63" s="198"/>
-      <c r="L63" s="198"/>
-      <c r="M63" s="199"/>
-      <c r="N63" s="86"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="200"/>
+      <c r="L63" s="201"/>
+      <c r="M63" s="201"/>
+      <c r="N63" s="202"/>
       <c r="O63" s="86"/>
-      <c r="P63" s="78"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="64"/>
+      <c r="P63" s="86"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="90"/>
       <c r="T63" s="64"/>
-    </row>
-    <row r="64" spans="1:20" ht="24.75" customHeight="1">
+      <c r="U63" s="64"/>
+    </row>
+    <row r="64" spans="1:21" ht="24.75" customHeight="1">
       <c r="A64" s="33">
         <v>60</v>
       </c>
@@ -11600,21 +11700,22 @@
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="63"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="86"/>
       <c r="H64" s="63"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="197"/>
-      <c r="K64" s="198"/>
-      <c r="L64" s="198"/>
-      <c r="M64" s="199"/>
-      <c r="N64" s="86"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="200"/>
+      <c r="L64" s="201"/>
+      <c r="M64" s="201"/>
+      <c r="N64" s="202"/>
       <c r="O64" s="86"/>
-      <c r="P64" s="78"/>
-      <c r="Q64" s="77"/>
-      <c r="R64" s="90"/>
-    </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1">
+      <c r="P64" s="86"/>
+      <c r="Q64" s="78"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="90"/>
+    </row>
+    <row r="65" spans="1:19" ht="12" customHeight="1">
       <c r="A65" s="33">
         <v>61</v>
       </c>
@@ -11622,21 +11723,22 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="86"/>
       <c r="H65" s="63"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="197"/>
-      <c r="K65" s="198"/>
-      <c r="L65" s="198"/>
-      <c r="M65" s="199"/>
-      <c r="N65" s="86"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="200"/>
+      <c r="L65" s="201"/>
+      <c r="M65" s="201"/>
+      <c r="N65" s="202"/>
       <c r="O65" s="86"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="90"/>
-    </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1">
+      <c r="P65" s="86"/>
+      <c r="Q65" s="78"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="90"/>
+    </row>
+    <row r="66" spans="1:19" ht="12" customHeight="1">
       <c r="A66" s="33">
         <v>62</v>
       </c>
@@ -11644,21 +11746,22 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="63"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="86"/>
       <c r="H66" s="63"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="198"/>
-      <c r="L66" s="198"/>
-      <c r="M66" s="199"/>
-      <c r="N66" s="86"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="200"/>
+      <c r="L66" s="201"/>
+      <c r="M66" s="201"/>
+      <c r="N66" s="202"/>
       <c r="O66" s="86"/>
-      <c r="P66" s="78"/>
-      <c r="Q66" s="77"/>
-      <c r="R66" s="90"/>
-    </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1">
+      <c r="P66" s="86"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="90"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1">
       <c r="A67" s="33">
         <v>63</v>
       </c>
@@ -11666,21 +11769,22 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="86"/>
       <c r="H67" s="63"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="197"/>
-      <c r="K67" s="198"/>
-      <c r="L67" s="198"/>
-      <c r="M67" s="199"/>
-      <c r="N67" s="86"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="200"/>
+      <c r="L67" s="201"/>
+      <c r="M67" s="201"/>
+      <c r="N67" s="202"/>
       <c r="O67" s="86"/>
-      <c r="P67" s="78"/>
-      <c r="Q67" s="77"/>
-      <c r="R67" s="90"/>
-    </row>
-    <row r="68" spans="1:18" ht="12" customHeight="1">
+      <c r="P67" s="86"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="90"/>
+    </row>
+    <row r="68" spans="1:19" ht="12" customHeight="1">
       <c r="A68" s="33">
         <v>64</v>
       </c>
@@ -11688,21 +11792,22 @@
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="63"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="86"/>
       <c r="H68" s="63"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="197"/>
-      <c r="K68" s="198"/>
-      <c r="L68" s="198"/>
-      <c r="M68" s="199"/>
-      <c r="N68" s="86"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="200"/>
+      <c r="L68" s="201"/>
+      <c r="M68" s="201"/>
+      <c r="N68" s="202"/>
       <c r="O68" s="86"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="77"/>
-      <c r="R68" s="90"/>
-    </row>
-    <row r="69" spans="1:18" ht="12" customHeight="1">
+      <c r="P68" s="86"/>
+      <c r="Q68" s="78"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="90"/>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1">
       <c r="A69" s="33">
         <v>65</v>
       </c>
@@ -11710,21 +11815,22 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="86"/>
-      <c r="G69" s="63"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="86"/>
       <c r="H69" s="63"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="197"/>
-      <c r="K69" s="198"/>
-      <c r="L69" s="198"/>
-      <c r="M69" s="199"/>
-      <c r="N69" s="86"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="200"/>
+      <c r="L69" s="201"/>
+      <c r="M69" s="201"/>
+      <c r="N69" s="202"/>
       <c r="O69" s="86"/>
-      <c r="P69" s="78"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="90"/>
-    </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1">
+      <c r="P69" s="86"/>
+      <c r="Q69" s="78"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="90"/>
+    </row>
+    <row r="70" spans="1:19" ht="12" customHeight="1">
       <c r="A70" s="33">
         <v>66</v>
       </c>
@@ -11732,21 +11838,22 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="86"/>
       <c r="H70" s="63"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="197"/>
-      <c r="K70" s="198"/>
-      <c r="L70" s="198"/>
-      <c r="M70" s="199"/>
-      <c r="N70" s="86"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="200"/>
+      <c r="L70" s="201"/>
+      <c r="M70" s="201"/>
+      <c r="N70" s="202"/>
       <c r="O70" s="86"/>
-      <c r="P70" s="78"/>
-      <c r="Q70" s="77"/>
-      <c r="R70" s="90"/>
-    </row>
-    <row r="71" spans="1:18" ht="12" customHeight="1">
+      <c r="P70" s="86"/>
+      <c r="Q70" s="78"/>
+      <c r="R70" s="77"/>
+      <c r="S70" s="90"/>
+    </row>
+    <row r="71" spans="1:19" ht="12" customHeight="1">
       <c r="A71" s="33">
         <v>67</v>
       </c>
@@ -11754,21 +11861,22 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="63"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="86"/>
       <c r="H71" s="63"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="197"/>
-      <c r="K71" s="198"/>
-      <c r="L71" s="198"/>
-      <c r="M71" s="199"/>
-      <c r="N71" s="86"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="200"/>
+      <c r="L71" s="201"/>
+      <c r="M71" s="201"/>
+      <c r="N71" s="202"/>
       <c r="O71" s="86"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="77"/>
-      <c r="R71" s="90"/>
-    </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1">
+      <c r="P71" s="86"/>
+      <c r="Q71" s="78"/>
+      <c r="R71" s="77"/>
+      <c r="S71" s="90"/>
+    </row>
+    <row r="72" spans="1:19" ht="12" customHeight="1">
       <c r="A72" s="33">
         <v>68</v>
       </c>
@@ -11776,21 +11884,22 @@
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
-      <c r="F72" s="86"/>
-      <c r="G72" s="63"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="86"/>
       <c r="H72" s="63"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="197"/>
-      <c r="K72" s="198"/>
-      <c r="L72" s="198"/>
-      <c r="M72" s="199"/>
-      <c r="N72" s="86"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="40"/>
+      <c r="K72" s="200"/>
+      <c r="L72" s="201"/>
+      <c r="M72" s="201"/>
+      <c r="N72" s="202"/>
       <c r="O72" s="86"/>
-      <c r="P72" s="78"/>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="90"/>
-    </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1">
+      <c r="P72" s="86"/>
+      <c r="Q72" s="78"/>
+      <c r="R72" s="77"/>
+      <c r="S72" s="90"/>
+    </row>
+    <row r="73" spans="1:19" ht="12" customHeight="1">
       <c r="A73" s="33">
         <v>69</v>
       </c>
@@ -11798,21 +11907,22 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="86"/>
       <c r="H73" s="63"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="197"/>
-      <c r="K73" s="198"/>
-      <c r="L73" s="198"/>
-      <c r="M73" s="199"/>
-      <c r="N73" s="86"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="200"/>
+      <c r="L73" s="201"/>
+      <c r="M73" s="201"/>
+      <c r="N73" s="202"/>
       <c r="O73" s="86"/>
-      <c r="P73" s="78"/>
-      <c r="Q73" s="77"/>
-      <c r="R73" s="90"/>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1">
+      <c r="P73" s="86"/>
+      <c r="Q73" s="78"/>
+      <c r="R73" s="77"/>
+      <c r="S73" s="90"/>
+    </row>
+    <row r="74" spans="1:19" ht="12" customHeight="1">
       <c r="A74" s="33">
         <v>70</v>
       </c>
@@ -11820,21 +11930,22 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="63"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="86"/>
       <c r="H74" s="63"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="197"/>
-      <c r="K74" s="198"/>
-      <c r="L74" s="198"/>
-      <c r="M74" s="199"/>
-      <c r="N74" s="86"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="200"/>
+      <c r="L74" s="201"/>
+      <c r="M74" s="201"/>
+      <c r="N74" s="202"/>
       <c r="O74" s="86"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="77"/>
-      <c r="R74" s="90"/>
-    </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1">
+      <c r="P74" s="86"/>
+      <c r="Q74" s="78"/>
+      <c r="R74" s="77"/>
+      <c r="S74" s="90"/>
+    </row>
+    <row r="75" spans="1:19" ht="12" customHeight="1">
       <c r="A75" s="33">
         <v>71</v>
       </c>
@@ -11842,21 +11953,22 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
-      <c r="F75" s="86"/>
-      <c r="G75" s="63"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="86"/>
       <c r="H75" s="63"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="197"/>
-      <c r="K75" s="198"/>
-      <c r="L75" s="198"/>
-      <c r="M75" s="199"/>
-      <c r="N75" s="86"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="200"/>
+      <c r="L75" s="201"/>
+      <c r="M75" s="201"/>
+      <c r="N75" s="202"/>
       <c r="O75" s="86"/>
-      <c r="P75" s="78"/>
-      <c r="Q75" s="77"/>
-      <c r="R75" s="90"/>
-    </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1">
+      <c r="P75" s="86"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="77"/>
+      <c r="S75" s="90"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1">
       <c r="A76" s="33">
         <v>72</v>
       </c>
@@ -11864,21 +11976,22 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="63"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="86"/>
       <c r="H76" s="63"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="197"/>
-      <c r="K76" s="198"/>
-      <c r="L76" s="198"/>
-      <c r="M76" s="199"/>
-      <c r="N76" s="86"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="200"/>
+      <c r="L76" s="201"/>
+      <c r="M76" s="201"/>
+      <c r="N76" s="202"/>
       <c r="O76" s="86"/>
-      <c r="P76" s="78"/>
-      <c r="Q76" s="77"/>
-      <c r="R76" s="90"/>
-    </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1">
+      <c r="P76" s="86"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="77"/>
+      <c r="S76" s="90"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1">
       <c r="A77" s="33">
         <v>73</v>
       </c>
@@ -11886,21 +11999,22 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="63"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="86"/>
       <c r="H77" s="63"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="197"/>
-      <c r="K77" s="198"/>
-      <c r="L77" s="198"/>
-      <c r="M77" s="199"/>
-      <c r="N77" s="86"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="200"/>
+      <c r="L77" s="201"/>
+      <c r="M77" s="201"/>
+      <c r="N77" s="202"/>
       <c r="O77" s="86"/>
-      <c r="P77" s="78"/>
-      <c r="Q77" s="77"/>
-      <c r="R77" s="90"/>
-    </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1">
+      <c r="P77" s="86"/>
+      <c r="Q77" s="78"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="90"/>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1">
       <c r="A78" s="33">
         <v>74</v>
       </c>
@@ -11908,21 +12022,22 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="63"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="86"/>
       <c r="H78" s="63"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="197"/>
-      <c r="K78" s="198"/>
-      <c r="L78" s="198"/>
-      <c r="M78" s="199"/>
-      <c r="N78" s="86"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="200"/>
+      <c r="L78" s="201"/>
+      <c r="M78" s="201"/>
+      <c r="N78" s="202"/>
       <c r="O78" s="86"/>
-      <c r="P78" s="78"/>
-      <c r="Q78" s="77"/>
-      <c r="R78" s="90"/>
-    </row>
-    <row r="79" spans="1:18" ht="12" customHeight="1">
+      <c r="P78" s="86"/>
+      <c r="Q78" s="78"/>
+      <c r="R78" s="77"/>
+      <c r="S78" s="90"/>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1">
       <c r="A79" s="33">
         <v>75</v>
       </c>
@@ -11930,21 +12045,22 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
-      <c r="F79" s="86"/>
-      <c r="G79" s="63"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="86"/>
       <c r="H79" s="63"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="197"/>
-      <c r="K79" s="198"/>
-      <c r="L79" s="198"/>
-      <c r="M79" s="199"/>
-      <c r="N79" s="86"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="200"/>
+      <c r="L79" s="201"/>
+      <c r="M79" s="201"/>
+      <c r="N79" s="202"/>
       <c r="O79" s="86"/>
-      <c r="P79" s="78"/>
-      <c r="Q79" s="77"/>
-      <c r="R79" s="90"/>
-    </row>
-    <row r="80" spans="1:18" ht="12" customHeight="1">
+      <c r="P79" s="86"/>
+      <c r="Q79" s="78"/>
+      <c r="R79" s="77"/>
+      <c r="S79" s="90"/>
+    </row>
+    <row r="80" spans="1:19" ht="12" customHeight="1">
       <c r="A80" s="33">
         <v>76</v>
       </c>
@@ -11952,21 +12068,22 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="63"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="86"/>
       <c r="H80" s="63"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="197"/>
-      <c r="K80" s="198"/>
-      <c r="L80" s="198"/>
-      <c r="M80" s="199"/>
-      <c r="N80" s="86"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="200"/>
+      <c r="L80" s="201"/>
+      <c r="M80" s="201"/>
+      <c r="N80" s="202"/>
       <c r="O80" s="86"/>
-      <c r="P80" s="78"/>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="90"/>
-    </row>
-    <row r="81" spans="1:18" ht="12" customHeight="1">
+      <c r="P80" s="86"/>
+      <c r="Q80" s="78"/>
+      <c r="R80" s="77"/>
+      <c r="S80" s="90"/>
+    </row>
+    <row r="81" spans="1:19" ht="12" customHeight="1">
       <c r="A81" s="33">
         <v>77</v>
       </c>
@@ -11974,21 +12091,22 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
-      <c r="F81" s="86"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="86"/>
       <c r="H81" s="63"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="197"/>
-      <c r="K81" s="198"/>
-      <c r="L81" s="198"/>
-      <c r="M81" s="199"/>
-      <c r="N81" s="86"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="200"/>
+      <c r="L81" s="201"/>
+      <c r="M81" s="201"/>
+      <c r="N81" s="202"/>
       <c r="O81" s="86"/>
-      <c r="P81" s="78"/>
-      <c r="Q81" s="77"/>
-      <c r="R81" s="90"/>
-    </row>
-    <row r="82" spans="1:18" ht="12" customHeight="1">
+      <c r="P81" s="86"/>
+      <c r="Q81" s="78"/>
+      <c r="R81" s="77"/>
+      <c r="S81" s="90"/>
+    </row>
+    <row r="82" spans="1:19" ht="12" customHeight="1">
       <c r="A82" s="33">
         <v>78</v>
       </c>
@@ -11996,21 +12114,22 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="86"/>
       <c r="H82" s="63"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="197"/>
-      <c r="K82" s="198"/>
-      <c r="L82" s="198"/>
-      <c r="M82" s="199"/>
-      <c r="N82" s="86"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="200"/>
+      <c r="L82" s="201"/>
+      <c r="M82" s="201"/>
+      <c r="N82" s="202"/>
       <c r="O82" s="86"/>
-      <c r="P82" s="78"/>
-      <c r="Q82" s="77"/>
-      <c r="R82" s="90"/>
-    </row>
-    <row r="83" spans="1:18" ht="12" customHeight="1">
+      <c r="P82" s="86"/>
+      <c r="Q82" s="78"/>
+      <c r="R82" s="77"/>
+      <c r="S82" s="90"/>
+    </row>
+    <row r="83" spans="1:19" ht="12" customHeight="1">
       <c r="A83" s="33">
         <v>79</v>
       </c>
@@ -12018,21 +12137,22 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="86"/>
       <c r="H83" s="63"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="197"/>
-      <c r="K83" s="198"/>
-      <c r="L83" s="198"/>
-      <c r="M83" s="199"/>
-      <c r="N83" s="86"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="200"/>
+      <c r="L83" s="201"/>
+      <c r="M83" s="201"/>
+      <c r="N83" s="202"/>
       <c r="O83" s="86"/>
-      <c r="P83" s="78"/>
-      <c r="Q83" s="77"/>
-      <c r="R83" s="90"/>
-    </row>
-    <row r="84" spans="1:18" ht="12" customHeight="1">
+      <c r="P83" s="86"/>
+      <c r="Q83" s="78"/>
+      <c r="R83" s="77"/>
+      <c r="S83" s="90"/>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1">
       <c r="A84" s="33">
         <v>80</v>
       </c>
@@ -12040,21 +12160,22 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="63"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="86"/>
       <c r="H84" s="63"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="197"/>
-      <c r="K84" s="198"/>
-      <c r="L84" s="198"/>
-      <c r="M84" s="199"/>
-      <c r="N84" s="86"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="200"/>
+      <c r="L84" s="201"/>
+      <c r="M84" s="201"/>
+      <c r="N84" s="202"/>
       <c r="O84" s="86"/>
-      <c r="P84" s="78"/>
-      <c r="Q84" s="77"/>
-      <c r="R84" s="90"/>
-    </row>
-    <row r="85" spans="1:18" ht="12" customHeight="1">
+      <c r="P84" s="86"/>
+      <c r="Q84" s="78"/>
+      <c r="R84" s="77"/>
+      <c r="S84" s="90"/>
+    </row>
+    <row r="85" spans="1:19" ht="12" customHeight="1">
       <c r="A85" s="33">
         <v>81</v>
       </c>
@@ -12062,21 +12183,22 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="63"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="86"/>
       <c r="H85" s="63"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="197"/>
-      <c r="K85" s="198"/>
-      <c r="L85" s="198"/>
-      <c r="M85" s="199"/>
-      <c r="N85" s="86"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="200"/>
+      <c r="L85" s="201"/>
+      <c r="M85" s="201"/>
+      <c r="N85" s="202"/>
       <c r="O85" s="86"/>
-      <c r="P85" s="78"/>
-      <c r="Q85" s="77"/>
-      <c r="R85" s="90"/>
-    </row>
-    <row r="86" spans="1:18" ht="12" customHeight="1">
+      <c r="P85" s="86"/>
+      <c r="Q85" s="78"/>
+      <c r="R85" s="77"/>
+      <c r="S85" s="90"/>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1">
       <c r="A86" s="33">
         <v>82</v>
       </c>
@@ -12084,21 +12206,22 @@
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="63"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="86"/>
       <c r="H86" s="63"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="197"/>
-      <c r="K86" s="198"/>
-      <c r="L86" s="198"/>
-      <c r="M86" s="199"/>
-      <c r="N86" s="86"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="200"/>
+      <c r="L86" s="201"/>
+      <c r="M86" s="201"/>
+      <c r="N86" s="202"/>
       <c r="O86" s="86"/>
-      <c r="P86" s="78"/>
-      <c r="Q86" s="77"/>
-      <c r="R86" s="90"/>
-    </row>
-    <row r="87" spans="1:18" ht="12" customHeight="1">
+      <c r="P86" s="86"/>
+      <c r="Q86" s="78"/>
+      <c r="R86" s="77"/>
+      <c r="S86" s="90"/>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1">
       <c r="A87" s="33">
         <v>83</v>
       </c>
@@ -12106,21 +12229,22 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
-      <c r="F87" s="86"/>
-      <c r="G87" s="63"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="86"/>
       <c r="H87" s="63"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="197"/>
-      <c r="K87" s="198"/>
-      <c r="L87" s="198"/>
-      <c r="M87" s="199"/>
-      <c r="N87" s="86"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="200"/>
+      <c r="L87" s="201"/>
+      <c r="M87" s="201"/>
+      <c r="N87" s="202"/>
       <c r="O87" s="86"/>
-      <c r="P87" s="78"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="90"/>
-    </row>
-    <row r="88" spans="1:18" ht="12" customHeight="1">
+      <c r="P87" s="86"/>
+      <c r="Q87" s="78"/>
+      <c r="R87" s="77"/>
+      <c r="S87" s="90"/>
+    </row>
+    <row r="88" spans="1:19" ht="12" customHeight="1">
       <c r="A88" s="33">
         <v>84</v>
       </c>
@@ -12128,21 +12252,22 @@
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="63"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="86"/>
       <c r="H88" s="63"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="197"/>
-      <c r="K88" s="198"/>
-      <c r="L88" s="198"/>
-      <c r="M88" s="199"/>
-      <c r="N88" s="86"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="200"/>
+      <c r="L88" s="201"/>
+      <c r="M88" s="201"/>
+      <c r="N88" s="202"/>
       <c r="O88" s="86"/>
-      <c r="P88" s="78"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="90"/>
-    </row>
-    <row r="89" spans="1:18" ht="12" customHeight="1">
+      <c r="P88" s="86"/>
+      <c r="Q88" s="78"/>
+      <c r="R88" s="77"/>
+      <c r="S88" s="90"/>
+    </row>
+    <row r="89" spans="1:19" ht="12" customHeight="1">
       <c r="A89" s="33">
         <v>85</v>
       </c>
@@ -12150,21 +12275,22 @@
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
-      <c r="F89" s="86"/>
-      <c r="G89" s="63"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="86"/>
       <c r="H89" s="63"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="197"/>
-      <c r="K89" s="198"/>
-      <c r="L89" s="198"/>
-      <c r="M89" s="199"/>
-      <c r="N89" s="86"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="200"/>
+      <c r="L89" s="201"/>
+      <c r="M89" s="201"/>
+      <c r="N89" s="202"/>
       <c r="O89" s="86"/>
-      <c r="P89" s="78"/>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="90"/>
-    </row>
-    <row r="90" spans="1:18" ht="12" customHeight="1">
+      <c r="P89" s="86"/>
+      <c r="Q89" s="78"/>
+      <c r="R89" s="77"/>
+      <c r="S89" s="90"/>
+    </row>
+    <row r="90" spans="1:19" ht="12" customHeight="1">
       <c r="A90" s="33">
         <v>86</v>
       </c>
@@ -12172,21 +12298,22 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="63"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="86"/>
       <c r="H90" s="63"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="197"/>
-      <c r="K90" s="198"/>
-      <c r="L90" s="198"/>
-      <c r="M90" s="199"/>
-      <c r="N90" s="86"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="200"/>
+      <c r="L90" s="201"/>
+      <c r="M90" s="201"/>
+      <c r="N90" s="202"/>
       <c r="O90" s="86"/>
-      <c r="P90" s="78"/>
-      <c r="Q90" s="77"/>
-      <c r="R90" s="90"/>
-    </row>
-    <row r="91" spans="1:18" ht="12" customHeight="1">
+      <c r="P90" s="86"/>
+      <c r="Q90" s="78"/>
+      <c r="R90" s="77"/>
+      <c r="S90" s="90"/>
+    </row>
+    <row r="91" spans="1:19" ht="12" customHeight="1">
       <c r="A91" s="33">
         <v>87</v>
       </c>
@@ -12194,21 +12321,22 @@
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="86"/>
       <c r="H91" s="63"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="197"/>
-      <c r="K91" s="198"/>
-      <c r="L91" s="198"/>
-      <c r="M91" s="199"/>
-      <c r="N91" s="86"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="200"/>
+      <c r="L91" s="201"/>
+      <c r="M91" s="201"/>
+      <c r="N91" s="202"/>
       <c r="O91" s="86"/>
-      <c r="P91" s="78"/>
-      <c r="Q91" s="77"/>
-      <c r="R91" s="90"/>
-    </row>
-    <row r="92" spans="1:18" ht="12" customHeight="1">
+      <c r="P91" s="86"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="77"/>
+      <c r="S91" s="90"/>
+    </row>
+    <row r="92" spans="1:19" ht="12" customHeight="1">
       <c r="A92" s="33">
         <v>88</v>
       </c>
@@ -12216,21 +12344,22 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
-      <c r="F92" s="86"/>
-      <c r="G92" s="63"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="86"/>
       <c r="H92" s="63"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="197"/>
-      <c r="K92" s="198"/>
-      <c r="L92" s="198"/>
-      <c r="M92" s="199"/>
-      <c r="N92" s="86"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="200"/>
+      <c r="L92" s="201"/>
+      <c r="M92" s="201"/>
+      <c r="N92" s="202"/>
       <c r="O92" s="86"/>
-      <c r="P92" s="78"/>
-      <c r="Q92" s="77"/>
-      <c r="R92" s="90"/>
-    </row>
-    <row r="93" spans="1:18" ht="12" customHeight="1">
+      <c r="P92" s="86"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="77"/>
+      <c r="S92" s="90"/>
+    </row>
+    <row r="93" spans="1:19" ht="12" customHeight="1">
       <c r="A93" s="33">
         <v>89</v>
       </c>
@@ -12238,21 +12367,22 @@
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
-      <c r="F93" s="86"/>
-      <c r="G93" s="63"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="86"/>
       <c r="H93" s="63"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="197"/>
-      <c r="K93" s="198"/>
-      <c r="L93" s="198"/>
-      <c r="M93" s="199"/>
-      <c r="N93" s="86"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="200"/>
+      <c r="L93" s="201"/>
+      <c r="M93" s="201"/>
+      <c r="N93" s="202"/>
       <c r="O93" s="86"/>
-      <c r="P93" s="78"/>
-      <c r="Q93" s="77"/>
-      <c r="R93" s="90"/>
-    </row>
-    <row r="94" spans="1:18" ht="12" customHeight="1">
+      <c r="P93" s="86"/>
+      <c r="Q93" s="78"/>
+      <c r="R93" s="77"/>
+      <c r="S93" s="90"/>
+    </row>
+    <row r="94" spans="1:19" ht="12" customHeight="1">
       <c r="A94" s="33">
         <v>90</v>
       </c>
@@ -12260,130 +12390,131 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="63"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="63"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="197"/>
-      <c r="K94" s="198"/>
-      <c r="L94" s="198"/>
-      <c r="M94" s="199"/>
-      <c r="N94" s="86"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="200"/>
+      <c r="L94" s="201"/>
+      <c r="M94" s="201"/>
+      <c r="N94" s="202"/>
       <c r="O94" s="86"/>
-      <c r="P94" s="78"/>
-      <c r="Q94" s="77"/>
-      <c r="R94" s="90"/>
-    </row>
-    <row r="1048467" spans="16:16" ht="12" customHeight="1">
-      <c r="P1048467" s="78"/>
+      <c r="P94" s="86"/>
+      <c r="Q94" s="78"/>
+      <c r="R94" s="77"/>
+      <c r="S94" s="90"/>
+    </row>
+    <row r="1048467" spans="17:17" ht="12" customHeight="1">
+      <c r="Q1048467" s="78"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12402,8 +12533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12419,10 +12550,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12452,8 +12583,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12672,7 +12803,9 @@
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="C20" s="43" t="s">
+        <v>204</v>
+      </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
@@ -12742,18 +12875,18 @@
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" s="215" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A26" s="212"/>
-      <c r="B26" s="213" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="214"/>
+    <row r="26" spans="1:10" s="137" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A26" s="136"/>
+      <c r="B26" s="211" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
       <c r="J26" s="133"/>
     </row>
     <row r="27" spans="1:10" ht="29.25" customHeight="1">
@@ -12761,13 +12894,13 @@
       <c r="B27" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="201" t="s">
+      <c r="C27" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="210"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="210"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="46"/>
@@ -12775,15 +12908,15 @@
     <row r="28" spans="1:10" ht="26.25" customHeight="1">
       <c r="A28" s="42"/>
       <c r="B28" s="134" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="201" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="210"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="210"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="46"/>
@@ -12791,15 +12924,15 @@
     <row r="29" spans="1:10" ht="24" customHeight="1">
       <c r="A29" s="42"/>
       <c r="B29" s="134" t="s">
-        <v>200</v>
-      </c>
-      <c r="C29" s="201" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="210" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="46"/>
@@ -12807,15 +12940,15 @@
     <row r="30" spans="1:10" ht="25.5" customHeight="1">
       <c r="A30" s="42"/>
       <c r="B30" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="201" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="D30" s="201"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="201"/>
-      <c r="G30" s="201"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="46"/>
@@ -13580,10 +13713,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="167"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13611,8 +13744,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="163"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="167"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao bieu do/CRMF3000_Bao cao bieu do.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Bao cao bieu do/CRMF3000_Bao cao bieu do.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Bao cao bieu do\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVN90\10_DOCUMENT\13_DETAIL_DESIGN\2.PROJECTS\05.HOANGTRAN\20160215_Danh sach bao cao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="Coverpage" sheetId="20" r:id="rId1"/>
@@ -2010,10 +2010,6 @@
 </t>
   </si>
   <si>
-    <t>Login -&gt; Module ASOFT - CRM
--&gt; Menu[Báo cáo] -&gt; MenuItem [Báo cáo Biểu đồ_CRMF3000]</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -2033,9 +2029,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>MenuItem</t>
   </si>
   <si>
     <t>DataGrid</t>
@@ -2123,6 +2116,13 @@
   </si>
   <si>
     <t>Thực thi @SQL0002 để load from báo cáo</t>
+  </si>
+  <si>
+    <t>Login -&gt; Module ASOFT - CRM
+-&gt; Menu[Báo cáo] -&gt; Pasge[Báo cáo Biểu đồ_CRMF3000]</t>
+  </si>
+  <si>
+    <t>Page</t>
   </si>
 </sst>
 </file>
@@ -2648,7 +2648,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,153 +2972,147 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3159,6 +3153,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3170,15 +3173,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3188,6 +3182,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3197,18 +3194,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3229,6 +3214,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3698,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GM31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:R17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
@@ -4155,65 +4164,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1">
-      <c r="A1" s="149"/>
-      <c r="B1" s="149"/>
-      <c r="C1" s="151" t="s">
+      <c r="A1" s="141"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="150" t="s">
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150" t="s">
+      <c r="H1" s="142"/>
+      <c r="I1" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="150"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:18" ht="23.25" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="150" t="s">
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="146" t="s">
+      <c r="A3" s="141"/>
+      <c r="B3" s="141"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="138" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="147"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="139"/>
     </row>
     <row r="4" spans="1:18">
       <c r="H4" s="120"/>
     </row>
     <row r="13" spans="1:18" ht="30">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
       <c r="K13" s="121"/>
       <c r="L13" s="121"/>
       <c r="M13" s="121"/>
@@ -4224,56 +4233,56 @@
       <c r="R13" s="121"/>
     </row>
     <row r="14" spans="1:18" ht="26.25">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
     </row>
     <row r="15" spans="1:18" ht="26.25">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" ht="26.25">
-      <c r="A16" s="145" t="s">
+      <c r="A16" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
       <c r="K16" s="122"/>
       <c r="L16" s="122"/>
       <c r="M16" s="122"/>
@@ -4284,384 +4293,384 @@
       <c r="R16" s="122"/>
     </row>
     <row r="17" spans="1:195" ht="14.1" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="142"/>
-      <c r="O17" s="142"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="142"/>
-      <c r="R17" s="142"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:195" ht="26.25">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="136"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="136"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:195" ht="23.25">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="144"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="144"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
+      <c r="Q19" s="153"/>
+      <c r="R19" s="153"/>
     </row>
     <row r="20" spans="1:195" ht="26.25">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="142"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:195" ht="26.25">
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="142"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="142"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:195" ht="25.5">
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="152"/>
+      <c r="P22" s="152"/>
+      <c r="Q22" s="152"/>
+      <c r="R22" s="152"/>
     </row>
     <row r="23" spans="1:195" ht="25.5">
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="152"/>
+      <c r="O23" s="152"/>
+      <c r="P23" s="152"/>
+      <c r="Q23" s="152"/>
+      <c r="R23" s="152"/>
     </row>
     <row r="25" spans="1:195" ht="11.25" customHeight="1"/>
     <row r="26" spans="1:195" ht="18">
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
     </row>
     <row r="28" spans="1:195" ht="18">
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="139"/>
-      <c r="U28" s="139"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="139"/>
-      <c r="AM28" s="139"/>
-      <c r="AN28" s="139"/>
-      <c r="AO28" s="139"/>
-      <c r="AP28" s="139"/>
-      <c r="AQ28" s="139"/>
-      <c r="AR28" s="139"/>
-      <c r="AS28" s="139"/>
-      <c r="AT28" s="139"/>
-      <c r="AU28" s="139"/>
-      <c r="AV28" s="139"/>
-      <c r="AW28" s="139"/>
-      <c r="AX28" s="139"/>
-      <c r="AY28" s="139"/>
-      <c r="AZ28" s="139"/>
-      <c r="BA28" s="139"/>
-      <c r="BB28" s="139"/>
-      <c r="BC28" s="139"/>
-      <c r="BD28" s="139"/>
-      <c r="BE28" s="139"/>
-      <c r="BF28" s="139"/>
-      <c r="BG28" s="139"/>
-      <c r="BH28" s="139"/>
-      <c r="BI28" s="139"/>
-      <c r="BJ28" s="139"/>
-      <c r="BK28" s="139"/>
-      <c r="BL28" s="139"/>
-      <c r="BM28" s="139"/>
-      <c r="BN28" s="139"/>
-      <c r="BO28" s="139"/>
-      <c r="BP28" s="139"/>
-      <c r="BQ28" s="139"/>
-      <c r="BR28" s="139"/>
-      <c r="BS28" s="139"/>
-      <c r="BT28" s="139"/>
-      <c r="BU28" s="139"/>
-      <c r="BV28" s="139"/>
-      <c r="BW28" s="139"/>
-      <c r="BX28" s="139"/>
-      <c r="BY28" s="139"/>
-      <c r="BZ28" s="139"/>
-      <c r="CA28" s="139"/>
-      <c r="CB28" s="139"/>
-      <c r="CC28" s="139"/>
-      <c r="CD28" s="139"/>
-      <c r="CE28" s="139"/>
-      <c r="CF28" s="139"/>
-      <c r="CG28" s="139"/>
-      <c r="CH28" s="139"/>
-      <c r="CI28" s="139"/>
-      <c r="CJ28" s="139"/>
-      <c r="CK28" s="139"/>
-      <c r="CL28" s="139"/>
-      <c r="CM28" s="139"/>
-      <c r="CN28" s="139"/>
-      <c r="CO28" s="139"/>
-      <c r="CP28" s="139"/>
-      <c r="CQ28" s="139"/>
-      <c r="CR28" s="139"/>
-      <c r="CS28" s="139"/>
-      <c r="CT28" s="139"/>
-      <c r="CU28" s="139"/>
-      <c r="CV28" s="139"/>
-      <c r="CW28" s="139"/>
-      <c r="CX28" s="139"/>
-      <c r="CY28" s="139"/>
-      <c r="CZ28" s="139"/>
-      <c r="DA28" s="139"/>
-      <c r="DB28" s="139"/>
-      <c r="DC28" s="139"/>
-      <c r="DD28" s="139"/>
-      <c r="DE28" s="139"/>
-      <c r="DF28" s="139"/>
-      <c r="DG28" s="139"/>
-      <c r="DH28" s="139"/>
-      <c r="DI28" s="139"/>
-      <c r="DJ28" s="139"/>
-      <c r="DK28" s="139"/>
-      <c r="DL28" s="139"/>
-      <c r="DM28" s="139"/>
-      <c r="DN28" s="139"/>
-      <c r="DO28" s="139"/>
-      <c r="DP28" s="139"/>
-      <c r="DQ28" s="139"/>
-      <c r="DR28" s="139"/>
-      <c r="DS28" s="139"/>
-      <c r="DT28" s="139"/>
-      <c r="DU28" s="139"/>
-      <c r="DV28" s="139"/>
-      <c r="DW28" s="139"/>
-      <c r="DX28" s="139"/>
-      <c r="DY28" s="139"/>
-      <c r="DZ28" s="139"/>
-      <c r="EA28" s="139"/>
-      <c r="EB28" s="139"/>
-      <c r="EC28" s="139"/>
-      <c r="ED28" s="139"/>
-      <c r="EE28" s="139"/>
-      <c r="EF28" s="139"/>
-      <c r="EG28" s="139"/>
-      <c r="EH28" s="139"/>
-      <c r="EI28" s="139"/>
-      <c r="EJ28" s="139"/>
-      <c r="EK28" s="139"/>
-      <c r="EL28" s="139"/>
-      <c r="EM28" s="139"/>
-      <c r="EN28" s="139"/>
-      <c r="EO28" s="139"/>
-      <c r="EP28" s="139"/>
-      <c r="EQ28" s="139"/>
-      <c r="ER28" s="139"/>
-      <c r="ES28" s="139"/>
-      <c r="ET28" s="139"/>
-      <c r="EU28" s="139"/>
-      <c r="EV28" s="139"/>
-      <c r="EW28" s="139"/>
-      <c r="EX28" s="139"/>
-      <c r="EY28" s="139"/>
-      <c r="EZ28" s="139"/>
-      <c r="FA28" s="139"/>
-      <c r="FB28" s="139"/>
-      <c r="FC28" s="139"/>
-      <c r="FD28" s="139"/>
-      <c r="FE28" s="139"/>
-      <c r="FF28" s="139"/>
-      <c r="FG28" s="139"/>
-      <c r="FH28" s="139"/>
-      <c r="FI28" s="139"/>
-      <c r="FJ28" s="139"/>
-      <c r="FK28" s="139"/>
-      <c r="FL28" s="139"/>
-      <c r="FM28" s="139"/>
-      <c r="FN28" s="139"/>
-      <c r="FO28" s="139"/>
-      <c r="FP28" s="139"/>
-      <c r="FQ28" s="139"/>
-      <c r="FR28" s="139"/>
-      <c r="FS28" s="139"/>
-      <c r="FT28" s="139"/>
-      <c r="FU28" s="139"/>
-      <c r="FV28" s="139"/>
-      <c r="FW28" s="139"/>
-      <c r="FX28" s="139"/>
-      <c r="FY28" s="139"/>
-      <c r="FZ28" s="139"/>
-      <c r="GA28" s="139"/>
-      <c r="GB28" s="139"/>
-      <c r="GC28" s="139"/>
-      <c r="GD28" s="139"/>
-      <c r="GE28" s="139"/>
-      <c r="GF28" s="139"/>
-      <c r="GG28" s="139"/>
-      <c r="GH28" s="139"/>
-      <c r="GI28" s="139"/>
-      <c r="GJ28" s="139"/>
-      <c r="GK28" s="139"/>
-      <c r="GL28" s="139"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="155"/>
+      <c r="AO28" s="155"/>
+      <c r="AP28" s="155"/>
+      <c r="AQ28" s="155"/>
+      <c r="AR28" s="155"/>
+      <c r="AS28" s="155"/>
+      <c r="AT28" s="155"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="155"/>
+      <c r="AW28" s="155"/>
+      <c r="AX28" s="155"/>
+      <c r="AY28" s="155"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
+      <c r="BD28" s="155"/>
+      <c r="BE28" s="155"/>
+      <c r="BF28" s="155"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="155"/>
+      <c r="BI28" s="155"/>
+      <c r="BJ28" s="155"/>
+      <c r="BK28" s="155"/>
+      <c r="BL28" s="155"/>
+      <c r="BM28" s="155"/>
+      <c r="BN28" s="155"/>
+      <c r="BO28" s="155"/>
+      <c r="BP28" s="155"/>
+      <c r="BQ28" s="155"/>
+      <c r="BR28" s="155"/>
+      <c r="BS28" s="155"/>
+      <c r="BT28" s="155"/>
+      <c r="BU28" s="155"/>
+      <c r="BV28" s="155"/>
+      <c r="BW28" s="155"/>
+      <c r="BX28" s="155"/>
+      <c r="BY28" s="155"/>
+      <c r="BZ28" s="155"/>
+      <c r="CA28" s="155"/>
+      <c r="CB28" s="155"/>
+      <c r="CC28" s="155"/>
+      <c r="CD28" s="155"/>
+      <c r="CE28" s="155"/>
+      <c r="CF28" s="155"/>
+      <c r="CG28" s="155"/>
+      <c r="CH28" s="155"/>
+      <c r="CI28" s="155"/>
+      <c r="CJ28" s="155"/>
+      <c r="CK28" s="155"/>
+      <c r="CL28" s="155"/>
+      <c r="CM28" s="155"/>
+      <c r="CN28" s="155"/>
+      <c r="CO28" s="155"/>
+      <c r="CP28" s="155"/>
+      <c r="CQ28" s="155"/>
+      <c r="CR28" s="155"/>
+      <c r="CS28" s="155"/>
+      <c r="CT28" s="155"/>
+      <c r="CU28" s="155"/>
+      <c r="CV28" s="155"/>
+      <c r="CW28" s="155"/>
+      <c r="CX28" s="155"/>
+      <c r="CY28" s="155"/>
+      <c r="CZ28" s="155"/>
+      <c r="DA28" s="155"/>
+      <c r="DB28" s="155"/>
+      <c r="DC28" s="155"/>
+      <c r="DD28" s="155"/>
+      <c r="DE28" s="155"/>
+      <c r="DF28" s="155"/>
+      <c r="DG28" s="155"/>
+      <c r="DH28" s="155"/>
+      <c r="DI28" s="155"/>
+      <c r="DJ28" s="155"/>
+      <c r="DK28" s="155"/>
+      <c r="DL28" s="155"/>
+      <c r="DM28" s="155"/>
+      <c r="DN28" s="155"/>
+      <c r="DO28" s="155"/>
+      <c r="DP28" s="155"/>
+      <c r="DQ28" s="155"/>
+      <c r="DR28" s="155"/>
+      <c r="DS28" s="155"/>
+      <c r="DT28" s="155"/>
+      <c r="DU28" s="155"/>
+      <c r="DV28" s="155"/>
+      <c r="DW28" s="155"/>
+      <c r="DX28" s="155"/>
+      <c r="DY28" s="155"/>
+      <c r="DZ28" s="155"/>
+      <c r="EA28" s="155"/>
+      <c r="EB28" s="155"/>
+      <c r="EC28" s="155"/>
+      <c r="ED28" s="155"/>
+      <c r="EE28" s="155"/>
+      <c r="EF28" s="155"/>
+      <c r="EG28" s="155"/>
+      <c r="EH28" s="155"/>
+      <c r="EI28" s="155"/>
+      <c r="EJ28" s="155"/>
+      <c r="EK28" s="155"/>
+      <c r="EL28" s="155"/>
+      <c r="EM28" s="155"/>
+      <c r="EN28" s="155"/>
+      <c r="EO28" s="155"/>
+      <c r="EP28" s="155"/>
+      <c r="EQ28" s="155"/>
+      <c r="ER28" s="155"/>
+      <c r="ES28" s="155"/>
+      <c r="ET28" s="155"/>
+      <c r="EU28" s="155"/>
+      <c r="EV28" s="155"/>
+      <c r="EW28" s="155"/>
+      <c r="EX28" s="155"/>
+      <c r="EY28" s="155"/>
+      <c r="EZ28" s="155"/>
+      <c r="FA28" s="155"/>
+      <c r="FB28" s="155"/>
+      <c r="FC28" s="155"/>
+      <c r="FD28" s="155"/>
+      <c r="FE28" s="155"/>
+      <c r="FF28" s="155"/>
+      <c r="FG28" s="155"/>
+      <c r="FH28" s="155"/>
+      <c r="FI28" s="155"/>
+      <c r="FJ28" s="155"/>
+      <c r="FK28" s="155"/>
+      <c r="FL28" s="155"/>
+      <c r="FM28" s="155"/>
+      <c r="FN28" s="155"/>
+      <c r="FO28" s="155"/>
+      <c r="FP28" s="155"/>
+      <c r="FQ28" s="155"/>
+      <c r="FR28" s="155"/>
+      <c r="FS28" s="155"/>
+      <c r="FT28" s="155"/>
+      <c r="FU28" s="155"/>
+      <c r="FV28" s="155"/>
+      <c r="FW28" s="155"/>
+      <c r="FX28" s="155"/>
+      <c r="FY28" s="155"/>
+      <c r="FZ28" s="155"/>
+      <c r="GA28" s="155"/>
+      <c r="GB28" s="155"/>
+      <c r="GC28" s="155"/>
+      <c r="GD28" s="155"/>
+      <c r="GE28" s="155"/>
+      <c r="GF28" s="155"/>
+      <c r="GG28" s="155"/>
+      <c r="GH28" s="155"/>
+      <c r="GI28" s="155"/>
+      <c r="GJ28" s="155"/>
+      <c r="GK28" s="155"/>
+      <c r="GL28" s="155"/>
       <c r="GM28" s="123"/>
     </row>
     <row r="29" spans="1:195" ht="18">
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="140"/>
-      <c r="O29" s="140"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="140"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
     </row>
     <row r="30" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
       <c r="K30" s="124"/>
       <c r="L30" s="124"/>
       <c r="M30" s="124"/>
@@ -4672,16 +4681,16 @@
       <c r="R30" s="124"/>
     </row>
     <row r="31" spans="1:195" ht="13.5" customHeight="1">
-      <c r="A31" s="138"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
       <c r="K31" s="124"/>
       <c r="L31" s="124"/>
       <c r="M31" s="124"/>
@@ -4693,6 +4702,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="DF28:DV28"/>
+    <mergeCell ref="DW28:EM28"/>
+    <mergeCell ref="EN28:FD28"/>
+    <mergeCell ref="B26:R26"/>
+    <mergeCell ref="FE28:FU28"/>
+    <mergeCell ref="FV28:GL28"/>
+    <mergeCell ref="B29:R29"/>
+    <mergeCell ref="S28:X28"/>
+    <mergeCell ref="Y28:AO28"/>
+    <mergeCell ref="AP28:BF28"/>
+    <mergeCell ref="BG28:BW28"/>
+    <mergeCell ref="BX28:CN28"/>
+    <mergeCell ref="CO28:DE28"/>
+    <mergeCell ref="B28:R28"/>
+    <mergeCell ref="B18:R18"/>
+    <mergeCell ref="B20:R20"/>
+    <mergeCell ref="B21:R21"/>
+    <mergeCell ref="B22:R22"/>
+    <mergeCell ref="B23:R23"/>
+    <mergeCell ref="B19:R19"/>
     <mergeCell ref="B14:R14"/>
     <mergeCell ref="B15:R15"/>
     <mergeCell ref="A16:J16"/>
@@ -4706,28 +4737,6 @@
     <mergeCell ref="C1:F3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B18:R18"/>
-    <mergeCell ref="B20:R20"/>
-    <mergeCell ref="B21:R21"/>
-    <mergeCell ref="B22:R22"/>
-    <mergeCell ref="B23:R23"/>
-    <mergeCell ref="B19:R19"/>
-    <mergeCell ref="B26:R26"/>
-    <mergeCell ref="FE28:FU28"/>
-    <mergeCell ref="FV28:GL28"/>
-    <mergeCell ref="B29:R29"/>
-    <mergeCell ref="S28:X28"/>
-    <mergeCell ref="Y28:AO28"/>
-    <mergeCell ref="AP28:BF28"/>
-    <mergeCell ref="BG28:BW28"/>
-    <mergeCell ref="BX28:CN28"/>
-    <mergeCell ref="CO28:DE28"/>
-    <mergeCell ref="B28:R28"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="DF28:DV28"/>
-    <mergeCell ref="DW28:EM28"/>
-    <mergeCell ref="EN28:FD28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.39370078740157499" bottom="0" header="0" footer="0"/>
@@ -4754,14 +4763,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="213" t="s">
+      <c r="B1" s="208" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -4954,11 +4963,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="214" t="s">
+      <c r="E27" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="216"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="211"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
@@ -5282,10 +5291,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5296,7 +5305,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -5310,8 +5319,8 @@
       <c r="J1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5348,14 +5357,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
       <c r="A5" s="40">
@@ -5370,14 +5379,14 @@
       <c r="D5" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="169" t="s">
+      <c r="E5" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="160"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="93">
@@ -5388,12 +5397,12 @@
       </c>
       <c r="C6" s="80"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="94">
@@ -5404,12 +5413,12 @@
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="95">
@@ -5420,12 +5429,12 @@
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="96">
@@ -5436,12 +5445,12 @@
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="97">
@@ -5452,12 +5461,12 @@
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="163"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="98">
@@ -5468,12 +5477,12 @@
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="99">
@@ -5484,12 +5493,12 @@
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="161"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="100">
@@ -5500,12 +5509,12 @@
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="101">
@@ -5516,12 +5525,12 @@
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -5532,12 +5541,12 @@
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="93">
@@ -5548,12 +5557,12 @@
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="94">
@@ -5564,12 +5573,12 @@
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="95">
@@ -5580,12 +5589,12 @@
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="96">
@@ -5596,12 +5605,12 @@
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="97">
@@ -5612,12 +5621,12 @@
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="98">
@@ -5628,12 +5637,12 @@
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="99">
@@ -5644,12 +5653,12 @@
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="100">
@@ -5660,12 +5669,12 @@
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="101">
@@ -5676,12 +5685,12 @@
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -5692,12 +5701,12 @@
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -5708,12 +5717,12 @@
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="93">
@@ -5724,12 +5733,12 @@
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="94">
@@ -5740,12 +5749,12 @@
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="160"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="95">
@@ -5756,12 +5765,12 @@
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="160"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="160"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="96">
@@ -5772,12 +5781,12 @@
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="97">
@@ -5788,12 +5797,12 @@
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="98">
@@ -5804,12 +5813,12 @@
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="99">
@@ -5820,12 +5829,12 @@
       </c>
       <c r="C33" s="81"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="100">
@@ -5836,12 +5845,12 @@
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="101">
@@ -5852,12 +5861,12 @@
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -5868,12 +5877,12 @@
       </c>
       <c r="C36" s="81"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="93">
@@ -5884,12 +5893,12 @@
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="160"/>
-      <c r="J37" s="160"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="94">
@@ -5900,12 +5909,12 @@
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="160"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="95">
@@ -5916,12 +5925,12 @@
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="160"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="96">
@@ -5932,12 +5941,12 @@
       </c>
       <c r="C40" s="81"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="97">
@@ -5948,12 +5957,12 @@
       </c>
       <c r="C41" s="81"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="98">
@@ -5964,23 +5973,32 @@
       </c>
       <c r="C42" s="81"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -5996,23 +6014,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -6037,8 +6046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6057,10 +6066,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -6090,8 +6099,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -6121,20 +6130,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="174"/>
-      <c r="I4" s="173" t="s">
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="174"/>
+      <c r="J4" s="172"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -6145,10 +6154,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="182" t="s">
+      <c r="I5" s="180" t="s">
         <v>169</v>
       </c>
-      <c r="J5" s="183"/>
+      <c r="J5" s="181"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
@@ -6159,8 +6168,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="185"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="183"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -6171,8 +6180,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="185"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -6183,8 +6192,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -6195,8 +6204,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -6207,8 +6216,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="185"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -6219,10 +6228,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="173" t="s">
+      <c r="I11" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="174"/>
+      <c r="J11" s="172"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -6233,10 +6242,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="176" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="177"/>
+      <c r="I12" s="174" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -6247,8 +6256,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -6259,8 +6268,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -6271,8 +6280,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -6283,8 +6292,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -6295,8 +6304,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -6307,8 +6316,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -6319,8 +6328,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -6331,8 +6340,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="177"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -6343,8 +6352,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="177"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -6355,8 +6364,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="177"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -6367,8 +6376,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="177"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -6379,8 +6388,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -6391,8 +6400,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="177"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -6403,8 +6412,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -6415,8 +6424,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="177"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -6427,8 +6436,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -6439,8 +6448,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -6451,8 +6460,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -6463,8 +6472,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -6475,8 +6484,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="177"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -6487,8 +6496,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="177"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -6499,8 +6508,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="177"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -6511,8 +6520,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="42"/>
@@ -6523,8 +6532,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="42"/>
@@ -6535,8 +6544,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -6547,8 +6556,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="177"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -6559,8 +6568,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="177"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -6571,8 +6580,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="177"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -6583,8 +6592,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="179"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="177"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -6595,8 +6604,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="177"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -6607,8 +6616,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="181"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6642,7 +6651,7 @@
       <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -6667,13 +6676,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6681,15 +6690,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="188" t="s">
+      <c r="H1" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="189"/>
-      <c r="J1" s="190" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="192"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="189"/>
+      <c r="L1" s="190"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -6705,11 +6714,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -6717,16 +6726,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="H2" s="188" t="s">
+      <c r="H2" s="186" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190" t="str">
+      <c r="I2" s="187"/>
+      <c r="J2" s="188" t="str">
         <f>'Update History'!F2</f>
         <v>Báo cáo biểu đồ</v>
       </c>
-      <c r="K2" s="191"/>
-      <c r="L2" s="192"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="190"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6749,7 +6758,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -6835,12 +6844,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
       <c r="H6" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="62"/>
@@ -6863,20 +6872,20 @@
         <v>2.1</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" s="90"/>
       <c r="G7" s="129"/>
       <c r="H7" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="40" t="s">
         <v>180</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>182</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
       <c r="L7" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M7" s="90"/>
       <c r="N7" s="90"/>
@@ -6895,24 +6904,24 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F8" s="129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G8" s="129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="62"/>
       <c r="L8" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M8" s="71"/>
       <c r="N8" s="71"/>
@@ -6931,24 +6940,24 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F9" s="129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G9" s="129" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H9" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="40" t="s">
         <v>181</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>183</v>
       </c>
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
       <c r="L9" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M9" s="90"/>
       <c r="N9" s="90"/>
@@ -6967,24 +6976,24 @@
         <v>2.4</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F10" s="129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G10" s="129" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
       <c r="L10" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="71"/>
@@ -8893,7 +8902,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="127"/>
@@ -8928,7 +8937,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="196"/>
+      <c r="A2" s="197"/>
       <c r="B2" s="128"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -8976,15 +8985,15 @@
       <c r="E4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167" t="s">
+      <c r="G4" s="164"/>
+      <c r="H4" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A5" s="33">
@@ -8994,11 +9003,11 @@
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
       <c r="E5" s="32"/>
-      <c r="F5" s="193"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="193"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="11.25">
       <c r="A6" s="33">
@@ -9008,11 +9017,11 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="32"/>
-      <c r="F6" s="193"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="191"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="193"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="33">
@@ -9022,11 +9031,11 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="193"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="33">
@@ -9036,11 +9045,11 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="193"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="33">
@@ -9050,11 +9059,11 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="193"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="33">
@@ -9064,11 +9073,11 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="32"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="193"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="33">
@@ -9078,11 +9087,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="197"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="191"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="193"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="33">
@@ -9092,11 +9101,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="191"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="193"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="33">
@@ -9106,11 +9115,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="193"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="33">
@@ -9120,11 +9129,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="197"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="193"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -9134,11 +9143,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="191"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="193"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -9148,11 +9157,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="193"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -9162,11 +9171,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="197"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="191"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -9176,11 +9185,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -9190,11 +9199,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -9204,11 +9213,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -9218,11 +9227,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -9232,11 +9241,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="193"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -9246,11 +9255,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -9260,11 +9269,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="163"/>
-      <c r="H24" s="197"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -9274,11 +9283,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -9288,11 +9297,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="191"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -9302,11 +9311,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -9316,11 +9325,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="197"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -9330,11 +9339,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -9344,11 +9353,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -9358,11 +9367,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="197"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="191"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -9372,11 +9381,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="197"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="193"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -9393,11 +9402,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="197"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -9414,11 +9423,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="192"/>
+      <c r="J34" s="193"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -9435,11 +9444,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="163"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="193"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -9456,11 +9465,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="197"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
+      <c r="F36" s="158"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="192"/>
+      <c r="J36" s="193"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -9477,11 +9486,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="191"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="193"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -9498,11 +9507,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="193"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -9519,11 +9528,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="197"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="193"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -9540,11 +9549,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="197"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="199"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -9561,11 +9570,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="197"/>
-      <c r="I41" s="198"/>
-      <c r="J41" s="199"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="193"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -9582,11 +9591,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="198"/>
-      <c r="J42" s="199"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -9603,11 +9612,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="199"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="193"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -9624,11 +9633,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="197"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="199"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="193"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -9645,11 +9654,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="197"/>
-      <c r="I45" s="198"/>
-      <c r="J45" s="199"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -9666,11 +9675,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="197"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="191"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="193"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -9687,11 +9696,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="193"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -9708,11 +9717,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="197"/>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="192"/>
+      <c r="J48" s="193"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -9729,11 +9738,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="163"/>
-      <c r="H49" s="197"/>
-      <c r="I49" s="198"/>
-      <c r="J49" s="199"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="192"/>
+      <c r="J49" s="193"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -9750,11 +9759,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="197"/>
-      <c r="I50" s="198"/>
-      <c r="J50" s="199"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="193"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -9771,11 +9780,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="163"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="198"/>
-      <c r="J51" s="199"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="192"/>
+      <c r="J51" s="193"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -9792,11 +9801,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="163"/>
-      <c r="H52" s="197"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="193"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -9813,11 +9822,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="163"/>
-      <c r="H53" s="197"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="199"/>
+      <c r="F53" s="158"/>
+      <c r="G53" s="160"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="192"/>
+      <c r="J53" s="193"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -9834,11 +9843,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="163"/>
-      <c r="H54" s="197"/>
-      <c r="I54" s="198"/>
-      <c r="J54" s="199"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="160"/>
+      <c r="H54" s="191"/>
+      <c r="I54" s="192"/>
+      <c r="J54" s="193"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -9855,11 +9864,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="163"/>
-      <c r="H55" s="197"/>
-      <c r="I55" s="198"/>
-      <c r="J55" s="199"/>
+      <c r="F55" s="158"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="193"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -9876,11 +9885,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="197"/>
-      <c r="I56" s="198"/>
-      <c r="J56" s="199"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="193"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -9892,6 +9901,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="F54:G54"/>
@@ -9906,99 +10008,6 @@
     <mergeCell ref="H54:J54"/>
     <mergeCell ref="H55:J55"/>
     <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -10016,8 +10025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="K1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -10045,24 +10054,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="206" t="str">
+      <c r="J1" s="201" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="206"/>
+      <c r="K1" s="201"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -10089,22 +10098,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="206" t="str">
+      <c r="J2" s="201" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CRM</v>
       </c>
-      <c r="K2" s="206"/>
+      <c r="K2" s="201"/>
       <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
@@ -10137,8 +10146,8 @@
       <c r="B4" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="135" t="s">
-        <v>200</v>
+      <c r="C4" s="133" t="s">
+        <v>198</v>
       </c>
       <c r="D4" s="70" t="s">
         <v>97</v>
@@ -10161,12 +10170,12 @@
       <c r="J4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="173" t="s">
+      <c r="K4" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="174"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="172"/>
       <c r="O4" s="39" t="s">
         <v>56</v>
       </c>
@@ -10183,139 +10192,139 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="22.5">
-      <c r="A5" s="33">
+    <row r="5" spans="1:21" s="25" customFormat="1" ht="22.5">
+      <c r="A5" s="35">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="63" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="212"/>
+      <c r="G5" s="213" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="84" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="200" t="s">
+      <c r="K5" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="215"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="216"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="219"/>
+      <c r="S5" s="213" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+    </row>
+    <row r="6" spans="1:21" s="25" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A6" s="35">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="35">
+        <v>51</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="213" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="L5" s="201"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-    </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A6" s="33">
-        <v>2</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="33">
-        <v>51</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="131" t="s">
-        <v>164</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="130" t="s">
-        <v>195</v>
-      </c>
-      <c r="K6" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="L6" s="204"/>
-      <c r="M6" s="204"/>
-      <c r="N6" s="205"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="78" t="s">
+      <c r="K6" s="202" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="213"/>
+      <c r="P6" s="217"/>
+      <c r="Q6" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="77" t="s">
+      <c r="R6" s="219" t="s">
         <v>168</v>
       </c>
-      <c r="S6" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-    </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="66" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="S6" s="213" t="s">
+        <v>199</v>
+      </c>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+    </row>
+    <row r="7" spans="1:21" s="25" customFormat="1" ht="11.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
       <c r="J7" s="130"/>
-      <c r="K7" s="207"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-    </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25">
-      <c r="A8" s="33">
+      <c r="K7" s="202"/>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="213"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="219"/>
+      <c r="S7" s="213"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+    </row>
+    <row r="8" spans="1:21" s="25" customFormat="1" ht="11.25">
+      <c r="A8" s="35">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="84"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="201"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="77"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="216"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="219"/>
       <c r="S8" s="84"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
     </row>
     <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25">
       <c r="A9" s="33">
@@ -10330,10 +10339,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="84"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="202"/>
+      <c r="K9" s="198"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="200"/>
       <c r="O9" s="91"/>
       <c r="P9" s="91"/>
       <c r="Q9" s="78"/>
@@ -10355,10 +10364,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="84"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="202"/>
+      <c r="K10" s="198"/>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="200"/>
       <c r="O10" s="91"/>
       <c r="P10" s="91"/>
       <c r="Q10" s="78"/>
@@ -10380,10 +10389,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="84"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="202"/>
+      <c r="K11" s="198"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199"/>
+      <c r="N11" s="200"/>
       <c r="O11" s="91"/>
       <c r="P11" s="91"/>
       <c r="Q11" s="78"/>
@@ -10405,10 +10414,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="84"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="202"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="200"/>
       <c r="O12" s="87"/>
       <c r="P12" s="87"/>
       <c r="Q12" s="78"/>
@@ -10430,10 +10439,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="84"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="202"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="200"/>
       <c r="O13" s="87"/>
       <c r="P13" s="87"/>
       <c r="Q13" s="78"/>
@@ -10455,10 +10464,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="84"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="202"/>
+      <c r="K14" s="198"/>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="200"/>
       <c r="O14" s="83"/>
       <c r="P14" s="83"/>
       <c r="Q14" s="78"/>
@@ -10480,10 +10489,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="84"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="202"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="200"/>
       <c r="O15" s="83"/>
       <c r="P15" s="83"/>
       <c r="Q15" s="78"/>
@@ -10505,10 +10514,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="202"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="200"/>
       <c r="O16" s="74"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="78"/>
@@ -10530,10 +10539,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="202"/>
+      <c r="K17" s="198"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="200"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="78"/>
@@ -10555,10 +10564,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="202"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="200"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="78"/>
@@ -10580,10 +10589,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="202"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="200"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="78"/>
@@ -10605,10 +10614,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="202"/>
+      <c r="K20" s="198"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="200"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="78"/>
@@ -10630,10 +10639,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="202"/>
+      <c r="K21" s="198"/>
+      <c r="L21" s="199"/>
+      <c r="M21" s="199"/>
+      <c r="N21" s="200"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="78"/>
@@ -10655,10 +10664,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="202"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="199"/>
+      <c r="M22" s="199"/>
+      <c r="N22" s="200"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="78"/>
@@ -10680,10 +10689,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="202"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="199"/>
+      <c r="M23" s="199"/>
+      <c r="N23" s="200"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="78"/>
@@ -10705,10 +10714,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="202"/>
+      <c r="K24" s="198"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="200"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="78"/>
@@ -10730,10 +10739,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="202"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="200"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="78"/>
@@ -10755,10 +10764,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="202"/>
+      <c r="K26" s="198"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="200"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="78"/>
@@ -10780,10 +10789,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="202"/>
+      <c r="K27" s="198"/>
+      <c r="L27" s="199"/>
+      <c r="M27" s="199"/>
+      <c r="N27" s="200"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="78"/>
@@ -10805,10 +10814,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="202"/>
+      <c r="K28" s="198"/>
+      <c r="L28" s="199"/>
+      <c r="M28" s="199"/>
+      <c r="N28" s="200"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="78"/>
@@ -10830,10 +10839,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="202"/>
+      <c r="K29" s="198"/>
+      <c r="L29" s="199"/>
+      <c r="M29" s="199"/>
+      <c r="N29" s="200"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="78"/>
@@ -10855,10 +10864,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="202"/>
+      <c r="K30" s="198"/>
+      <c r="L30" s="199"/>
+      <c r="M30" s="199"/>
+      <c r="N30" s="200"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="78"/>
@@ -10880,10 +10889,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201"/>
-      <c r="N31" s="202"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="199"/>
+      <c r="N31" s="200"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="78"/>
@@ -10905,10 +10914,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="201"/>
-      <c r="N32" s="202"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="199"/>
+      <c r="M32" s="199"/>
+      <c r="N32" s="200"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="78"/>
@@ -10930,10 +10939,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
-      <c r="N33" s="202"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="199"/>
+      <c r="M33" s="199"/>
+      <c r="N33" s="200"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="78"/>
@@ -10955,10 +10964,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="84"/>
-      <c r="K34" s="200"/>
-      <c r="L34" s="201"/>
-      <c r="M34" s="201"/>
-      <c r="N34" s="202"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="199"/>
+      <c r="M34" s="199"/>
+      <c r="N34" s="200"/>
       <c r="O34" s="87"/>
       <c r="P34" s="87"/>
       <c r="Q34" s="78"/>
@@ -10980,10 +10989,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="200"/>
-      <c r="L35" s="201"/>
-      <c r="M35" s="201"/>
-      <c r="N35" s="202"/>
+      <c r="K35" s="198"/>
+      <c r="L35" s="199"/>
+      <c r="M35" s="199"/>
+      <c r="N35" s="200"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="78"/>
@@ -11005,10 +11014,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="200"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="201"/>
-      <c r="N36" s="202"/>
+      <c r="K36" s="198"/>
+      <c r="L36" s="199"/>
+      <c r="M36" s="199"/>
+      <c r="N36" s="200"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="78"/>
@@ -11030,10 +11039,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="200"/>
-      <c r="L37" s="201"/>
-      <c r="M37" s="201"/>
-      <c r="N37" s="202"/>
+      <c r="K37" s="198"/>
+      <c r="L37" s="199"/>
+      <c r="M37" s="199"/>
+      <c r="N37" s="200"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="78"/>
@@ -11055,10 +11064,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="200"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="201"/>
-      <c r="N38" s="202"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="199"/>
+      <c r="M38" s="199"/>
+      <c r="N38" s="200"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="78"/>
@@ -11080,10 +11089,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="200"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="201"/>
-      <c r="N39" s="202"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="199"/>
+      <c r="M39" s="199"/>
+      <c r="N39" s="200"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="78"/>
@@ -11105,10 +11114,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="200"/>
-      <c r="L40" s="201"/>
-      <c r="M40" s="201"/>
-      <c r="N40" s="202"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="199"/>
+      <c r="M40" s="199"/>
+      <c r="N40" s="200"/>
       <c r="O40" s="76"/>
       <c r="P40" s="76"/>
       <c r="Q40" s="78"/>
@@ -11130,10 +11139,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="200"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="202"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="199"/>
+      <c r="M41" s="199"/>
+      <c r="N41" s="200"/>
       <c r="O41" s="76"/>
       <c r="P41" s="76"/>
       <c r="Q41" s="78"/>
@@ -11155,10 +11164,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="200"/>
-      <c r="L42" s="201"/>
-      <c r="M42" s="201"/>
-      <c r="N42" s="202"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="199"/>
+      <c r="M42" s="199"/>
+      <c r="N42" s="200"/>
       <c r="O42" s="76"/>
       <c r="P42" s="76"/>
       <c r="Q42" s="78"/>
@@ -11180,10 +11189,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="200"/>
-      <c r="L43" s="201"/>
-      <c r="M43" s="201"/>
-      <c r="N43" s="202"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="199"/>
+      <c r="M43" s="199"/>
+      <c r="N43" s="200"/>
       <c r="O43" s="76"/>
       <c r="P43" s="76"/>
       <c r="Q43" s="78"/>
@@ -11205,10 +11214,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="200"/>
-      <c r="L44" s="201"/>
-      <c r="M44" s="201"/>
-      <c r="N44" s="202"/>
+      <c r="K44" s="198"/>
+      <c r="L44" s="199"/>
+      <c r="M44" s="199"/>
+      <c r="N44" s="200"/>
       <c r="O44" s="76"/>
       <c r="P44" s="76"/>
       <c r="Q44" s="78"/>
@@ -11230,10 +11239,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="200"/>
-      <c r="L45" s="201"/>
-      <c r="M45" s="201"/>
-      <c r="N45" s="202"/>
+      <c r="K45" s="198"/>
+      <c r="L45" s="199"/>
+      <c r="M45" s="199"/>
+      <c r="N45" s="200"/>
       <c r="O45" s="76"/>
       <c r="P45" s="76"/>
       <c r="Q45" s="78"/>
@@ -11255,10 +11264,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="200"/>
-      <c r="L46" s="201"/>
-      <c r="M46" s="201"/>
-      <c r="N46" s="202"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="199"/>
+      <c r="M46" s="199"/>
+      <c r="N46" s="200"/>
       <c r="O46" s="76"/>
       <c r="P46" s="76"/>
       <c r="Q46" s="78"/>
@@ -11280,10 +11289,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="200"/>
-      <c r="L47" s="201"/>
-      <c r="M47" s="201"/>
-      <c r="N47" s="202"/>
+      <c r="K47" s="198"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="200"/>
       <c r="O47" s="76"/>
       <c r="P47" s="76"/>
       <c r="Q47" s="78"/>
@@ -11305,10 +11314,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="201"/>
-      <c r="M48" s="201"/>
-      <c r="N48" s="202"/>
+      <c r="K48" s="198"/>
+      <c r="L48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="200"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="78"/>
@@ -11330,10 +11339,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="200"/>
-      <c r="L49" s="201"/>
-      <c r="M49" s="201"/>
-      <c r="N49" s="202"/>
+      <c r="K49" s="198"/>
+      <c r="L49" s="199"/>
+      <c r="M49" s="199"/>
+      <c r="N49" s="200"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="78"/>
@@ -11355,10 +11364,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="200"/>
-      <c r="L50" s="201"/>
-      <c r="M50" s="201"/>
-      <c r="N50" s="202"/>
+      <c r="K50" s="198"/>
+      <c r="L50" s="199"/>
+      <c r="M50" s="199"/>
+      <c r="N50" s="200"/>
       <c r="O50" s="76"/>
       <c r="P50" s="76"/>
       <c r="Q50" s="78"/>
@@ -11380,10 +11389,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="200"/>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="202"/>
+      <c r="K51" s="198"/>
+      <c r="L51" s="199"/>
+      <c r="M51" s="199"/>
+      <c r="N51" s="200"/>
       <c r="O51" s="76"/>
       <c r="P51" s="76"/>
       <c r="Q51" s="78"/>
@@ -11405,10 +11414,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="200"/>
-      <c r="L52" s="201"/>
-      <c r="M52" s="201"/>
-      <c r="N52" s="202"/>
+      <c r="K52" s="198"/>
+      <c r="L52" s="199"/>
+      <c r="M52" s="199"/>
+      <c r="N52" s="200"/>
       <c r="O52" s="76"/>
       <c r="P52" s="76"/>
       <c r="Q52" s="78"/>
@@ -11430,10 +11439,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="200"/>
-      <c r="L53" s="201"/>
-      <c r="M53" s="201"/>
-      <c r="N53" s="202"/>
+      <c r="K53" s="198"/>
+      <c r="L53" s="199"/>
+      <c r="M53" s="199"/>
+      <c r="N53" s="200"/>
       <c r="O53" s="76"/>
       <c r="P53" s="76"/>
       <c r="Q53" s="78"/>
@@ -11455,10 +11464,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="200"/>
-      <c r="L54" s="201"/>
-      <c r="M54" s="201"/>
-      <c r="N54" s="202"/>
+      <c r="K54" s="198"/>
+      <c r="L54" s="199"/>
+      <c r="M54" s="199"/>
+      <c r="N54" s="200"/>
       <c r="O54" s="76"/>
       <c r="P54" s="76"/>
       <c r="Q54" s="78"/>
@@ -11480,10 +11489,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="201"/>
-      <c r="M55" s="201"/>
-      <c r="N55" s="202"/>
+      <c r="K55" s="198"/>
+      <c r="L55" s="199"/>
+      <c r="M55" s="199"/>
+      <c r="N55" s="200"/>
       <c r="O55" s="76"/>
       <c r="P55" s="76"/>
       <c r="Q55" s="78"/>
@@ -11505,10 +11514,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="201"/>
-      <c r="M56" s="201"/>
-      <c r="N56" s="202"/>
+      <c r="K56" s="198"/>
+      <c r="L56" s="199"/>
+      <c r="M56" s="199"/>
+      <c r="N56" s="200"/>
       <c r="O56" s="76"/>
       <c r="P56" s="76"/>
       <c r="Q56" s="78"/>
@@ -11530,10 +11539,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="201"/>
-      <c r="M57" s="201"/>
-      <c r="N57" s="202"/>
+      <c r="K57" s="198"/>
+      <c r="L57" s="199"/>
+      <c r="M57" s="199"/>
+      <c r="N57" s="200"/>
       <c r="O57" s="76"/>
       <c r="P57" s="76"/>
       <c r="Q57" s="78"/>
@@ -11555,10 +11564,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="200"/>
-      <c r="L58" s="201"/>
-      <c r="M58" s="201"/>
-      <c r="N58" s="202"/>
+      <c r="K58" s="198"/>
+      <c r="L58" s="199"/>
+      <c r="M58" s="199"/>
+      <c r="N58" s="200"/>
       <c r="O58" s="76"/>
       <c r="P58" s="76"/>
       <c r="Q58" s="78"/>
@@ -11580,10 +11589,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="200"/>
-      <c r="L59" s="201"/>
-      <c r="M59" s="201"/>
-      <c r="N59" s="202"/>
+      <c r="K59" s="198"/>
+      <c r="L59" s="199"/>
+      <c r="M59" s="199"/>
+      <c r="N59" s="200"/>
       <c r="O59" s="76"/>
       <c r="P59" s="76"/>
       <c r="Q59" s="78"/>
@@ -11605,10 +11614,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="200"/>
-      <c r="L60" s="201"/>
-      <c r="M60" s="201"/>
-      <c r="N60" s="202"/>
+      <c r="K60" s="198"/>
+      <c r="L60" s="199"/>
+      <c r="M60" s="199"/>
+      <c r="N60" s="200"/>
       <c r="O60" s="76"/>
       <c r="P60" s="76"/>
       <c r="Q60" s="78"/>
@@ -11630,10 +11639,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="200"/>
-      <c r="L61" s="201"/>
-      <c r="M61" s="201"/>
-      <c r="N61" s="202"/>
+      <c r="K61" s="198"/>
+      <c r="L61" s="199"/>
+      <c r="M61" s="199"/>
+      <c r="N61" s="200"/>
       <c r="O61" s="76"/>
       <c r="P61" s="76"/>
       <c r="Q61" s="78"/>
@@ -11655,10 +11664,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="200"/>
-      <c r="L62" s="201"/>
-      <c r="M62" s="201"/>
-      <c r="N62" s="202"/>
+      <c r="K62" s="198"/>
+      <c r="L62" s="199"/>
+      <c r="M62" s="199"/>
+      <c r="N62" s="200"/>
       <c r="O62" s="86"/>
       <c r="P62" s="86"/>
       <c r="Q62" s="78"/>
@@ -11680,10 +11689,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="200"/>
-      <c r="L63" s="201"/>
-      <c r="M63" s="201"/>
-      <c r="N63" s="202"/>
+      <c r="K63" s="198"/>
+      <c r="L63" s="199"/>
+      <c r="M63" s="199"/>
+      <c r="N63" s="200"/>
       <c r="O63" s="86"/>
       <c r="P63" s="86"/>
       <c r="Q63" s="78"/>
@@ -11705,10 +11714,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="200"/>
-      <c r="L64" s="201"/>
-      <c r="M64" s="201"/>
-      <c r="N64" s="202"/>
+      <c r="K64" s="198"/>
+      <c r="L64" s="199"/>
+      <c r="M64" s="199"/>
+      <c r="N64" s="200"/>
       <c r="O64" s="86"/>
       <c r="P64" s="86"/>
       <c r="Q64" s="78"/>
@@ -11728,10 +11737,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="200"/>
-      <c r="L65" s="201"/>
-      <c r="M65" s="201"/>
-      <c r="N65" s="202"/>
+      <c r="K65" s="198"/>
+      <c r="L65" s="199"/>
+      <c r="M65" s="199"/>
+      <c r="N65" s="200"/>
       <c r="O65" s="86"/>
       <c r="P65" s="86"/>
       <c r="Q65" s="78"/>
@@ -11751,10 +11760,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="201"/>
-      <c r="M66" s="201"/>
-      <c r="N66" s="202"/>
+      <c r="K66" s="198"/>
+      <c r="L66" s="199"/>
+      <c r="M66" s="199"/>
+      <c r="N66" s="200"/>
       <c r="O66" s="86"/>
       <c r="P66" s="86"/>
       <c r="Q66" s="78"/>
@@ -11774,10 +11783,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="200"/>
-      <c r="L67" s="201"/>
-      <c r="M67" s="201"/>
-      <c r="N67" s="202"/>
+      <c r="K67" s="198"/>
+      <c r="L67" s="199"/>
+      <c r="M67" s="199"/>
+      <c r="N67" s="200"/>
       <c r="O67" s="86"/>
       <c r="P67" s="86"/>
       <c r="Q67" s="78"/>
@@ -11797,10 +11806,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="200"/>
-      <c r="L68" s="201"/>
-      <c r="M68" s="201"/>
-      <c r="N68" s="202"/>
+      <c r="K68" s="198"/>
+      <c r="L68" s="199"/>
+      <c r="M68" s="199"/>
+      <c r="N68" s="200"/>
       <c r="O68" s="86"/>
       <c r="P68" s="86"/>
       <c r="Q68" s="78"/>
@@ -11820,10 +11829,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="200"/>
-      <c r="L69" s="201"/>
-      <c r="M69" s="201"/>
-      <c r="N69" s="202"/>
+      <c r="K69" s="198"/>
+      <c r="L69" s="199"/>
+      <c r="M69" s="199"/>
+      <c r="N69" s="200"/>
       <c r="O69" s="86"/>
       <c r="P69" s="86"/>
       <c r="Q69" s="78"/>
@@ -11843,10 +11852,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="200"/>
-      <c r="L70" s="201"/>
-      <c r="M70" s="201"/>
-      <c r="N70" s="202"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="199"/>
+      <c r="M70" s="199"/>
+      <c r="N70" s="200"/>
       <c r="O70" s="86"/>
       <c r="P70" s="86"/>
       <c r="Q70" s="78"/>
@@ -11866,10 +11875,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="200"/>
-      <c r="L71" s="201"/>
-      <c r="M71" s="201"/>
-      <c r="N71" s="202"/>
+      <c r="K71" s="198"/>
+      <c r="L71" s="199"/>
+      <c r="M71" s="199"/>
+      <c r="N71" s="200"/>
       <c r="O71" s="86"/>
       <c r="P71" s="86"/>
       <c r="Q71" s="78"/>
@@ -11889,10 +11898,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="200"/>
-      <c r="L72" s="201"/>
-      <c r="M72" s="201"/>
-      <c r="N72" s="202"/>
+      <c r="K72" s="198"/>
+      <c r="L72" s="199"/>
+      <c r="M72" s="199"/>
+      <c r="N72" s="200"/>
       <c r="O72" s="86"/>
       <c r="P72" s="86"/>
       <c r="Q72" s="78"/>
@@ -11912,10 +11921,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="200"/>
-      <c r="L73" s="201"/>
-      <c r="M73" s="201"/>
-      <c r="N73" s="202"/>
+      <c r="K73" s="198"/>
+      <c r="L73" s="199"/>
+      <c r="M73" s="199"/>
+      <c r="N73" s="200"/>
       <c r="O73" s="86"/>
       <c r="P73" s="86"/>
       <c r="Q73" s="78"/>
@@ -11935,10 +11944,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="201"/>
-      <c r="M74" s="201"/>
-      <c r="N74" s="202"/>
+      <c r="K74" s="198"/>
+      <c r="L74" s="199"/>
+      <c r="M74" s="199"/>
+      <c r="N74" s="200"/>
       <c r="O74" s="86"/>
       <c r="P74" s="86"/>
       <c r="Q74" s="78"/>
@@ -11958,10 +11967,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="201"/>
-      <c r="M75" s="201"/>
-      <c r="N75" s="202"/>
+      <c r="K75" s="198"/>
+      <c r="L75" s="199"/>
+      <c r="M75" s="199"/>
+      <c r="N75" s="200"/>
       <c r="O75" s="86"/>
       <c r="P75" s="86"/>
       <c r="Q75" s="78"/>
@@ -11981,10 +11990,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="200"/>
-      <c r="L76" s="201"/>
-      <c r="M76" s="201"/>
-      <c r="N76" s="202"/>
+      <c r="K76" s="198"/>
+      <c r="L76" s="199"/>
+      <c r="M76" s="199"/>
+      <c r="N76" s="200"/>
       <c r="O76" s="86"/>
       <c r="P76" s="86"/>
       <c r="Q76" s="78"/>
@@ -12004,10 +12013,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="200"/>
-      <c r="L77" s="201"/>
-      <c r="M77" s="201"/>
-      <c r="N77" s="202"/>
+      <c r="K77" s="198"/>
+      <c r="L77" s="199"/>
+      <c r="M77" s="199"/>
+      <c r="N77" s="200"/>
       <c r="O77" s="86"/>
       <c r="P77" s="86"/>
       <c r="Q77" s="78"/>
@@ -12027,10 +12036,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="200"/>
-      <c r="L78" s="201"/>
-      <c r="M78" s="201"/>
-      <c r="N78" s="202"/>
+      <c r="K78" s="198"/>
+      <c r="L78" s="199"/>
+      <c r="M78" s="199"/>
+      <c r="N78" s="200"/>
       <c r="O78" s="86"/>
       <c r="P78" s="86"/>
       <c r="Q78" s="78"/>
@@ -12050,10 +12059,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="200"/>
-      <c r="L79" s="201"/>
-      <c r="M79" s="201"/>
-      <c r="N79" s="202"/>
+      <c r="K79" s="198"/>
+      <c r="L79" s="199"/>
+      <c r="M79" s="199"/>
+      <c r="N79" s="200"/>
       <c r="O79" s="86"/>
       <c r="P79" s="86"/>
       <c r="Q79" s="78"/>
@@ -12073,10 +12082,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="200"/>
-      <c r="L80" s="201"/>
-      <c r="M80" s="201"/>
-      <c r="N80" s="202"/>
+      <c r="K80" s="198"/>
+      <c r="L80" s="199"/>
+      <c r="M80" s="199"/>
+      <c r="N80" s="200"/>
       <c r="O80" s="86"/>
       <c r="P80" s="86"/>
       <c r="Q80" s="78"/>
@@ -12096,10 +12105,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="200"/>
-      <c r="L81" s="201"/>
-      <c r="M81" s="201"/>
-      <c r="N81" s="202"/>
+      <c r="K81" s="198"/>
+      <c r="L81" s="199"/>
+      <c r="M81" s="199"/>
+      <c r="N81" s="200"/>
       <c r="O81" s="86"/>
       <c r="P81" s="86"/>
       <c r="Q81" s="78"/>
@@ -12119,10 +12128,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="200"/>
-      <c r="L82" s="201"/>
-      <c r="M82" s="201"/>
-      <c r="N82" s="202"/>
+      <c r="K82" s="198"/>
+      <c r="L82" s="199"/>
+      <c r="M82" s="199"/>
+      <c r="N82" s="200"/>
       <c r="O82" s="86"/>
       <c r="P82" s="86"/>
       <c r="Q82" s="78"/>
@@ -12142,10 +12151,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="200"/>
-      <c r="L83" s="201"/>
-      <c r="M83" s="201"/>
-      <c r="N83" s="202"/>
+      <c r="K83" s="198"/>
+      <c r="L83" s="199"/>
+      <c r="M83" s="199"/>
+      <c r="N83" s="200"/>
       <c r="O83" s="86"/>
       <c r="P83" s="86"/>
       <c r="Q83" s="78"/>
@@ -12165,10 +12174,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="200"/>
-      <c r="L84" s="201"/>
-      <c r="M84" s="201"/>
-      <c r="N84" s="202"/>
+      <c r="K84" s="198"/>
+      <c r="L84" s="199"/>
+      <c r="M84" s="199"/>
+      <c r="N84" s="200"/>
       <c r="O84" s="86"/>
       <c r="P84" s="86"/>
       <c r="Q84" s="78"/>
@@ -12188,10 +12197,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="200"/>
-      <c r="L85" s="201"/>
-      <c r="M85" s="201"/>
-      <c r="N85" s="202"/>
+      <c r="K85" s="198"/>
+      <c r="L85" s="199"/>
+      <c r="M85" s="199"/>
+      <c r="N85" s="200"/>
       <c r="O85" s="86"/>
       <c r="P85" s="86"/>
       <c r="Q85" s="78"/>
@@ -12211,10 +12220,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="200"/>
-      <c r="L86" s="201"/>
-      <c r="M86" s="201"/>
-      <c r="N86" s="202"/>
+      <c r="K86" s="198"/>
+      <c r="L86" s="199"/>
+      <c r="M86" s="199"/>
+      <c r="N86" s="200"/>
       <c r="O86" s="86"/>
       <c r="P86" s="86"/>
       <c r="Q86" s="78"/>
@@ -12234,10 +12243,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="200"/>
-      <c r="L87" s="201"/>
-      <c r="M87" s="201"/>
-      <c r="N87" s="202"/>
+      <c r="K87" s="198"/>
+      <c r="L87" s="199"/>
+      <c r="M87" s="199"/>
+      <c r="N87" s="200"/>
       <c r="O87" s="86"/>
       <c r="P87" s="86"/>
       <c r="Q87" s="78"/>
@@ -12257,10 +12266,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="200"/>
-      <c r="L88" s="201"/>
-      <c r="M88" s="201"/>
-      <c r="N88" s="202"/>
+      <c r="K88" s="198"/>
+      <c r="L88" s="199"/>
+      <c r="M88" s="199"/>
+      <c r="N88" s="200"/>
       <c r="O88" s="86"/>
       <c r="P88" s="86"/>
       <c r="Q88" s="78"/>
@@ -12280,10 +12289,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="200"/>
-      <c r="L89" s="201"/>
-      <c r="M89" s="201"/>
-      <c r="N89" s="202"/>
+      <c r="K89" s="198"/>
+      <c r="L89" s="199"/>
+      <c r="M89" s="199"/>
+      <c r="N89" s="200"/>
       <c r="O89" s="86"/>
       <c r="P89" s="86"/>
       <c r="Q89" s="78"/>
@@ -12303,10 +12312,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="200"/>
-      <c r="L90" s="201"/>
-      <c r="M90" s="201"/>
-      <c r="N90" s="202"/>
+      <c r="K90" s="198"/>
+      <c r="L90" s="199"/>
+      <c r="M90" s="199"/>
+      <c r="N90" s="200"/>
       <c r="O90" s="86"/>
       <c r="P90" s="86"/>
       <c r="Q90" s="78"/>
@@ -12326,10 +12335,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="200"/>
-      <c r="L91" s="201"/>
-      <c r="M91" s="201"/>
-      <c r="N91" s="202"/>
+      <c r="K91" s="198"/>
+      <c r="L91" s="199"/>
+      <c r="M91" s="199"/>
+      <c r="N91" s="200"/>
       <c r="O91" s="86"/>
       <c r="P91" s="86"/>
       <c r="Q91" s="78"/>
@@ -12349,10 +12358,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="200"/>
-      <c r="L92" s="201"/>
-      <c r="M92" s="201"/>
-      <c r="N92" s="202"/>
+      <c r="K92" s="198"/>
+      <c r="L92" s="199"/>
+      <c r="M92" s="199"/>
+      <c r="N92" s="200"/>
       <c r="O92" s="86"/>
       <c r="P92" s="86"/>
       <c r="Q92" s="78"/>
@@ -12372,10 +12381,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="200"/>
-      <c r="L93" s="201"/>
-      <c r="M93" s="201"/>
-      <c r="N93" s="202"/>
+      <c r="K93" s="198"/>
+      <c r="L93" s="199"/>
+      <c r="M93" s="199"/>
+      <c r="N93" s="200"/>
       <c r="O93" s="86"/>
       <c r="P93" s="86"/>
       <c r="Q93" s="78"/>
@@ -12395,10 +12404,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="200"/>
-      <c r="L94" s="201"/>
-      <c r="M94" s="201"/>
-      <c r="N94" s="202"/>
+      <c r="K94" s="198"/>
+      <c r="L94" s="199"/>
+      <c r="M94" s="199"/>
+      <c r="N94" s="200"/>
       <c r="O94" s="86"/>
       <c r="P94" s="86"/>
       <c r="Q94" s="78"/>
@@ -12411,56 +12420,33 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K5:N5"/>
@@ -12477,34 +12463,57 @@
     <mergeCell ref="K69:N69"/>
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
     <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -12533,8 +12542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:I26"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -12550,10 +12559,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12583,8 +12592,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12804,7 +12813,7 @@
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="B20" s="43"/>
       <c r="C20" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -12875,80 +12884,80 @@
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
     </row>
-    <row r="26" spans="1:10" s="137" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A26" s="136"/>
-      <c r="B26" s="211" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="133"/>
+    <row r="26" spans="1:10" s="135" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A26" s="134"/>
+      <c r="B26" s="206" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="207"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" ht="29.25" customHeight="1">
       <c r="A27" s="75"/>
-      <c r="B27" s="134" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="210" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
+      <c r="B27" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="C27" s="205" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="205"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="205"/>
+      <c r="G27" s="205"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" ht="26.25" customHeight="1">
       <c r="A28" s="42"/>
-      <c r="B28" s="134" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="210" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="210"/>
+      <c r="B28" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="205" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="205"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="205"/>
+      <c r="G28" s="205"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1">
       <c r="A29" s="42"/>
-      <c r="B29" s="134" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="210" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
+      <c r="B29" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="205" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
       <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" customHeight="1">
       <c r="A30" s="42"/>
-      <c r="B30" s="134" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="210" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="210"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="210"/>
+      <c r="B30" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="205" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="205"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
       <c r="J30" s="46"/>
@@ -13713,10 +13722,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="167"/>
+      <c r="B1" s="164"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13744,8 +13753,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
